--- a/works/decentralized-data-management/literatures/literatures_review.xlsx
+++ b/works/decentralized-data-management/literatures/literatures_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gioelebigini/Documents/GitHub/phd-thesis/Publications/decentralized-ml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gioelebigini/Documents/GitHub/phd-thesis/works/decentralized-data-management/literatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3329085-4058-224A-A4E4-7A5E9A27E187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D757E-7D8B-1147-A731-1E9AEA1E85C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Title</t>
   </si>
@@ -48,17 +48,236 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Insights</t>
-  </si>
-  <si>
-    <t>Topic</t>
+    <t>Distributed Off-Chain Storage of Patient Diagnostic Reports in Healthcare System Using IPFS and Blockchain</t>
+  </si>
+  <si>
+    <t>On the Design of a Blockchain-as-a-Service-Based Health Information Exchange (BaaS-HIE) System for Patient Monitoring</t>
+  </si>
+  <si>
+    <t>Decentralized Transfer Learning using Blockchain IPFS for Deep Learning</t>
+  </si>
+  <si>
+    <t>VAHAK: A Blockchain-based Outdoor Delivery Scheme using UAV for Healthcare 4.0 Services</t>
+  </si>
+  <si>
+    <t>Inter-Planetary File System Enabled Blockchain Solution For Securing Healthcare Records</t>
+  </si>
+  <si>
+    <t>Blockchain for Giving Patients Control over their Medical Records</t>
+  </si>
+  <si>
+    <t>AaYusH: A Smart Contract-Based Telesurgery System for Healthcare 4.0</t>
+  </si>
+  <si>
+    <t>Emergency Service for Smart Home System Using Ethereum Blockchain: System and Architecture</t>
+  </si>
+  <si>
+    <t>Blockchain for Secure EHRs Sharing of Mobile Cloud Based E-Health Systems</t>
+  </si>
+  <si>
+    <t>HapiChain: A Blockchain-based Framework for Patient-Centric Telemedicine</t>
+  </si>
+  <si>
+    <t>Decentralised and Distributed System for Organ/Tissue Donation and Transplantation</t>
+  </si>
+  <si>
+    <t>Using Blockchain Technology for Continuing Medical Education Credits System</t>
+  </si>
+  <si>
+    <t>BITS: A Blockchain-driven Intelligent Scheme for Telesurgery System</t>
+  </si>
+  <si>
+    <t>A Trustworthy Privacy Preserving Framework for Machine Learning in Industrial IoT Systems</t>
+  </si>
+  <si>
+    <t>Ensuring protocol compliance and data transparency in clinical trials using Blockchain smart contracts</t>
+  </si>
+  <si>
+    <t>Applications of Blockchain Technology in Clinical Trials: Review and Open Challenges</t>
+  </si>
+  <si>
+    <t>Blockchain in IoT: Current Trends, Challenges, and Future Roadmap</t>
+  </si>
+  <si>
+    <t>Blockchain Paradigm and Internet of Things</t>
+  </si>
+  <si>
+    <t>Towards developing a secure medical image sharing system based on zero trust principles and blockchain technology</t>
+  </si>
+  <si>
+    <t>Unification of Blockchain and Internet of Things (BIoT): requirements, working model, challenges and future directions</t>
+  </si>
+  <si>
+    <t>Blockchain Technology: Principles and Applications in Medical Imaging</t>
+  </si>
+  <si>
+    <t>A survey on boosting IoT security and privacy through blockchain</t>
+  </si>
+  <si>
+    <t>The quality traceability system for prefabricated buildings using blockchain: An integrated framework</t>
+  </si>
+  <si>
+    <t>Secure decentralized peer-to-peer training of deep neural networks based on distributed ledger technology</t>
+  </si>
+  <si>
+    <t>Studying gas exceptions in blockchain-based cloud applications</t>
+  </si>
+  <si>
+    <t>Developing a comprehensive information security framework for mHealth: a detailed analysis</t>
+  </si>
+  <si>
+    <t>Information retrieval: a view from the Chinese IR community</t>
+  </si>
+  <si>
+    <t>A Survey of Blockchain-Based Strategies for Healthcare</t>
+  </si>
+  <si>
+    <t>Security and Privacy on Blockchain</t>
+  </si>
+  <si>
+    <t>A Survey of IoT Applications in Blockchain Systems: Architecture, Consensus, and Traffic Modeling</t>
+  </si>
+  <si>
+    <t>Blockchain Based Access Control Systems: State of the Art and Challenges</t>
+  </si>
+  <si>
+    <t>Blockchain Technology for Cloud Storage: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>Building Blocks of Negotiating Agents for Healthcare Data</t>
+  </si>
+  <si>
+    <t>How to Define Value on Data under Blockchain Driven Open Data System for E-Government</t>
+  </si>
+  <si>
+    <t>On the Design of Communication and Transaction Anonymity in Blockchain-Based Transactive Microgrids</t>
+  </si>
+  <si>
+    <t>Performance Considerations for Edge Blockchain Systems in Emerging 5G Data Networks</t>
+  </si>
+  <si>
+    <t>Decentralized and Secure Delivery Network of IoT Update Files Based on Ethereum Smart Contracts and Blockchain Technology</t>
+  </si>
+  <si>
+    <t>A Security and Privacy Focused KYC Data Sharing Platform</t>
+  </si>
+  <si>
+    <t>Applications of Distributed Ledger Technologies to the Internet of Things: A Survey</t>
+  </si>
+  <si>
+    <t>On the Tracking of Sensitive Data and Confidential Executions</t>
+  </si>
+  <si>
+    <t>Blockchain Technology for Healthcare Data</t>
+  </si>
+  <si>
+    <t>Blockchain based e-healthcare record system</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Randhir Kumar</t>
+  </si>
+  <si>
+    <t>2020 12th International Conference on Communication Systems &amp; Networks</t>
+  </si>
+  <si>
+    <t>Journal/Conference</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>2019 IEEE Symposium on Computers and Communications (ISCC)</t>
+  </si>
+  <si>
+    <t>Alina Buzachis</t>
+  </si>
+  <si>
+    <t>They used private Blockchain. They used smart contracts. They developed a access control mechanism.</t>
+  </si>
+  <si>
+    <t>Anwar ul Haque</t>
+  </si>
+  <si>
+    <t>2020 International Conference on Information Networking (ICOIN)</t>
+  </si>
+  <si>
+    <t>They used a private blockchain. They submit data through WEB UI. They use PoW for Mining. They use the PoI Protocol. They use IPFS.</t>
+  </si>
+  <si>
+    <t>They used private blockchain. They mention Transfer Learning. They use smart contracts. They developed an access control mechanisms. They use IPFS. They do incetivation</t>
+  </si>
+  <si>
+    <t>Rajesh Gupta</t>
+  </si>
+  <si>
+    <t>2020 IEEE Conference on Computer Communications Workshops (INFOCOM WKSHPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A bit out of scope. They are more focused on rapid data providing. They use IPFS. They focus on bringing medicines at home with drones. Architecture of Data Management not in the focus.</t>
+  </si>
+  <si>
+    <t>Raghavendra K Marangappanavar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Third ISEA Conference on Security and Privacy </t>
+  </si>
+  <si>
+    <t>Based on Smart Contracts. Not very clear. It is more a model suggestion than implementation. It contains security considerations</t>
+  </si>
+  <si>
+    <t>Mohammad Moussa Madine</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They mention decentralization Is key. They introduce Oracles. Based on Smart Contracts. </t>
+  </si>
+  <si>
+    <t>They use Smart Contracts. They use 5G. It is not for data management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020 IEEE International Conference on Communications Workshops (ICC Workshops)</t>
+  </si>
+  <si>
+    <t>Thitinan Tantidham</t>
+  </si>
+  <si>
+    <t>SmartEdge'19 - The Third International Workshop on Smart Edge Computing and Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on emergency response. IPFS used for emergency call handling. Based on Smart contracts. </t>
+  </si>
+  <si>
+    <t>Dinh C Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They used IPFS. They develepoed a Access Control Mechanism. They address mobile app.They involve smart contracts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020 IEEE 8th International Conference on Serious Games and Applications for Health (SeGAH)</t>
+  </si>
+  <si>
+    <t>Hossain Kordestani</t>
+  </si>
+  <si>
+    <t>They focus on Telemedicine. They focus on patient-centricity. It is a framework. They cite themeselves. They analyze the process of teleconsulting. They use IPFS. They use Smart Contracts. Based on ethereum. They introduce a webapp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -80,21 +299,81 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -107,80 +386,181 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,35 +845,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U853"/>
+  <dimension ref="A1:Q853"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="93.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -503,4364 +884,4799 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="C3" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="49">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="50">
+        <v>4</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="53">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-    </row>
-    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="C4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="54">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="49">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="55">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="49">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="54">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2020</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="55">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="55">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="26">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="27">
+        <v>12</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="56">
+        <v>9</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="49">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="50">
+        <v>55</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="A12" s="56">
+        <v>10</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="49">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="57">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="57">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="57">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="57">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="57">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="57">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="57">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="57">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="57">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58">
+        <v>20</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="57">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="57">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="57">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="57">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="57">
+        <v>25</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="57">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="57">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="57">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="57">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="57">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="57">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="57">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="57">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="57">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="57">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="57">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="59">
+        <v>37</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="57">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="57">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="57">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="59">
+        <v>41</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="59">
+        <v>42</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D47" s="7"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="9"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="9"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="9"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="9"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="9"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="9"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="9"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="9"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="9"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="9"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="9"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="9"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="9"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="9"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="9"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="9"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="9"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="9"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="9"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="9"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="9"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="9"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="9"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="9"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="9"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="9"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="9"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="9"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="9"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="9"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="9"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="9"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="9"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="9"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="9"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="9"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="9"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="9"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="9"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="9"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="9"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="9"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="9"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="9"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="9"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="9"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="9"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="9"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="9"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="9"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="9"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="9"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="9"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="9"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="9"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="9"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="9"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="9"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="9"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="9"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="9"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="9"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="9"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="9"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="9"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="9"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="9"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="9"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="9"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="9"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="9"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="9"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="9"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="9"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="9"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="9"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="9"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="9"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="9"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="9"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="9"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="9"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="9"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="9"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="9"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="9"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="9"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="9"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="9"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="9"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="9"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="9"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="9"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="9"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="9"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="9"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="9"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="9"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="9"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="9"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="9"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="9"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="9"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="9"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="9"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="9"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="9"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="9"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="9"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="9"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="9"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="9"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="9"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="9"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="9"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="9"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="9"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="9"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="9"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="9"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="9"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="9"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="9"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="9"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="9"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="9"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="9"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="9"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="9"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="9"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="9"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="9"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="9"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="9"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="9"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="9"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="9"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="9"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="9"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="9"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
-      <c r="D198" s="16"/>
-      <c r="E198" s="9"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="9"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="9"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
-      <c r="D201" s="16"/>
-      <c r="E201" s="9"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
-      <c r="D202" s="16"/>
-      <c r="E202" s="9"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="9"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
-      <c r="D204" s="16"/>
-      <c r="E204" s="9"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
-      <c r="D205" s="16"/>
-      <c r="E205" s="9"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="9"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="9"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="9"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="9"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="9"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="9"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="9"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="9"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="5"/>
     </row>
     <row r="214" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
-      <c r="D214" s="16"/>
-      <c r="E214" s="9"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="9"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="5"/>
     </row>
     <row r="216" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
-      <c r="D216" s="16"/>
-      <c r="E216" s="9"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="5"/>
     </row>
     <row r="217" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="9"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="5"/>
     </row>
     <row r="218" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
-      <c r="D218" s="16"/>
-      <c r="E218" s="9"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="5"/>
     </row>
     <row r="219" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="9"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="5"/>
     </row>
     <row r="220" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
-      <c r="D220" s="16"/>
-      <c r="E220" s="9"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2"/>
-      <c r="D221" s="16"/>
-      <c r="E221" s="9"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="9"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2"/>
-      <c r="D223" s="16"/>
-      <c r="E223" s="9"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="5"/>
     </row>
     <row r="224" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2"/>
-      <c r="D224" s="16"/>
-      <c r="E224" s="9"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="5"/>
     </row>
     <row r="225" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
-      <c r="D225" s="16"/>
-      <c r="E225" s="9"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="5"/>
     </row>
     <row r="226" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2"/>
-      <c r="D226" s="16"/>
-      <c r="E226" s="9"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="5"/>
     </row>
     <row r="227" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2"/>
-      <c r="D227" s="16"/>
-      <c r="E227" s="9"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="9"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="5"/>
     </row>
     <row r="229" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2"/>
-      <c r="D229" s="16"/>
-      <c r="E229" s="9"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="5"/>
     </row>
     <row r="230" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2"/>
-      <c r="D230" s="16"/>
-      <c r="E230" s="9"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="5"/>
     </row>
     <row r="231" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="9"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="5"/>
     </row>
     <row r="232" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="9"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="5"/>
     </row>
     <row r="233" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2"/>
-      <c r="D233" s="16"/>
-      <c r="E233" s="9"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="5"/>
     </row>
     <row r="234" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2"/>
-      <c r="D234" s="16"/>
-      <c r="E234" s="9"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="5"/>
     </row>
     <row r="235" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2"/>
-      <c r="D235" s="16"/>
-      <c r="E235" s="9"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="5"/>
     </row>
     <row r="236" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="9"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="5"/>
     </row>
     <row r="237" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="9"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="5"/>
     </row>
     <row r="238" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="9"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="5"/>
     </row>
     <row r="239" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="9"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="5"/>
     </row>
     <row r="240" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2"/>
-      <c r="D240" s="16"/>
-      <c r="E240" s="9"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="5"/>
     </row>
     <row r="241" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="9"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="5"/>
     </row>
     <row r="242" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
-      <c r="D242" s="16"/>
-      <c r="E242" s="9"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="5"/>
     </row>
     <row r="243" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
-      <c r="D243" s="16"/>
-      <c r="E243" s="9"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="5"/>
     </row>
     <row r="244" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
-      <c r="D244" s="16"/>
-      <c r="E244" s="9"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="5"/>
     </row>
     <row r="245" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="9"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="5"/>
     </row>
     <row r="246" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
-      <c r="D246" s="16"/>
-      <c r="E246" s="9"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="5"/>
     </row>
     <row r="247" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
-      <c r="D247" s="16"/>
-      <c r="E247" s="9"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="5"/>
     </row>
     <row r="248" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
-      <c r="D248" s="16"/>
-      <c r="E248" s="9"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="5"/>
     </row>
     <row r="249" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
-      <c r="D249" s="16"/>
-      <c r="E249" s="9"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="5"/>
     </row>
     <row r="250" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="9"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="5"/>
     </row>
     <row r="251" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
-      <c r="D251" s="16"/>
-      <c r="E251" s="9"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="5"/>
     </row>
     <row r="252" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
-      <c r="D252" s="16"/>
-      <c r="E252" s="9"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="5"/>
     </row>
     <row r="253" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
-      <c r="D253" s="16"/>
-      <c r="E253" s="9"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="5"/>
     </row>
     <row r="254" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
-      <c r="D254" s="16"/>
-      <c r="E254" s="9"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="5"/>
     </row>
     <row r="255" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
-      <c r="D255" s="16"/>
-      <c r="E255" s="9"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="5"/>
     </row>
     <row r="256" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
-      <c r="D256" s="16"/>
-      <c r="E256" s="9"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="5"/>
     </row>
     <row r="257" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
-      <c r="D257" s="16"/>
-      <c r="E257" s="9"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="5"/>
     </row>
     <row r="258" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
-      <c r="D258" s="16"/>
-      <c r="E258" s="9"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="5"/>
     </row>
     <row r="259" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
-      <c r="D259" s="16"/>
-      <c r="E259" s="9"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="5"/>
     </row>
     <row r="260" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
-      <c r="D260" s="16"/>
-      <c r="E260" s="9"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="5"/>
     </row>
     <row r="261" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
-      <c r="D261" s="16"/>
-      <c r="E261" s="9"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="5"/>
     </row>
     <row r="262" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
-      <c r="D262" s="16"/>
-      <c r="E262" s="9"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="5"/>
     </row>
     <row r="263" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
-      <c r="D263" s="16"/>
-      <c r="E263" s="9"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="5"/>
     </row>
     <row r="264" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
-      <c r="D264" s="16"/>
-      <c r="E264" s="9"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="5"/>
     </row>
     <row r="265" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
-      <c r="D265" s="16"/>
-      <c r="E265" s="9"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="5"/>
     </row>
     <row r="266" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
-      <c r="D266" s="16"/>
-      <c r="E266" s="9"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="5"/>
     </row>
     <row r="267" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="9"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="5"/>
     </row>
     <row r="268" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
-      <c r="D268" s="16"/>
-      <c r="E268" s="9"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="5"/>
     </row>
     <row r="269" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="9"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="5"/>
     </row>
     <row r="270" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
-      <c r="D270" s="16"/>
-      <c r="E270" s="9"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="5"/>
     </row>
     <row r="271" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
-      <c r="D271" s="16"/>
-      <c r="E271" s="9"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="5"/>
     </row>
     <row r="272" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
-      <c r="D272" s="16"/>
-      <c r="E272" s="9"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="5"/>
     </row>
     <row r="273" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
-      <c r="D273" s="16"/>
-      <c r="E273" s="9"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="5"/>
     </row>
     <row r="274" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
-      <c r="D274" s="16"/>
-      <c r="E274" s="9"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="5"/>
     </row>
     <row r="275" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
-      <c r="D275" s="16"/>
-      <c r="E275" s="9"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="5"/>
     </row>
     <row r="276" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
-      <c r="D276" s="16"/>
-      <c r="E276" s="9"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="5"/>
     </row>
     <row r="277" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
-      <c r="D277" s="16"/>
-      <c r="E277" s="9"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="5"/>
     </row>
     <row r="278" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
-      <c r="D278" s="16"/>
-      <c r="E278" s="9"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="5"/>
     </row>
     <row r="279" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
-      <c r="D279" s="16"/>
-      <c r="E279" s="9"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="5"/>
     </row>
     <row r="280" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
-      <c r="D280" s="16"/>
-      <c r="E280" s="9"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="5"/>
     </row>
     <row r="281" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
-      <c r="D281" s="16"/>
-      <c r="E281" s="9"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="5"/>
     </row>
     <row r="282" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
-      <c r="D282" s="16"/>
-      <c r="E282" s="9"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="5"/>
     </row>
     <row r="283" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="2"/>
-      <c r="D283" s="16"/>
-      <c r="E283" s="9"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="5"/>
     </row>
     <row r="284" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="2"/>
-      <c r="D284" s="16"/>
-      <c r="E284" s="9"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="5"/>
     </row>
     <row r="285" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2"/>
-      <c r="D285" s="16"/>
-      <c r="E285" s="9"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="5"/>
     </row>
     <row r="286" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2"/>
-      <c r="D286" s="16"/>
-      <c r="E286" s="9"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="5"/>
     </row>
     <row r="287" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="9"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="5"/>
     </row>
     <row r="288" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2"/>
-      <c r="D288" s="16"/>
-      <c r="E288" s="9"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="5"/>
     </row>
     <row r="289" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2"/>
-      <c r="D289" s="16"/>
-      <c r="E289" s="9"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="5"/>
     </row>
     <row r="290" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="2"/>
-      <c r="D290" s="16"/>
-      <c r="E290" s="9"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="5"/>
     </row>
     <row r="291" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="2"/>
-      <c r="D291" s="16"/>
-      <c r="E291" s="9"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="5"/>
     </row>
     <row r="292" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="2"/>
-      <c r="D292" s="16"/>
-      <c r="E292" s="9"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="5"/>
     </row>
     <row r="293" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="2"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="9"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="5"/>
     </row>
     <row r="294" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="2"/>
-      <c r="D294" s="16"/>
-      <c r="E294" s="9"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="5"/>
     </row>
     <row r="295" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="2"/>
-      <c r="D295" s="16"/>
-      <c r="E295" s="9"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="5"/>
     </row>
     <row r="296" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="2"/>
-      <c r="D296" s="16"/>
-      <c r="E296" s="9"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="5"/>
     </row>
     <row r="297" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="2"/>
-      <c r="D297" s="16"/>
-      <c r="E297" s="9"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="5"/>
     </row>
     <row r="298" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="2"/>
-      <c r="D298" s="16"/>
-      <c r="E298" s="9"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="5"/>
     </row>
     <row r="299" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="2"/>
-      <c r="D299" s="16"/>
-      <c r="E299" s="9"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="5"/>
     </row>
     <row r="300" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="2"/>
-      <c r="D300" s="16"/>
-      <c r="E300" s="9"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="5"/>
     </row>
     <row r="301" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="2"/>
-      <c r="D301" s="16"/>
-      <c r="E301" s="9"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="5"/>
     </row>
     <row r="302" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
-      <c r="D302" s="16"/>
-      <c r="E302" s="9"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="5"/>
     </row>
     <row r="303" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="2"/>
-      <c r="D303" s="16"/>
-      <c r="E303" s="9"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="5"/>
     </row>
     <row r="304" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="2"/>
-      <c r="D304" s="16"/>
-      <c r="E304" s="9"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="5"/>
     </row>
     <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="2"/>
-      <c r="D305" s="16"/>
-      <c r="E305" s="9"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="5"/>
     </row>
     <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="2"/>
-      <c r="D306" s="16"/>
-      <c r="E306" s="9"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="5"/>
     </row>
     <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="2"/>
-      <c r="D307" s="16"/>
-      <c r="E307" s="9"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="5"/>
     </row>
     <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="2"/>
-      <c r="D308" s="16"/>
-      <c r="E308" s="9"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="5"/>
     </row>
     <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="2"/>
-      <c r="D309" s="16"/>
-      <c r="E309" s="9"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="5"/>
     </row>
     <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="2"/>
-      <c r="D310" s="16"/>
-      <c r="E310" s="9"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="5"/>
     </row>
     <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
-      <c r="D311" s="16"/>
-      <c r="E311" s="9"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="5"/>
     </row>
     <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="2"/>
-      <c r="D312" s="16"/>
-      <c r="E312" s="9"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="5"/>
     </row>
     <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="2"/>
-      <c r="D313" s="16"/>
-      <c r="E313" s="9"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="5"/>
     </row>
     <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="2"/>
-      <c r="D314" s="16"/>
-      <c r="E314" s="9"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="2"/>
-      <c r="D315" s="16"/>
-      <c r="E315" s="9"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="5"/>
     </row>
     <row r="316" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="2"/>
-      <c r="D316" s="16"/>
-      <c r="E316" s="9"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="5"/>
     </row>
     <row r="317" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="2"/>
-      <c r="D317" s="16"/>
-      <c r="E317" s="9"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="5"/>
     </row>
     <row r="318" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="2"/>
-      <c r="D318" s="16"/>
-      <c r="E318" s="9"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="5"/>
     </row>
     <row r="319" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="2"/>
-      <c r="D319" s="16"/>
-      <c r="E319" s="9"/>
+      <c r="D319" s="7"/>
+      <c r="E319" s="5"/>
     </row>
     <row r="320" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="2"/>
-      <c r="D320" s="16"/>
-      <c r="E320" s="9"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="5"/>
     </row>
     <row r="321" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="2"/>
-      <c r="D321" s="16"/>
-      <c r="E321" s="9"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="5"/>
     </row>
     <row r="322" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="2"/>
-      <c r="D322" s="16"/>
-      <c r="E322" s="9"/>
+      <c r="D322" s="7"/>
+      <c r="E322" s="5"/>
     </row>
     <row r="323" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="2"/>
-      <c r="D323" s="16"/>
-      <c r="E323" s="9"/>
+      <c r="D323" s="7"/>
+      <c r="E323" s="5"/>
     </row>
     <row r="324" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="2"/>
-      <c r="D324" s="16"/>
-      <c r="E324" s="9"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="5"/>
     </row>
     <row r="325" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="2"/>
-      <c r="D325" s="16"/>
-      <c r="E325" s="9"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="5"/>
     </row>
     <row r="326" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="2"/>
-      <c r="D326" s="16"/>
-      <c r="E326" s="9"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="5"/>
     </row>
     <row r="327" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="2"/>
-      <c r="D327" s="16"/>
-      <c r="E327" s="9"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="5"/>
     </row>
     <row r="328" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="2"/>
-      <c r="D328" s="16"/>
-      <c r="E328" s="9"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="5"/>
     </row>
     <row r="329" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="2"/>
-      <c r="D329" s="16"/>
-      <c r="E329" s="9"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="5"/>
     </row>
     <row r="330" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="2"/>
-      <c r="D330" s="16"/>
-      <c r="E330" s="9"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="5"/>
     </row>
     <row r="331" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="2"/>
-      <c r="D331" s="16"/>
-      <c r="E331" s="9"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="5"/>
     </row>
     <row r="332" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="2"/>
-      <c r="D332" s="16"/>
-      <c r="E332" s="9"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="5"/>
     </row>
     <row r="333" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="2"/>
-      <c r="D333" s="16"/>
-      <c r="E333" s="9"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="5"/>
     </row>
     <row r="334" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="2"/>
-      <c r="D334" s="16"/>
-      <c r="E334" s="9"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="5"/>
     </row>
     <row r="335" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="2"/>
-      <c r="D335" s="16"/>
-      <c r="E335" s="9"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="5"/>
     </row>
     <row r="336" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="2"/>
-      <c r="D336" s="16"/>
-      <c r="E336" s="9"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="5"/>
     </row>
     <row r="337" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="2"/>
-      <c r="D337" s="16"/>
-      <c r="E337" s="9"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="5"/>
     </row>
     <row r="338" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="2"/>
-      <c r="D338" s="16"/>
-      <c r="E338" s="9"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="5"/>
     </row>
     <row r="339" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="2"/>
-      <c r="D339" s="16"/>
-      <c r="E339" s="9"/>
+      <c r="D339" s="7"/>
+      <c r="E339" s="5"/>
     </row>
     <row r="340" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="2"/>
-      <c r="D340" s="16"/>
-      <c r="E340" s="9"/>
+      <c r="D340" s="7"/>
+      <c r="E340" s="5"/>
     </row>
     <row r="341" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
-      <c r="D341" s="16"/>
-      <c r="E341" s="9"/>
+      <c r="D341" s="7"/>
+      <c r="E341" s="5"/>
     </row>
     <row r="342" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="2"/>
-      <c r="D342" s="16"/>
-      <c r="E342" s="9"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="5"/>
     </row>
     <row r="343" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="2"/>
-      <c r="D343" s="16"/>
-      <c r="E343" s="9"/>
+      <c r="D343" s="7"/>
+      <c r="E343" s="5"/>
     </row>
     <row r="344" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="2"/>
-      <c r="D344" s="16"/>
-      <c r="E344" s="9"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="5"/>
     </row>
     <row r="345" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="2"/>
-      <c r="D345" s="16"/>
-      <c r="E345" s="9"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="5"/>
     </row>
     <row r="346" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="2"/>
-      <c r="D346" s="16"/>
-      <c r="E346" s="9"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="5"/>
     </row>
     <row r="347" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
-      <c r="D347" s="16"/>
-      <c r="E347" s="9"/>
+      <c r="D347" s="7"/>
+      <c r="E347" s="5"/>
     </row>
     <row r="348" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="2"/>
-      <c r="D348" s="16"/>
-      <c r="E348" s="9"/>
+      <c r="D348" s="7"/>
+      <c r="E348" s="5"/>
     </row>
     <row r="349" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="2"/>
-      <c r="D349" s="16"/>
-      <c r="E349" s="9"/>
+      <c r="D349" s="7"/>
+      <c r="E349" s="5"/>
     </row>
     <row r="350" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="2"/>
-      <c r="D350" s="16"/>
-      <c r="E350" s="9"/>
+      <c r="D350" s="7"/>
+      <c r="E350" s="5"/>
     </row>
     <row r="351" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="2"/>
-      <c r="D351" s="16"/>
-      <c r="E351" s="9"/>
+      <c r="D351" s="7"/>
+      <c r="E351" s="5"/>
     </row>
     <row r="352" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="2"/>
-      <c r="D352" s="16"/>
-      <c r="E352" s="9"/>
+      <c r="D352" s="7"/>
+      <c r="E352" s="5"/>
     </row>
     <row r="353" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="2"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="9"/>
+      <c r="D353" s="7"/>
+      <c r="E353" s="5"/>
     </row>
     <row r="354" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="2"/>
-      <c r="D354" s="16"/>
-      <c r="E354" s="9"/>
+      <c r="D354" s="7"/>
+      <c r="E354" s="5"/>
     </row>
     <row r="355" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="2"/>
-      <c r="D355" s="16"/>
-      <c r="E355" s="9"/>
+      <c r="D355" s="7"/>
+      <c r="E355" s="5"/>
     </row>
     <row r="356" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
-      <c r="D356" s="16"/>
-      <c r="E356" s="9"/>
+      <c r="D356" s="7"/>
+      <c r="E356" s="5"/>
     </row>
     <row r="357" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="2"/>
-      <c r="D357" s="16"/>
-      <c r="E357" s="9"/>
+      <c r="D357" s="7"/>
+      <c r="E357" s="5"/>
     </row>
     <row r="358" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="2"/>
-      <c r="D358" s="16"/>
-      <c r="E358" s="9"/>
+      <c r="D358" s="7"/>
+      <c r="E358" s="5"/>
     </row>
     <row r="359" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="2"/>
-      <c r="D359" s="16"/>
-      <c r="E359" s="9"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="5"/>
     </row>
     <row r="360" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
-      <c r="D360" s="16"/>
-      <c r="E360" s="9"/>
+      <c r="D360" s="7"/>
+      <c r="E360" s="5"/>
     </row>
     <row r="361" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="2"/>
-      <c r="D361" s="16"/>
-      <c r="E361" s="9"/>
+      <c r="D361" s="7"/>
+      <c r="E361" s="5"/>
     </row>
     <row r="362" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="2"/>
-      <c r="D362" s="16"/>
-      <c r="E362" s="9"/>
+      <c r="D362" s="7"/>
+      <c r="E362" s="5"/>
     </row>
     <row r="363" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="2"/>
-      <c r="D363" s="16"/>
-      <c r="E363" s="9"/>
+      <c r="D363" s="7"/>
+      <c r="E363" s="5"/>
     </row>
     <row r="364" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="2"/>
-      <c r="D364" s="16"/>
-      <c r="E364" s="9"/>
+      <c r="D364" s="7"/>
+      <c r="E364" s="5"/>
     </row>
     <row r="365" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
-      <c r="D365" s="16"/>
-      <c r="E365" s="9"/>
+      <c r="D365" s="7"/>
+      <c r="E365" s="5"/>
     </row>
     <row r="366" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="2"/>
-      <c r="D366" s="16"/>
-      <c r="E366" s="9"/>
+      <c r="D366" s="7"/>
+      <c r="E366" s="5"/>
     </row>
     <row r="367" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="2"/>
-      <c r="D367" s="16"/>
-      <c r="E367" s="9"/>
+      <c r="D367" s="7"/>
+      <c r="E367" s="5"/>
     </row>
     <row r="368" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="2"/>
-      <c r="D368" s="16"/>
-      <c r="E368" s="9"/>
+      <c r="D368" s="7"/>
+      <c r="E368" s="5"/>
     </row>
     <row r="369" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="2"/>
-      <c r="D369" s="16"/>
-      <c r="E369" s="9"/>
+      <c r="D369" s="7"/>
+      <c r="E369" s="5"/>
     </row>
     <row r="370" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="2"/>
-      <c r="D370" s="16"/>
-      <c r="E370" s="9"/>
+      <c r="D370" s="7"/>
+      <c r="E370" s="5"/>
     </row>
     <row r="371" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="2"/>
-      <c r="D371" s="16"/>
-      <c r="E371" s="9"/>
+      <c r="D371" s="7"/>
+      <c r="E371" s="5"/>
     </row>
     <row r="372" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="2"/>
-      <c r="D372" s="16"/>
-      <c r="E372" s="9"/>
+      <c r="D372" s="7"/>
+      <c r="E372" s="5"/>
     </row>
     <row r="373" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="2"/>
-      <c r="D373" s="16"/>
-      <c r="E373" s="9"/>
+      <c r="D373" s="7"/>
+      <c r="E373" s="5"/>
     </row>
     <row r="374" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="2"/>
-      <c r="D374" s="16"/>
-      <c r="E374" s="9"/>
+      <c r="D374" s="7"/>
+      <c r="E374" s="5"/>
     </row>
     <row r="375" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="2"/>
-      <c r="D375" s="16"/>
-      <c r="E375" s="9"/>
+      <c r="D375" s="7"/>
+      <c r="E375" s="5"/>
     </row>
     <row r="376" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="2"/>
-      <c r="D376" s="16"/>
-      <c r="E376" s="9"/>
+      <c r="D376" s="7"/>
+      <c r="E376" s="5"/>
     </row>
     <row r="377" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="2"/>
-      <c r="D377" s="16"/>
-      <c r="E377" s="9"/>
+      <c r="D377" s="7"/>
+      <c r="E377" s="5"/>
     </row>
     <row r="378" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="2"/>
-      <c r="D378" s="16"/>
-      <c r="E378" s="9"/>
+      <c r="D378" s="7"/>
+      <c r="E378" s="5"/>
     </row>
     <row r="379" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="2"/>
-      <c r="D379" s="16"/>
-      <c r="E379" s="9"/>
+      <c r="D379" s="7"/>
+      <c r="E379" s="5"/>
     </row>
     <row r="380" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="2"/>
-      <c r="D380" s="16"/>
-      <c r="E380" s="9"/>
+      <c r="D380" s="7"/>
+      <c r="E380" s="5"/>
     </row>
     <row r="381" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="2"/>
-      <c r="D381" s="16"/>
-      <c r="E381" s="9"/>
+      <c r="D381" s="7"/>
+      <c r="E381" s="5"/>
     </row>
     <row r="382" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="2"/>
-      <c r="D382" s="16"/>
-      <c r="E382" s="9"/>
+      <c r="D382" s="7"/>
+      <c r="E382" s="5"/>
     </row>
     <row r="383" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="2"/>
-      <c r="D383" s="16"/>
-      <c r="E383" s="9"/>
+      <c r="D383" s="7"/>
+      <c r="E383" s="5"/>
     </row>
     <row r="384" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="2"/>
-      <c r="D384" s="16"/>
-      <c r="E384" s="9"/>
+      <c r="D384" s="7"/>
+      <c r="E384" s="5"/>
     </row>
     <row r="385" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="2"/>
-      <c r="D385" s="16"/>
-      <c r="E385" s="9"/>
+      <c r="D385" s="7"/>
+      <c r="E385" s="5"/>
     </row>
     <row r="386" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="2"/>
-      <c r="D386" s="16"/>
-      <c r="E386" s="9"/>
+      <c r="D386" s="7"/>
+      <c r="E386" s="5"/>
     </row>
     <row r="387" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="2"/>
-      <c r="D387" s="16"/>
-      <c r="E387" s="9"/>
+      <c r="D387" s="7"/>
+      <c r="E387" s="5"/>
     </row>
     <row r="388" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="2"/>
-      <c r="D388" s="16"/>
-      <c r="E388" s="9"/>
+      <c r="D388" s="7"/>
+      <c r="E388" s="5"/>
     </row>
     <row r="389" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="2"/>
-      <c r="D389" s="16"/>
-      <c r="E389" s="9"/>
+      <c r="D389" s="7"/>
+      <c r="E389" s="5"/>
     </row>
     <row r="390" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="2"/>
-      <c r="D390" s="16"/>
-      <c r="E390" s="9"/>
+      <c r="D390" s="7"/>
+      <c r="E390" s="5"/>
     </row>
     <row r="391" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="2"/>
-      <c r="D391" s="16"/>
-      <c r="E391" s="9"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="5"/>
     </row>
     <row r="392" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="2"/>
-      <c r="D392" s="16"/>
-      <c r="E392" s="9"/>
+      <c r="D392" s="7"/>
+      <c r="E392" s="5"/>
     </row>
     <row r="393" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="2"/>
-      <c r="D393" s="16"/>
-      <c r="E393" s="9"/>
+      <c r="D393" s="7"/>
+      <c r="E393" s="5"/>
     </row>
     <row r="394" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="2"/>
-      <c r="D394" s="16"/>
-      <c r="E394" s="9"/>
+      <c r="D394" s="7"/>
+      <c r="E394" s="5"/>
     </row>
     <row r="395" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="2"/>
-      <c r="D395" s="16"/>
-      <c r="E395" s="9"/>
+      <c r="D395" s="7"/>
+      <c r="E395" s="5"/>
     </row>
     <row r="396" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="2"/>
-      <c r="D396" s="16"/>
-      <c r="E396" s="9"/>
+      <c r="D396" s="7"/>
+      <c r="E396" s="5"/>
     </row>
     <row r="397" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="2"/>
-      <c r="D397" s="16"/>
-      <c r="E397" s="9"/>
+      <c r="D397" s="7"/>
+      <c r="E397" s="5"/>
     </row>
     <row r="398" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="2"/>
-      <c r="D398" s="16"/>
-      <c r="E398" s="9"/>
+      <c r="D398" s="7"/>
+      <c r="E398" s="5"/>
     </row>
     <row r="399" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="2"/>
-      <c r="D399" s="16"/>
-      <c r="E399" s="9"/>
+      <c r="D399" s="7"/>
+      <c r="E399" s="5"/>
     </row>
     <row r="400" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="2"/>
-      <c r="D400" s="16"/>
-      <c r="E400" s="9"/>
+      <c r="D400" s="7"/>
+      <c r="E400" s="5"/>
     </row>
     <row r="401" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="2"/>
-      <c r="D401" s="16"/>
-      <c r="E401" s="9"/>
+      <c r="D401" s="7"/>
+      <c r="E401" s="5"/>
     </row>
     <row r="402" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="2"/>
-      <c r="D402" s="16"/>
-      <c r="E402" s="9"/>
+      <c r="D402" s="7"/>
+      <c r="E402" s="5"/>
     </row>
     <row r="403" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="2"/>
-      <c r="D403" s="16"/>
-      <c r="E403" s="9"/>
+      <c r="D403" s="7"/>
+      <c r="E403" s="5"/>
     </row>
     <row r="404" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
-      <c r="D404" s="16"/>
-      <c r="E404" s="9"/>
+      <c r="D404" s="7"/>
+      <c r="E404" s="5"/>
     </row>
     <row r="405" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="2"/>
-      <c r="D405" s="16"/>
-      <c r="E405" s="9"/>
+      <c r="D405" s="7"/>
+      <c r="E405" s="5"/>
     </row>
     <row r="406" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="2"/>
-      <c r="D406" s="16"/>
-      <c r="E406" s="9"/>
+      <c r="D406" s="7"/>
+      <c r="E406" s="5"/>
     </row>
     <row r="407" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="2"/>
-      <c r="D407" s="16"/>
-      <c r="E407" s="9"/>
+      <c r="D407" s="7"/>
+      <c r="E407" s="5"/>
     </row>
     <row r="408" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="2"/>
-      <c r="D408" s="16"/>
-      <c r="E408" s="9"/>
+      <c r="D408" s="7"/>
+      <c r="E408" s="5"/>
     </row>
     <row r="409" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="2"/>
-      <c r="D409" s="16"/>
-      <c r="E409" s="9"/>
+      <c r="D409" s="7"/>
+      <c r="E409" s="5"/>
     </row>
     <row r="410" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
-      <c r="D410" s="16"/>
-      <c r="E410" s="9"/>
+      <c r="D410" s="7"/>
+      <c r="E410" s="5"/>
     </row>
     <row r="411" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="2"/>
-      <c r="D411" s="16"/>
-      <c r="E411" s="9"/>
+      <c r="D411" s="7"/>
+      <c r="E411" s="5"/>
     </row>
     <row r="412" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="2"/>
-      <c r="D412" s="16"/>
-      <c r="E412" s="9"/>
+      <c r="D412" s="7"/>
+      <c r="E412" s="5"/>
     </row>
     <row r="413" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="2"/>
-      <c r="D413" s="16"/>
-      <c r="E413" s="9"/>
+      <c r="D413" s="7"/>
+      <c r="E413" s="5"/>
     </row>
     <row r="414" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="2"/>
-      <c r="D414" s="16"/>
-      <c r="E414" s="9"/>
+      <c r="D414" s="7"/>
+      <c r="E414" s="5"/>
     </row>
     <row r="415" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="2"/>
-      <c r="D415" s="16"/>
-      <c r="E415" s="9"/>
+      <c r="D415" s="7"/>
+      <c r="E415" s="5"/>
     </row>
     <row r="416" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="2"/>
-      <c r="D416" s="16"/>
-      <c r="E416" s="9"/>
+      <c r="D416" s="7"/>
+      <c r="E416" s="5"/>
     </row>
     <row r="417" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="2"/>
-      <c r="D417" s="16"/>
-      <c r="E417" s="9"/>
+      <c r="D417" s="7"/>
+      <c r="E417" s="5"/>
     </row>
     <row r="418" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="2"/>
-      <c r="D418" s="16"/>
-      <c r="E418" s="9"/>
+      <c r="D418" s="7"/>
+      <c r="E418" s="5"/>
     </row>
     <row r="419" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="2"/>
-      <c r="D419" s="16"/>
-      <c r="E419" s="9"/>
+      <c r="D419" s="7"/>
+      <c r="E419" s="5"/>
     </row>
     <row r="420" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="2"/>
-      <c r="D420" s="16"/>
-      <c r="E420" s="9"/>
+      <c r="D420" s="7"/>
+      <c r="E420" s="5"/>
     </row>
     <row r="421" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="2"/>
-      <c r="D421" s="16"/>
-      <c r="E421" s="9"/>
+      <c r="D421" s="7"/>
+      <c r="E421" s="5"/>
     </row>
     <row r="422" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="2"/>
-      <c r="D422" s="16"/>
-      <c r="E422" s="9"/>
+      <c r="D422" s="7"/>
+      <c r="E422" s="5"/>
     </row>
     <row r="423" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="2"/>
-      <c r="D423" s="16"/>
-      <c r="E423" s="9"/>
+      <c r="D423" s="7"/>
+      <c r="E423" s="5"/>
     </row>
     <row r="424" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="2"/>
-      <c r="D424" s="16"/>
-      <c r="E424" s="9"/>
+      <c r="D424" s="7"/>
+      <c r="E424" s="5"/>
     </row>
     <row r="425" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="2"/>
-      <c r="D425" s="16"/>
-      <c r="E425" s="9"/>
+      <c r="D425" s="7"/>
+      <c r="E425" s="5"/>
     </row>
     <row r="426" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="2"/>
-      <c r="D426" s="16"/>
-      <c r="E426" s="9"/>
+      <c r="D426" s="7"/>
+      <c r="E426" s="5"/>
     </row>
     <row r="427" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="2"/>
-      <c r="D427" s="16"/>
-      <c r="E427" s="9"/>
+      <c r="D427" s="7"/>
+      <c r="E427" s="5"/>
     </row>
     <row r="428" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="2"/>
-      <c r="D428" s="16"/>
-      <c r="E428" s="9"/>
+      <c r="D428" s="7"/>
+      <c r="E428" s="5"/>
     </row>
     <row r="429" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="2"/>
-      <c r="D429" s="16"/>
-      <c r="E429" s="9"/>
+      <c r="D429" s="7"/>
+      <c r="E429" s="5"/>
     </row>
     <row r="430" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="2"/>
-      <c r="D430" s="16"/>
-      <c r="E430" s="9"/>
+      <c r="D430" s="7"/>
+      <c r="E430" s="5"/>
     </row>
     <row r="431" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="2"/>
-      <c r="D431" s="16"/>
-      <c r="E431" s="9"/>
+      <c r="D431" s="7"/>
+      <c r="E431" s="5"/>
     </row>
     <row r="432" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="2"/>
-      <c r="D432" s="16"/>
-      <c r="E432" s="9"/>
+      <c r="D432" s="7"/>
+      <c r="E432" s="5"/>
     </row>
     <row r="433" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="2"/>
-      <c r="D433" s="16"/>
-      <c r="E433" s="9"/>
+      <c r="D433" s="7"/>
+      <c r="E433" s="5"/>
     </row>
     <row r="434" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="2"/>
-      <c r="D434" s="16"/>
-      <c r="E434" s="9"/>
+      <c r="D434" s="7"/>
+      <c r="E434" s="5"/>
     </row>
     <row r="435" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="2"/>
-      <c r="D435" s="16"/>
-      <c r="E435" s="9"/>
+      <c r="D435" s="7"/>
+      <c r="E435" s="5"/>
     </row>
     <row r="436" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="2"/>
-      <c r="D436" s="16"/>
-      <c r="E436" s="9"/>
+      <c r="D436" s="7"/>
+      <c r="E436" s="5"/>
     </row>
     <row r="437" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="2"/>
-      <c r="D437" s="16"/>
-      <c r="E437" s="9"/>
+      <c r="D437" s="7"/>
+      <c r="E437" s="5"/>
     </row>
     <row r="438" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="2"/>
-      <c r="D438" s="16"/>
-      <c r="E438" s="9"/>
+      <c r="D438" s="7"/>
+      <c r="E438" s="5"/>
     </row>
     <row r="439" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="2"/>
-      <c r="D439" s="16"/>
-      <c r="E439" s="9"/>
+      <c r="D439" s="7"/>
+      <c r="E439" s="5"/>
     </row>
     <row r="440" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="2"/>
-      <c r="D440" s="16"/>
-      <c r="E440" s="9"/>
+      <c r="D440" s="7"/>
+      <c r="E440" s="5"/>
     </row>
     <row r="441" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="2"/>
-      <c r="D441" s="16"/>
-      <c r="E441" s="9"/>
+      <c r="D441" s="7"/>
+      <c r="E441" s="5"/>
     </row>
     <row r="442" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="2"/>
-      <c r="D442" s="16"/>
-      <c r="E442" s="9"/>
+      <c r="D442" s="7"/>
+      <c r="E442" s="5"/>
     </row>
     <row r="443" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="2"/>
-      <c r="D443" s="16"/>
-      <c r="E443" s="9"/>
+      <c r="D443" s="7"/>
+      <c r="E443" s="5"/>
     </row>
     <row r="444" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="2"/>
-      <c r="D444" s="16"/>
-      <c r="E444" s="9"/>
+      <c r="D444" s="7"/>
+      <c r="E444" s="5"/>
     </row>
     <row r="445" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="2"/>
-      <c r="D445" s="16"/>
-      <c r="E445" s="9"/>
+      <c r="D445" s="7"/>
+      <c r="E445" s="5"/>
     </row>
     <row r="446" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="2"/>
-      <c r="D446" s="16"/>
-      <c r="E446" s="9"/>
+      <c r="D446" s="7"/>
+      <c r="E446" s="5"/>
     </row>
     <row r="447" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="2"/>
-      <c r="D447" s="16"/>
-      <c r="E447" s="9"/>
+      <c r="D447" s="7"/>
+      <c r="E447" s="5"/>
     </row>
     <row r="448" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="2"/>
-      <c r="D448" s="16"/>
-      <c r="E448" s="9"/>
+      <c r="D448" s="7"/>
+      <c r="E448" s="5"/>
     </row>
     <row r="449" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="2"/>
-      <c r="D449" s="16"/>
-      <c r="E449" s="9"/>
+      <c r="D449" s="7"/>
+      <c r="E449" s="5"/>
     </row>
     <row r="450" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="2"/>
-      <c r="D450" s="16"/>
-      <c r="E450" s="9"/>
+      <c r="D450" s="7"/>
+      <c r="E450" s="5"/>
     </row>
     <row r="451" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="2"/>
-      <c r="D451" s="16"/>
-      <c r="E451" s="9"/>
+      <c r="D451" s="7"/>
+      <c r="E451" s="5"/>
     </row>
     <row r="452" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="2"/>
-      <c r="D452" s="16"/>
-      <c r="E452" s="9"/>
+      <c r="D452" s="7"/>
+      <c r="E452" s="5"/>
     </row>
     <row r="453" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="2"/>
-      <c r="D453" s="16"/>
-      <c r="E453" s="9"/>
+      <c r="D453" s="7"/>
+      <c r="E453" s="5"/>
     </row>
     <row r="454" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="2"/>
-      <c r="D454" s="16"/>
-      <c r="E454" s="9"/>
+      <c r="D454" s="7"/>
+      <c r="E454" s="5"/>
     </row>
     <row r="455" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="2"/>
-      <c r="D455" s="16"/>
-      <c r="E455" s="9"/>
+      <c r="D455" s="7"/>
+      <c r="E455" s="5"/>
     </row>
     <row r="456" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="2"/>
-      <c r="D456" s="16"/>
-      <c r="E456" s="9"/>
+      <c r="D456" s="7"/>
+      <c r="E456" s="5"/>
     </row>
     <row r="457" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="2"/>
-      <c r="D457" s="16"/>
-      <c r="E457" s="9"/>
+      <c r="D457" s="7"/>
+      <c r="E457" s="5"/>
     </row>
     <row r="458" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="2"/>
-      <c r="D458" s="16"/>
-      <c r="E458" s="9"/>
+      <c r="D458" s="7"/>
+      <c r="E458" s="5"/>
     </row>
     <row r="459" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="2"/>
-      <c r="D459" s="16"/>
-      <c r="E459" s="9"/>
+      <c r="D459" s="7"/>
+      <c r="E459" s="5"/>
     </row>
     <row r="460" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="2"/>
-      <c r="D460" s="16"/>
-      <c r="E460" s="9"/>
+      <c r="D460" s="7"/>
+      <c r="E460" s="5"/>
     </row>
     <row r="461" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="2"/>
-      <c r="D461" s="16"/>
-      <c r="E461" s="9"/>
+      <c r="D461" s="7"/>
+      <c r="E461" s="5"/>
     </row>
     <row r="462" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="2"/>
-      <c r="D462" s="16"/>
-      <c r="E462" s="9"/>
+      <c r="D462" s="7"/>
+      <c r="E462" s="5"/>
     </row>
     <row r="463" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="2"/>
-      <c r="D463" s="16"/>
-      <c r="E463" s="9"/>
+      <c r="D463" s="7"/>
+      <c r="E463" s="5"/>
     </row>
     <row r="464" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="2"/>
-      <c r="D464" s="16"/>
-      <c r="E464" s="9"/>
+      <c r="D464" s="7"/>
+      <c r="E464" s="5"/>
     </row>
     <row r="465" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="2"/>
-      <c r="D465" s="16"/>
-      <c r="E465" s="9"/>
+      <c r="D465" s="7"/>
+      <c r="E465" s="5"/>
     </row>
     <row r="466" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="2"/>
-      <c r="D466" s="16"/>
-      <c r="E466" s="9"/>
+      <c r="D466" s="7"/>
+      <c r="E466" s="5"/>
     </row>
     <row r="467" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="2"/>
-      <c r="D467" s="16"/>
-      <c r="E467" s="9"/>
+      <c r="D467" s="7"/>
+      <c r="E467" s="5"/>
     </row>
     <row r="468" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="2"/>
-      <c r="D468" s="16"/>
-      <c r="E468" s="9"/>
+      <c r="D468" s="7"/>
+      <c r="E468" s="5"/>
     </row>
     <row r="469" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="2"/>
-      <c r="D469" s="16"/>
-      <c r="E469" s="9"/>
+      <c r="D469" s="7"/>
+      <c r="E469" s="5"/>
     </row>
     <row r="470" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="2"/>
-      <c r="D470" s="16"/>
-      <c r="E470" s="9"/>
+      <c r="D470" s="7"/>
+      <c r="E470" s="5"/>
     </row>
     <row r="471" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="2"/>
-      <c r="D471" s="16"/>
-      <c r="E471" s="9"/>
+      <c r="D471" s="7"/>
+      <c r="E471" s="5"/>
     </row>
     <row r="472" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="2"/>
-      <c r="D472" s="16"/>
-      <c r="E472" s="9"/>
+      <c r="D472" s="7"/>
+      <c r="E472" s="5"/>
     </row>
     <row r="473" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="2"/>
-      <c r="D473" s="16"/>
-      <c r="E473" s="9"/>
+      <c r="D473" s="7"/>
+      <c r="E473" s="5"/>
     </row>
     <row r="474" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="2"/>
-      <c r="D474" s="16"/>
-      <c r="E474" s="9"/>
+      <c r="D474" s="7"/>
+      <c r="E474" s="5"/>
     </row>
     <row r="475" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="2"/>
-      <c r="D475" s="16"/>
-      <c r="E475" s="9"/>
+      <c r="D475" s="7"/>
+      <c r="E475" s="5"/>
     </row>
     <row r="476" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="2"/>
-      <c r="D476" s="16"/>
-      <c r="E476" s="9"/>
+      <c r="D476" s="7"/>
+      <c r="E476" s="5"/>
     </row>
     <row r="477" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="2"/>
-      <c r="D477" s="16"/>
-      <c r="E477" s="9"/>
+      <c r="D477" s="7"/>
+      <c r="E477" s="5"/>
     </row>
     <row r="478" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="2"/>
-      <c r="D478" s="16"/>
-      <c r="E478" s="9"/>
+      <c r="D478" s="7"/>
+      <c r="E478" s="5"/>
     </row>
     <row r="479" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="2"/>
-      <c r="D479" s="16"/>
-      <c r="E479" s="9"/>
+      <c r="D479" s="7"/>
+      <c r="E479" s="5"/>
     </row>
     <row r="480" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="2"/>
-      <c r="D480" s="16"/>
-      <c r="E480" s="9"/>
+      <c r="D480" s="7"/>
+      <c r="E480" s="5"/>
     </row>
     <row r="481" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="2"/>
-      <c r="D481" s="16"/>
-      <c r="E481" s="9"/>
+      <c r="D481" s="7"/>
+      <c r="E481" s="5"/>
     </row>
     <row r="482" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="2"/>
-      <c r="D482" s="16"/>
-      <c r="E482" s="9"/>
+      <c r="D482" s="7"/>
+      <c r="E482" s="5"/>
     </row>
     <row r="483" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="2"/>
-      <c r="D483" s="16"/>
-      <c r="E483" s="9"/>
+      <c r="D483" s="7"/>
+      <c r="E483" s="5"/>
     </row>
     <row r="484" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="2"/>
-      <c r="D484" s="16"/>
-      <c r="E484" s="9"/>
+      <c r="D484" s="7"/>
+      <c r="E484" s="5"/>
     </row>
     <row r="485" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="2"/>
-      <c r="D485" s="16"/>
-      <c r="E485" s="9"/>
+      <c r="D485" s="7"/>
+      <c r="E485" s="5"/>
     </row>
     <row r="486" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="2"/>
-      <c r="D486" s="16"/>
-      <c r="E486" s="9"/>
+      <c r="D486" s="7"/>
+      <c r="E486" s="5"/>
     </row>
     <row r="487" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="2"/>
-      <c r="D487" s="16"/>
-      <c r="E487" s="9"/>
+      <c r="D487" s="7"/>
+      <c r="E487" s="5"/>
     </row>
     <row r="488" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="2"/>
-      <c r="D488" s="16"/>
-      <c r="E488" s="9"/>
+      <c r="D488" s="7"/>
+      <c r="E488" s="5"/>
     </row>
     <row r="489" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="2"/>
-      <c r="D489" s="16"/>
-      <c r="E489" s="9"/>
+      <c r="D489" s="7"/>
+      <c r="E489" s="5"/>
     </row>
     <row r="490" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="2"/>
-      <c r="D490" s="16"/>
-      <c r="E490" s="9"/>
+      <c r="D490" s="7"/>
+      <c r="E490" s="5"/>
     </row>
     <row r="491" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="2"/>
-      <c r="D491" s="16"/>
-      <c r="E491" s="9"/>
+      <c r="D491" s="7"/>
+      <c r="E491" s="5"/>
     </row>
     <row r="492" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="2"/>
-      <c r="D492" s="16"/>
-      <c r="E492" s="9"/>
+      <c r="D492" s="7"/>
+      <c r="E492" s="5"/>
     </row>
     <row r="493" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="2"/>
-      <c r="D493" s="16"/>
-      <c r="E493" s="9"/>
+      <c r="D493" s="7"/>
+      <c r="E493" s="5"/>
     </row>
     <row r="494" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="2"/>
-      <c r="D494" s="16"/>
-      <c r="E494" s="9"/>
+      <c r="D494" s="7"/>
+      <c r="E494" s="5"/>
     </row>
     <row r="495" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="2"/>
-      <c r="D495" s="16"/>
-      <c r="E495" s="9"/>
+      <c r="D495" s="7"/>
+      <c r="E495" s="5"/>
     </row>
     <row r="496" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="2"/>
-      <c r="D496" s="16"/>
-      <c r="E496" s="9"/>
+      <c r="D496" s="7"/>
+      <c r="E496" s="5"/>
     </row>
     <row r="497" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="2"/>
-      <c r="D497" s="16"/>
-      <c r="E497" s="9"/>
+      <c r="D497" s="7"/>
+      <c r="E497" s="5"/>
     </row>
     <row r="498" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="2"/>
-      <c r="D498" s="16"/>
-      <c r="E498" s="9"/>
+      <c r="D498" s="7"/>
+      <c r="E498" s="5"/>
     </row>
     <row r="499" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="2"/>
-      <c r="D499" s="16"/>
-      <c r="E499" s="9"/>
+      <c r="D499" s="7"/>
+      <c r="E499" s="5"/>
     </row>
     <row r="500" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="2"/>
-      <c r="D500" s="16"/>
-      <c r="E500" s="9"/>
+      <c r="D500" s="7"/>
+      <c r="E500" s="5"/>
     </row>
     <row r="501" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="2"/>
-      <c r="D501" s="16"/>
-      <c r="E501" s="9"/>
+      <c r="D501" s="7"/>
+      <c r="E501" s="5"/>
     </row>
     <row r="502" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="2"/>
-      <c r="D502" s="16"/>
-      <c r="E502" s="9"/>
+      <c r="D502" s="7"/>
+      <c r="E502" s="5"/>
     </row>
     <row r="503" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="2"/>
-      <c r="D503" s="16"/>
-      <c r="E503" s="9"/>
+      <c r="D503" s="7"/>
+      <c r="E503" s="5"/>
     </row>
     <row r="504" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="2"/>
-      <c r="D504" s="16"/>
-      <c r="E504" s="9"/>
+      <c r="D504" s="7"/>
+      <c r="E504" s="5"/>
     </row>
     <row r="505" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="2"/>
-      <c r="D505" s="16"/>
-      <c r="E505" s="9"/>
+      <c r="D505" s="7"/>
+      <c r="E505" s="5"/>
     </row>
     <row r="506" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="2"/>
-      <c r="D506" s="16"/>
-      <c r="E506" s="9"/>
+      <c r="D506" s="7"/>
+      <c r="E506" s="5"/>
     </row>
     <row r="507" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="2"/>
-      <c r="D507" s="16"/>
-      <c r="E507" s="9"/>
+      <c r="D507" s="7"/>
+      <c r="E507" s="5"/>
     </row>
     <row r="508" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="2"/>
-      <c r="D508" s="16"/>
-      <c r="E508" s="9"/>
+      <c r="D508" s="7"/>
+      <c r="E508" s="5"/>
     </row>
     <row r="509" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="2"/>
-      <c r="D509" s="16"/>
-      <c r="E509" s="9"/>
+      <c r="D509" s="7"/>
+      <c r="E509" s="5"/>
     </row>
     <row r="510" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="2"/>
-      <c r="D510" s="16"/>
-      <c r="E510" s="9"/>
+      <c r="D510" s="7"/>
+      <c r="E510" s="5"/>
     </row>
     <row r="511" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="2"/>
-      <c r="D511" s="16"/>
-      <c r="E511" s="9"/>
+      <c r="D511" s="7"/>
+      <c r="E511" s="5"/>
     </row>
     <row r="512" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="2"/>
-      <c r="D512" s="16"/>
-      <c r="E512" s="9"/>
+      <c r="D512" s="7"/>
+      <c r="E512" s="5"/>
     </row>
     <row r="513" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="2"/>
-      <c r="D513" s="16"/>
-      <c r="E513" s="9"/>
+      <c r="D513" s="7"/>
+      <c r="E513" s="5"/>
     </row>
     <row r="514" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="2"/>
-      <c r="D514" s="16"/>
-      <c r="E514" s="9"/>
+      <c r="D514" s="7"/>
+      <c r="E514" s="5"/>
     </row>
     <row r="515" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="2"/>
-      <c r="D515" s="16"/>
-      <c r="E515" s="9"/>
+      <c r="D515" s="7"/>
+      <c r="E515" s="5"/>
     </row>
     <row r="516" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="2"/>
-      <c r="D516" s="16"/>
-      <c r="E516" s="9"/>
+      <c r="D516" s="7"/>
+      <c r="E516" s="5"/>
     </row>
     <row r="517" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="2"/>
-      <c r="D517" s="16"/>
-      <c r="E517" s="9"/>
+      <c r="D517" s="7"/>
+      <c r="E517" s="5"/>
     </row>
     <row r="518" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="2"/>
-      <c r="D518" s="16"/>
-      <c r="E518" s="9"/>
+      <c r="D518" s="7"/>
+      <c r="E518" s="5"/>
     </row>
     <row r="519" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="2"/>
-      <c r="D519" s="16"/>
-      <c r="E519" s="9"/>
+      <c r="D519" s="7"/>
+      <c r="E519" s="5"/>
     </row>
     <row r="520" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="2"/>
-      <c r="D520" s="16"/>
-      <c r="E520" s="9"/>
+      <c r="D520" s="7"/>
+      <c r="E520" s="5"/>
     </row>
     <row r="521" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="2"/>
-      <c r="D521" s="16"/>
-      <c r="E521" s="9"/>
+      <c r="D521" s="7"/>
+      <c r="E521" s="5"/>
     </row>
     <row r="522" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="2"/>
-      <c r="D522" s="16"/>
-      <c r="E522" s="9"/>
+      <c r="D522" s="7"/>
+      <c r="E522" s="5"/>
     </row>
     <row r="523" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="2"/>
-      <c r="D523" s="16"/>
-      <c r="E523" s="9"/>
+      <c r="D523" s="7"/>
+      <c r="E523" s="5"/>
     </row>
     <row r="524" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="2"/>
-      <c r="D524" s="16"/>
-      <c r="E524" s="9"/>
+      <c r="D524" s="7"/>
+      <c r="E524" s="5"/>
     </row>
     <row r="525" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="2"/>
-      <c r="D525" s="16"/>
-      <c r="E525" s="9"/>
+      <c r="D525" s="7"/>
+      <c r="E525" s="5"/>
     </row>
     <row r="526" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="2"/>
-      <c r="D526" s="16"/>
-      <c r="E526" s="9"/>
+      <c r="D526" s="7"/>
+      <c r="E526" s="5"/>
     </row>
     <row r="527" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="2"/>
-      <c r="D527" s="16"/>
-      <c r="E527" s="9"/>
+      <c r="D527" s="7"/>
+      <c r="E527" s="5"/>
     </row>
     <row r="528" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="2"/>
-      <c r="D528" s="16"/>
-      <c r="E528" s="9"/>
+      <c r="D528" s="7"/>
+      <c r="E528" s="5"/>
     </row>
     <row r="529" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="2"/>
-      <c r="D529" s="16"/>
-      <c r="E529" s="9"/>
+      <c r="D529" s="7"/>
+      <c r="E529" s="5"/>
     </row>
     <row r="530" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="2"/>
-      <c r="D530" s="16"/>
-      <c r="E530" s="9"/>
+      <c r="D530" s="7"/>
+      <c r="E530" s="5"/>
     </row>
     <row r="531" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="2"/>
-      <c r="D531" s="16"/>
-      <c r="E531" s="9"/>
+      <c r="D531" s="7"/>
+      <c r="E531" s="5"/>
     </row>
     <row r="532" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="2"/>
-      <c r="D532" s="16"/>
-      <c r="E532" s="9"/>
+      <c r="D532" s="7"/>
+      <c r="E532" s="5"/>
     </row>
     <row r="533" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="2"/>
-      <c r="D533" s="16"/>
-      <c r="E533" s="9"/>
+      <c r="D533" s="7"/>
+      <c r="E533" s="5"/>
     </row>
     <row r="534" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="2"/>
-      <c r="D534" s="16"/>
-      <c r="E534" s="9"/>
+      <c r="D534" s="7"/>
+      <c r="E534" s="5"/>
     </row>
     <row r="535" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="2"/>
-      <c r="D535" s="16"/>
-      <c r="E535" s="9"/>
+      <c r="D535" s="7"/>
+      <c r="E535" s="5"/>
     </row>
     <row r="536" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="2"/>
-      <c r="D536" s="16"/>
-      <c r="E536" s="9"/>
+      <c r="D536" s="7"/>
+      <c r="E536" s="5"/>
     </row>
     <row r="537" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="2"/>
-      <c r="D537" s="16"/>
-      <c r="E537" s="9"/>
+      <c r="D537" s="7"/>
+      <c r="E537" s="5"/>
     </row>
     <row r="538" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="2"/>
-      <c r="D538" s="16"/>
-      <c r="E538" s="9"/>
+      <c r="D538" s="7"/>
+      <c r="E538" s="5"/>
     </row>
     <row r="539" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="2"/>
-      <c r="D539" s="16"/>
-      <c r="E539" s="9"/>
+      <c r="D539" s="7"/>
+      <c r="E539" s="5"/>
     </row>
     <row r="540" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="2"/>
-      <c r="D540" s="16"/>
-      <c r="E540" s="9"/>
+      <c r="D540" s="7"/>
+      <c r="E540" s="5"/>
     </row>
     <row r="541" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="2"/>
-      <c r="D541" s="16"/>
-      <c r="E541" s="9"/>
+      <c r="D541" s="7"/>
+      <c r="E541" s="5"/>
     </row>
     <row r="542" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="2"/>
-      <c r="D542" s="16"/>
-      <c r="E542" s="9"/>
+      <c r="D542" s="7"/>
+      <c r="E542" s="5"/>
     </row>
     <row r="543" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="2"/>
-      <c r="D543" s="16"/>
-      <c r="E543" s="9"/>
+      <c r="D543" s="7"/>
+      <c r="E543" s="5"/>
     </row>
     <row r="544" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="2"/>
-      <c r="D544" s="16"/>
-      <c r="E544" s="9"/>
+      <c r="D544" s="7"/>
+      <c r="E544" s="5"/>
     </row>
     <row r="545" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="2"/>
-      <c r="D545" s="16"/>
-      <c r="E545" s="9"/>
+      <c r="D545" s="7"/>
+      <c r="E545" s="5"/>
     </row>
     <row r="546" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="2"/>
-      <c r="D546" s="16"/>
-      <c r="E546" s="9"/>
+      <c r="D546" s="7"/>
+      <c r="E546" s="5"/>
     </row>
     <row r="547" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="2"/>
-      <c r="D547" s="16"/>
-      <c r="E547" s="9"/>
+      <c r="D547" s="7"/>
+      <c r="E547" s="5"/>
     </row>
     <row r="548" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="2"/>
-      <c r="D548" s="16"/>
-      <c r="E548" s="9"/>
+      <c r="D548" s="7"/>
+      <c r="E548" s="5"/>
     </row>
     <row r="549" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="2"/>
-      <c r="D549" s="16"/>
-      <c r="E549" s="9"/>
+      <c r="D549" s="7"/>
+      <c r="E549" s="5"/>
     </row>
     <row r="550" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="2"/>
-      <c r="D550" s="16"/>
-      <c r="E550" s="9"/>
+      <c r="D550" s="7"/>
+      <c r="E550" s="5"/>
     </row>
     <row r="551" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="2"/>
-      <c r="D551" s="16"/>
-      <c r="E551" s="9"/>
+      <c r="D551" s="7"/>
+      <c r="E551" s="5"/>
     </row>
     <row r="552" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="2"/>
-      <c r="D552" s="16"/>
-      <c r="E552" s="9"/>
+      <c r="D552" s="7"/>
+      <c r="E552" s="5"/>
     </row>
     <row r="553" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="2"/>
-      <c r="D553" s="16"/>
-      <c r="E553" s="9"/>
+      <c r="D553" s="7"/>
+      <c r="E553" s="5"/>
     </row>
     <row r="554" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="2"/>
-      <c r="D554" s="16"/>
-      <c r="E554" s="9"/>
+      <c r="D554" s="7"/>
+      <c r="E554" s="5"/>
     </row>
     <row r="555" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="2"/>
-      <c r="D555" s="16"/>
-      <c r="E555" s="9"/>
+      <c r="D555" s="7"/>
+      <c r="E555" s="5"/>
     </row>
     <row r="556" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="2"/>
-      <c r="D556" s="16"/>
-      <c r="E556" s="9"/>
+      <c r="D556" s="7"/>
+      <c r="E556" s="5"/>
     </row>
     <row r="557" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="2"/>
-      <c r="D557" s="16"/>
-      <c r="E557" s="9"/>
+      <c r="D557" s="7"/>
+      <c r="E557" s="5"/>
     </row>
     <row r="558" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="2"/>
-      <c r="D558" s="16"/>
-      <c r="E558" s="9"/>
+      <c r="D558" s="7"/>
+      <c r="E558" s="5"/>
     </row>
     <row r="559" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="2"/>
-      <c r="D559" s="16"/>
-      <c r="E559" s="9"/>
+      <c r="D559" s="7"/>
+      <c r="E559" s="5"/>
     </row>
     <row r="560" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="2"/>
-      <c r="D560" s="16"/>
-      <c r="E560" s="9"/>
+      <c r="D560" s="7"/>
+      <c r="E560" s="5"/>
     </row>
     <row r="561" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="2"/>
-      <c r="D561" s="16"/>
-      <c r="E561" s="9"/>
+      <c r="D561" s="7"/>
+      <c r="E561" s="5"/>
     </row>
     <row r="562" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="2"/>
-      <c r="D562" s="16"/>
-      <c r="E562" s="9"/>
+      <c r="D562" s="7"/>
+      <c r="E562" s="5"/>
     </row>
     <row r="563" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="2"/>
-      <c r="D563" s="16"/>
-      <c r="E563" s="9"/>
+      <c r="D563" s="7"/>
+      <c r="E563" s="5"/>
     </row>
     <row r="564" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="2"/>
-      <c r="D564" s="16"/>
-      <c r="E564" s="9"/>
+      <c r="D564" s="7"/>
+      <c r="E564" s="5"/>
     </row>
     <row r="565" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="2"/>
-      <c r="D565" s="16"/>
-      <c r="E565" s="9"/>
+      <c r="D565" s="7"/>
+      <c r="E565" s="5"/>
     </row>
     <row r="566" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="2"/>
-      <c r="D566" s="16"/>
-      <c r="E566" s="9"/>
+      <c r="D566" s="7"/>
+      <c r="E566" s="5"/>
     </row>
     <row r="567" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="2"/>
-      <c r="D567" s="16"/>
-      <c r="E567" s="9"/>
+      <c r="D567" s="7"/>
+      <c r="E567" s="5"/>
     </row>
     <row r="568" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="2"/>
-      <c r="D568" s="16"/>
-      <c r="E568" s="9"/>
+      <c r="D568" s="7"/>
+      <c r="E568" s="5"/>
     </row>
     <row r="569" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="2"/>
-      <c r="D569" s="16"/>
-      <c r="E569" s="9"/>
+      <c r="D569" s="7"/>
+      <c r="E569" s="5"/>
     </row>
     <row r="570" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="2"/>
-      <c r="D570" s="16"/>
-      <c r="E570" s="9"/>
+      <c r="D570" s="7"/>
+      <c r="E570" s="5"/>
     </row>
     <row r="571" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="2"/>
-      <c r="D571" s="16"/>
-      <c r="E571" s="9"/>
+      <c r="D571" s="7"/>
+      <c r="E571" s="5"/>
     </row>
     <row r="572" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="2"/>
-      <c r="D572" s="16"/>
-      <c r="E572" s="9"/>
+      <c r="D572" s="7"/>
+      <c r="E572" s="5"/>
     </row>
     <row r="573" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="2"/>
-      <c r="D573" s="16"/>
-      <c r="E573" s="9"/>
+      <c r="D573" s="7"/>
+      <c r="E573" s="5"/>
     </row>
     <row r="574" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="2"/>
-      <c r="D574" s="16"/>
-      <c r="E574" s="9"/>
+      <c r="D574" s="7"/>
+      <c r="E574" s="5"/>
     </row>
     <row r="575" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="2"/>
-      <c r="D575" s="16"/>
-      <c r="E575" s="9"/>
+      <c r="D575" s="7"/>
+      <c r="E575" s="5"/>
     </row>
     <row r="576" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="2"/>
-      <c r="D576" s="16"/>
-      <c r="E576" s="9"/>
+      <c r="D576" s="7"/>
+      <c r="E576" s="5"/>
     </row>
     <row r="577" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="2"/>
-      <c r="D577" s="16"/>
-      <c r="E577" s="9"/>
+      <c r="D577" s="7"/>
+      <c r="E577" s="5"/>
     </row>
     <row r="578" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="2"/>
-      <c r="D578" s="16"/>
-      <c r="E578" s="9"/>
+      <c r="D578" s="7"/>
+      <c r="E578" s="5"/>
     </row>
     <row r="579" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="2"/>
-      <c r="D579" s="16"/>
-      <c r="E579" s="9"/>
+      <c r="D579" s="7"/>
+      <c r="E579" s="5"/>
     </row>
     <row r="580" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="2"/>
-      <c r="D580" s="16"/>
-      <c r="E580" s="9"/>
+      <c r="D580" s="7"/>
+      <c r="E580" s="5"/>
     </row>
     <row r="581" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="2"/>
-      <c r="D581" s="16"/>
-      <c r="E581" s="9"/>
+      <c r="D581" s="7"/>
+      <c r="E581" s="5"/>
     </row>
     <row r="582" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="2"/>
-      <c r="D582" s="16"/>
-      <c r="E582" s="9"/>
+      <c r="D582" s="7"/>
+      <c r="E582" s="5"/>
     </row>
     <row r="583" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="2"/>
-      <c r="D583" s="16"/>
-      <c r="E583" s="9"/>
+      <c r="D583" s="7"/>
+      <c r="E583" s="5"/>
     </row>
     <row r="584" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="2"/>
-      <c r="D584" s="16"/>
-      <c r="E584" s="9"/>
+      <c r="D584" s="7"/>
+      <c r="E584" s="5"/>
     </row>
     <row r="585" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="2"/>
-      <c r="D585" s="16"/>
-      <c r="E585" s="9"/>
+      <c r="D585" s="7"/>
+      <c r="E585" s="5"/>
     </row>
     <row r="586" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="2"/>
-      <c r="D586" s="16"/>
-      <c r="E586" s="9"/>
+      <c r="D586" s="7"/>
+      <c r="E586" s="5"/>
     </row>
     <row r="587" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="2"/>
-      <c r="D587" s="16"/>
-      <c r="E587" s="9"/>
+      <c r="D587" s="7"/>
+      <c r="E587" s="5"/>
     </row>
     <row r="588" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="2"/>
-      <c r="D588" s="16"/>
-      <c r="E588" s="9"/>
+      <c r="D588" s="7"/>
+      <c r="E588" s="5"/>
     </row>
     <row r="589" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="2"/>
-      <c r="D589" s="16"/>
-      <c r="E589" s="9"/>
+      <c r="D589" s="7"/>
+      <c r="E589" s="5"/>
     </row>
     <row r="590" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2"/>
-      <c r="D590" s="16"/>
-      <c r="E590" s="9"/>
+      <c r="D590" s="7"/>
+      <c r="E590" s="5"/>
     </row>
     <row r="591" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="2"/>
-      <c r="D591" s="16"/>
-      <c r="E591" s="9"/>
+      <c r="D591" s="7"/>
+      <c r="E591" s="5"/>
     </row>
     <row r="592" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="2"/>
-      <c r="D592" s="16"/>
-      <c r="E592" s="9"/>
+      <c r="D592" s="7"/>
+      <c r="E592" s="5"/>
     </row>
     <row r="593" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="2"/>
-      <c r="D593" s="16"/>
-      <c r="E593" s="9"/>
+      <c r="D593" s="7"/>
+      <c r="E593" s="5"/>
     </row>
     <row r="594" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="2"/>
-      <c r="D594" s="16"/>
-      <c r="E594" s="9"/>
+      <c r="D594" s="7"/>
+      <c r="E594" s="5"/>
     </row>
     <row r="595" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="2"/>
-      <c r="D595" s="16"/>
-      <c r="E595" s="9"/>
+      <c r="D595" s="7"/>
+      <c r="E595" s="5"/>
     </row>
     <row r="596" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="2"/>
-      <c r="D596" s="16"/>
-      <c r="E596" s="9"/>
+      <c r="D596" s="7"/>
+      <c r="E596" s="5"/>
     </row>
     <row r="597" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="2"/>
-      <c r="D597" s="16"/>
-      <c r="E597" s="9"/>
+      <c r="D597" s="7"/>
+      <c r="E597" s="5"/>
     </row>
     <row r="598" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="2"/>
-      <c r="D598" s="16"/>
-      <c r="E598" s="9"/>
+      <c r="D598" s="7"/>
+      <c r="E598" s="5"/>
     </row>
     <row r="599" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="2"/>
-      <c r="D599" s="16"/>
-      <c r="E599" s="9"/>
+      <c r="D599" s="7"/>
+      <c r="E599" s="5"/>
     </row>
     <row r="600" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="2"/>
-      <c r="D600" s="16"/>
-      <c r="E600" s="9"/>
+      <c r="D600" s="7"/>
+      <c r="E600" s="5"/>
     </row>
     <row r="601" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="2"/>
-      <c r="D601" s="16"/>
-      <c r="E601" s="9"/>
+      <c r="D601" s="7"/>
+      <c r="E601" s="5"/>
     </row>
     <row r="602" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="2"/>
-      <c r="D602" s="16"/>
-      <c r="E602" s="9"/>
+      <c r="D602" s="7"/>
+      <c r="E602" s="5"/>
     </row>
     <row r="603" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="2"/>
-      <c r="D603" s="16"/>
-      <c r="E603" s="9"/>
+      <c r="D603" s="7"/>
+      <c r="E603" s="5"/>
     </row>
     <row r="604" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="2"/>
-      <c r="D604" s="16"/>
-      <c r="E604" s="9"/>
+      <c r="D604" s="7"/>
+      <c r="E604" s="5"/>
     </row>
     <row r="605" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="2"/>
-      <c r="D605" s="16"/>
-      <c r="E605" s="9"/>
+      <c r="D605" s="7"/>
+      <c r="E605" s="5"/>
     </row>
     <row r="606" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="2"/>
-      <c r="D606" s="16"/>
-      <c r="E606" s="9"/>
+      <c r="D606" s="7"/>
+      <c r="E606" s="5"/>
     </row>
     <row r="607" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="2"/>
-      <c r="D607" s="16"/>
-      <c r="E607" s="9"/>
+      <c r="D607" s="7"/>
+      <c r="E607" s="5"/>
     </row>
     <row r="608" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="2"/>
-      <c r="D608" s="16"/>
-      <c r="E608" s="9"/>
+      <c r="D608" s="7"/>
+      <c r="E608" s="5"/>
     </row>
     <row r="609" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="2"/>
-      <c r="D609" s="16"/>
-      <c r="E609" s="9"/>
+      <c r="D609" s="7"/>
+      <c r="E609" s="5"/>
     </row>
     <row r="610" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="2"/>
-      <c r="D610" s="16"/>
-      <c r="E610" s="9"/>
+      <c r="D610" s="7"/>
+      <c r="E610" s="5"/>
     </row>
     <row r="611" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="2"/>
-      <c r="D611" s="16"/>
-      <c r="E611" s="9"/>
+      <c r="D611" s="7"/>
+      <c r="E611" s="5"/>
     </row>
     <row r="612" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="2"/>
-      <c r="D612" s="16"/>
-      <c r="E612" s="9"/>
+      <c r="D612" s="7"/>
+      <c r="E612" s="5"/>
     </row>
     <row r="613" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="2"/>
-      <c r="D613" s="16"/>
-      <c r="E613" s="9"/>
+      <c r="D613" s="7"/>
+      <c r="E613" s="5"/>
     </row>
     <row r="614" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="2"/>
-      <c r="D614" s="16"/>
-      <c r="E614" s="9"/>
+      <c r="D614" s="7"/>
+      <c r="E614" s="5"/>
     </row>
     <row r="615" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="2"/>
-      <c r="D615" s="16"/>
-      <c r="E615" s="9"/>
+      <c r="D615" s="7"/>
+      <c r="E615" s="5"/>
     </row>
     <row r="616" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="2"/>
-      <c r="D616" s="16"/>
-      <c r="E616" s="9"/>
+      <c r="D616" s="7"/>
+      <c r="E616" s="5"/>
     </row>
     <row r="617" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="2"/>
-      <c r="D617" s="16"/>
-      <c r="E617" s="9"/>
+      <c r="D617" s="7"/>
+      <c r="E617" s="5"/>
     </row>
     <row r="618" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="2"/>
-      <c r="D618" s="16"/>
-      <c r="E618" s="9"/>
+      <c r="D618" s="7"/>
+      <c r="E618" s="5"/>
     </row>
     <row r="619" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="2"/>
-      <c r="D619" s="16"/>
-      <c r="E619" s="9"/>
+      <c r="D619" s="7"/>
+      <c r="E619" s="5"/>
     </row>
     <row r="620" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="2"/>
-      <c r="D620" s="16"/>
-      <c r="E620" s="9"/>
+      <c r="D620" s="7"/>
+      <c r="E620" s="5"/>
     </row>
     <row r="621" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="2"/>
-      <c r="D621" s="16"/>
-      <c r="E621" s="9"/>
+      <c r="D621" s="7"/>
+      <c r="E621" s="5"/>
     </row>
     <row r="622" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="2"/>
-      <c r="D622" s="16"/>
-      <c r="E622" s="9"/>
+      <c r="D622" s="7"/>
+      <c r="E622" s="5"/>
     </row>
     <row r="623" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="2"/>
-      <c r="D623" s="16"/>
-      <c r="E623" s="9"/>
+      <c r="D623" s="7"/>
+      <c r="E623" s="5"/>
     </row>
     <row r="624" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="2"/>
-      <c r="D624" s="16"/>
-      <c r="E624" s="9"/>
+      <c r="D624" s="7"/>
+      <c r="E624" s="5"/>
     </row>
     <row r="625" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="2"/>
-      <c r="D625" s="16"/>
-      <c r="E625" s="9"/>
+      <c r="D625" s="7"/>
+      <c r="E625" s="5"/>
     </row>
     <row r="626" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="2"/>
-      <c r="D626" s="16"/>
-      <c r="E626" s="9"/>
+      <c r="D626" s="7"/>
+      <c r="E626" s="5"/>
     </row>
     <row r="627" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="2"/>
-      <c r="D627" s="16"/>
-      <c r="E627" s="9"/>
+      <c r="D627" s="7"/>
+      <c r="E627" s="5"/>
     </row>
     <row r="628" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="2"/>
-      <c r="D628" s="16"/>
-      <c r="E628" s="9"/>
+      <c r="D628" s="7"/>
+      <c r="E628" s="5"/>
     </row>
     <row r="629" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="2"/>
-      <c r="D629" s="16"/>
-      <c r="E629" s="9"/>
+      <c r="D629" s="7"/>
+      <c r="E629" s="5"/>
     </row>
     <row r="630" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
-      <c r="D630" s="16"/>
-      <c r="E630" s="9"/>
+      <c r="D630" s="7"/>
+      <c r="E630" s="5"/>
     </row>
     <row r="631" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="2"/>
-      <c r="D631" s="16"/>
-      <c r="E631" s="9"/>
+      <c r="D631" s="7"/>
+      <c r="E631" s="5"/>
     </row>
     <row r="632" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="2"/>
-      <c r="D632" s="16"/>
-      <c r="E632" s="9"/>
+      <c r="D632" s="7"/>
+      <c r="E632" s="5"/>
     </row>
     <row r="633" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="2"/>
-      <c r="D633" s="16"/>
-      <c r="E633" s="9"/>
+      <c r="D633" s="7"/>
+      <c r="E633" s="5"/>
     </row>
     <row r="634" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
-      <c r="D634" s="16"/>
-      <c r="E634" s="9"/>
+      <c r="D634" s="7"/>
+      <c r="E634" s="5"/>
     </row>
     <row r="635" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="2"/>
-      <c r="D635" s="16"/>
-      <c r="E635" s="9"/>
+      <c r="D635" s="7"/>
+      <c r="E635" s="5"/>
     </row>
     <row r="636" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="2"/>
-      <c r="D636" s="16"/>
-      <c r="E636" s="9"/>
+      <c r="D636" s="7"/>
+      <c r="E636" s="5"/>
     </row>
     <row r="637" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="2"/>
-      <c r="D637" s="16"/>
-      <c r="E637" s="9"/>
+      <c r="D637" s="7"/>
+      <c r="E637" s="5"/>
     </row>
     <row r="638" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="2"/>
-      <c r="D638" s="16"/>
-      <c r="E638" s="9"/>
+      <c r="D638" s="7"/>
+      <c r="E638" s="5"/>
     </row>
     <row r="639" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="2"/>
-      <c r="D639" s="16"/>
-      <c r="E639" s="9"/>
+      <c r="D639" s="7"/>
+      <c r="E639" s="5"/>
     </row>
     <row r="640" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="2"/>
-      <c r="D640" s="16"/>
-      <c r="E640" s="9"/>
+      <c r="D640" s="7"/>
+      <c r="E640" s="5"/>
     </row>
     <row r="641" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="2"/>
-      <c r="D641" s="16"/>
-      <c r="E641" s="9"/>
+      <c r="D641" s="7"/>
+      <c r="E641" s="5"/>
     </row>
     <row r="642" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="2"/>
-      <c r="D642" s="16"/>
-      <c r="E642" s="9"/>
+      <c r="D642" s="7"/>
+      <c r="E642" s="5"/>
     </row>
     <row r="643" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="2"/>
-      <c r="D643" s="16"/>
-      <c r="E643" s="9"/>
+      <c r="D643" s="7"/>
+      <c r="E643" s="5"/>
     </row>
     <row r="644" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="2"/>
-      <c r="D644" s="16"/>
-      <c r="E644" s="9"/>
+      <c r="D644" s="7"/>
+      <c r="E644" s="5"/>
     </row>
     <row r="645" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="2"/>
-      <c r="D645" s="16"/>
-      <c r="E645" s="9"/>
+      <c r="D645" s="7"/>
+      <c r="E645" s="5"/>
     </row>
     <row r="646" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="2"/>
-      <c r="D646" s="16"/>
-      <c r="E646" s="9"/>
+      <c r="D646" s="7"/>
+      <c r="E646" s="5"/>
     </row>
     <row r="647" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="2"/>
-      <c r="D647" s="16"/>
-      <c r="E647" s="9"/>
+      <c r="D647" s="7"/>
+      <c r="E647" s="5"/>
     </row>
     <row r="648" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="2"/>
-      <c r="D648" s="16"/>
-      <c r="E648" s="9"/>
+      <c r="D648" s="7"/>
+      <c r="E648" s="5"/>
     </row>
     <row r="649" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="2"/>
-      <c r="D649" s="16"/>
-      <c r="E649" s="9"/>
+      <c r="D649" s="7"/>
+      <c r="E649" s="5"/>
     </row>
     <row r="650" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="2"/>
-      <c r="D650" s="16"/>
-      <c r="E650" s="9"/>
+      <c r="D650" s="7"/>
+      <c r="E650" s="5"/>
     </row>
     <row r="651" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="2"/>
-      <c r="D651" s="16"/>
-      <c r="E651" s="9"/>
+      <c r="D651" s="7"/>
+      <c r="E651" s="5"/>
     </row>
     <row r="652" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="2"/>
-      <c r="D652" s="16"/>
-      <c r="E652" s="9"/>
+      <c r="D652" s="7"/>
+      <c r="E652" s="5"/>
     </row>
     <row r="653" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="2"/>
-      <c r="D653" s="16"/>
-      <c r="E653" s="9"/>
+      <c r="D653" s="7"/>
+      <c r="E653" s="5"/>
     </row>
     <row r="654" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="2"/>
-      <c r="D654" s="16"/>
-      <c r="E654" s="9"/>
+      <c r="D654" s="7"/>
+      <c r="E654" s="5"/>
     </row>
     <row r="655" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="2"/>
-      <c r="D655" s="16"/>
-      <c r="E655" s="9"/>
+      <c r="D655" s="7"/>
+      <c r="E655" s="5"/>
     </row>
     <row r="656" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="2"/>
-      <c r="D656" s="16"/>
-      <c r="E656" s="9"/>
+      <c r="D656" s="7"/>
+      <c r="E656" s="5"/>
     </row>
     <row r="657" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="2"/>
-      <c r="D657" s="16"/>
-      <c r="E657" s="9"/>
+      <c r="D657" s="7"/>
+      <c r="E657" s="5"/>
     </row>
     <row r="658" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="2"/>
-      <c r="D658" s="16"/>
-      <c r="E658" s="9"/>
+      <c r="D658" s="7"/>
+      <c r="E658" s="5"/>
     </row>
     <row r="659" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="2"/>
-      <c r="D659" s="16"/>
-      <c r="E659" s="9"/>
+      <c r="D659" s="7"/>
+      <c r="E659" s="5"/>
     </row>
     <row r="660" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="2"/>
-      <c r="D660" s="16"/>
-      <c r="E660" s="9"/>
+      <c r="D660" s="7"/>
+      <c r="E660" s="5"/>
     </row>
     <row r="661" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="2"/>
-      <c r="D661" s="16"/>
-      <c r="E661" s="9"/>
+      <c r="D661" s="7"/>
+      <c r="E661" s="5"/>
     </row>
     <row r="662" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="2"/>
-      <c r="D662" s="16"/>
-      <c r="E662" s="9"/>
+      <c r="D662" s="7"/>
+      <c r="E662" s="5"/>
     </row>
     <row r="663" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="2"/>
-      <c r="D663" s="16"/>
-      <c r="E663" s="9"/>
+      <c r="D663" s="7"/>
+      <c r="E663" s="5"/>
     </row>
     <row r="664" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="2"/>
-      <c r="D664" s="16"/>
-      <c r="E664" s="9"/>
+      <c r="D664" s="7"/>
+      <c r="E664" s="5"/>
     </row>
     <row r="665" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="2"/>
-      <c r="D665" s="16"/>
-      <c r="E665" s="9"/>
+      <c r="D665" s="7"/>
+      <c r="E665" s="5"/>
     </row>
     <row r="666" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="2"/>
-      <c r="D666" s="16"/>
-      <c r="E666" s="9"/>
+      <c r="D666" s="7"/>
+      <c r="E666" s="5"/>
     </row>
     <row r="667" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="2"/>
-      <c r="D667" s="16"/>
-      <c r="E667" s="9"/>
+      <c r="D667" s="7"/>
+      <c r="E667" s="5"/>
     </row>
     <row r="668" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="2"/>
-      <c r="D668" s="16"/>
-      <c r="E668" s="9"/>
+      <c r="D668" s="7"/>
+      <c r="E668" s="5"/>
     </row>
     <row r="669" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="2"/>
-      <c r="D669" s="16"/>
-      <c r="E669" s="9"/>
+      <c r="D669" s="7"/>
+      <c r="E669" s="5"/>
     </row>
     <row r="670" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="2"/>
-      <c r="D670" s="16"/>
-      <c r="E670" s="9"/>
+      <c r="D670" s="7"/>
+      <c r="E670" s="5"/>
     </row>
     <row r="671" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="2"/>
-      <c r="D671" s="16"/>
-      <c r="E671" s="9"/>
+      <c r="D671" s="7"/>
+      <c r="E671" s="5"/>
     </row>
     <row r="672" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="2"/>
-      <c r="D672" s="16"/>
-      <c r="E672" s="9"/>
+      <c r="D672" s="7"/>
+      <c r="E672" s="5"/>
     </row>
     <row r="673" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="2"/>
-      <c r="D673" s="16"/>
-      <c r="E673" s="9"/>
+      <c r="D673" s="7"/>
+      <c r="E673" s="5"/>
     </row>
     <row r="674" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="2"/>
-      <c r="D674" s="16"/>
-      <c r="E674" s="9"/>
+      <c r="D674" s="7"/>
+      <c r="E674" s="5"/>
     </row>
     <row r="675" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="2"/>
-      <c r="D675" s="16"/>
-      <c r="E675" s="9"/>
+      <c r="D675" s="7"/>
+      <c r="E675" s="5"/>
     </row>
     <row r="676" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="2"/>
-      <c r="D676" s="16"/>
-      <c r="E676" s="9"/>
+      <c r="D676" s="7"/>
+      <c r="E676" s="5"/>
     </row>
     <row r="677" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="2"/>
-      <c r="D677" s="16"/>
-      <c r="E677" s="9"/>
+      <c r="D677" s="7"/>
+      <c r="E677" s="5"/>
     </row>
     <row r="678" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="2"/>
-      <c r="D678" s="16"/>
-      <c r="E678" s="9"/>
+      <c r="D678" s="7"/>
+      <c r="E678" s="5"/>
     </row>
     <row r="679" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="2"/>
-      <c r="D679" s="16"/>
-      <c r="E679" s="9"/>
+      <c r="D679" s="7"/>
+      <c r="E679" s="5"/>
     </row>
     <row r="680" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="2"/>
-      <c r="D680" s="16"/>
-      <c r="E680" s="9"/>
+      <c r="D680" s="7"/>
+      <c r="E680" s="5"/>
     </row>
     <row r="681" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="2"/>
-      <c r="D681" s="16"/>
-      <c r="E681" s="9"/>
+      <c r="D681" s="7"/>
+      <c r="E681" s="5"/>
     </row>
     <row r="682" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="2"/>
-      <c r="D682" s="16"/>
-      <c r="E682" s="9"/>
+      <c r="D682" s="7"/>
+      <c r="E682" s="5"/>
     </row>
     <row r="683" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="2"/>
-      <c r="D683" s="16"/>
-      <c r="E683" s="9"/>
+      <c r="D683" s="7"/>
+      <c r="E683" s="5"/>
     </row>
     <row r="684" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="2"/>
-      <c r="D684" s="16"/>
-      <c r="E684" s="9"/>
+      <c r="D684" s="7"/>
+      <c r="E684" s="5"/>
     </row>
     <row r="685" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="2"/>
-      <c r="D685" s="16"/>
-      <c r="E685" s="9"/>
+      <c r="D685" s="7"/>
+      <c r="E685" s="5"/>
     </row>
     <row r="686" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="2"/>
-      <c r="D686" s="16"/>
-      <c r="E686" s="9"/>
+      <c r="D686" s="7"/>
+      <c r="E686" s="5"/>
     </row>
     <row r="687" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="2"/>
-      <c r="D687" s="16"/>
-      <c r="E687" s="9"/>
+      <c r="D687" s="7"/>
+      <c r="E687" s="5"/>
     </row>
     <row r="688" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="2"/>
-      <c r="D688" s="16"/>
-      <c r="E688" s="9"/>
+      <c r="D688" s="7"/>
+      <c r="E688" s="5"/>
     </row>
     <row r="689" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="2"/>
-      <c r="D689" s="16"/>
-      <c r="E689" s="9"/>
+      <c r="D689" s="7"/>
+      <c r="E689" s="5"/>
     </row>
     <row r="690" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="2"/>
-      <c r="D690" s="16"/>
-      <c r="E690" s="9"/>
+      <c r="D690" s="7"/>
+      <c r="E690" s="5"/>
     </row>
     <row r="691" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="2"/>
-      <c r="D691" s="16"/>
-      <c r="E691" s="9"/>
+      <c r="D691" s="7"/>
+      <c r="E691" s="5"/>
     </row>
     <row r="692" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="2"/>
-      <c r="D692" s="16"/>
-      <c r="E692" s="9"/>
+      <c r="D692" s="7"/>
+      <c r="E692" s="5"/>
     </row>
     <row r="693" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="2"/>
-      <c r="D693" s="16"/>
-      <c r="E693" s="9"/>
+      <c r="D693" s="7"/>
+      <c r="E693" s="5"/>
     </row>
     <row r="694" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="2"/>
-      <c r="D694" s="16"/>
-      <c r="E694" s="9"/>
+      <c r="D694" s="7"/>
+      <c r="E694" s="5"/>
     </row>
     <row r="695" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="2"/>
-      <c r="D695" s="16"/>
-      <c r="E695" s="9"/>
+      <c r="D695" s="7"/>
+      <c r="E695" s="5"/>
     </row>
     <row r="696" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="2"/>
-      <c r="D696" s="16"/>
-      <c r="E696" s="9"/>
+      <c r="D696" s="7"/>
+      <c r="E696" s="5"/>
     </row>
     <row r="697" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="2"/>
-      <c r="D697" s="16"/>
-      <c r="E697" s="9"/>
+      <c r="D697" s="7"/>
+      <c r="E697" s="5"/>
     </row>
     <row r="698" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="2"/>
-      <c r="D698" s="16"/>
-      <c r="E698" s="9"/>
+      <c r="D698" s="7"/>
+      <c r="E698" s="5"/>
     </row>
     <row r="699" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="2"/>
-      <c r="D699" s="16"/>
-      <c r="E699" s="9"/>
+      <c r="D699" s="7"/>
+      <c r="E699" s="5"/>
     </row>
     <row r="700" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="2"/>
-      <c r="D700" s="16"/>
-      <c r="E700" s="9"/>
+      <c r="D700" s="7"/>
+      <c r="E700" s="5"/>
     </row>
     <row r="701" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="2"/>
-      <c r="D701" s="16"/>
-      <c r="E701" s="9"/>
+      <c r="D701" s="7"/>
+      <c r="E701" s="5"/>
     </row>
     <row r="702" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="2"/>
-      <c r="D702" s="16"/>
-      <c r="E702" s="9"/>
+      <c r="D702" s="7"/>
+      <c r="E702" s="5"/>
     </row>
     <row r="703" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="2"/>
-      <c r="D703" s="16"/>
-      <c r="E703" s="9"/>
+      <c r="D703" s="7"/>
+      <c r="E703" s="5"/>
     </row>
     <row r="704" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="2"/>
-      <c r="D704" s="16"/>
-      <c r="E704" s="9"/>
+      <c r="D704" s="7"/>
+      <c r="E704" s="5"/>
     </row>
     <row r="705" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="2"/>
-      <c r="D705" s="16"/>
-      <c r="E705" s="9"/>
+      <c r="D705" s="7"/>
+      <c r="E705" s="5"/>
     </row>
     <row r="706" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="2"/>
-      <c r="D706" s="16"/>
-      <c r="E706" s="9"/>
+      <c r="D706" s="7"/>
+      <c r="E706" s="5"/>
     </row>
     <row r="707" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="2"/>
-      <c r="D707" s="16"/>
-      <c r="E707" s="9"/>
+      <c r="D707" s="7"/>
+      <c r="E707" s="5"/>
     </row>
     <row r="708" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="2"/>
-      <c r="D708" s="16"/>
-      <c r="E708" s="9"/>
+      <c r="D708" s="7"/>
+      <c r="E708" s="5"/>
     </row>
     <row r="709" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="2"/>
-      <c r="D709" s="16"/>
-      <c r="E709" s="9"/>
+      <c r="D709" s="7"/>
+      <c r="E709" s="5"/>
     </row>
     <row r="710" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="2"/>
-      <c r="D710" s="16"/>
-      <c r="E710" s="9"/>
+      <c r="D710" s="7"/>
+      <c r="E710" s="5"/>
     </row>
     <row r="711" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="2"/>
-      <c r="D711" s="16"/>
-      <c r="E711" s="9"/>
+      <c r="D711" s="7"/>
+      <c r="E711" s="5"/>
     </row>
     <row r="712" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="2"/>
-      <c r="D712" s="16"/>
-      <c r="E712" s="9"/>
+      <c r="D712" s="7"/>
+      <c r="E712" s="5"/>
     </row>
     <row r="713" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="2"/>
-      <c r="D713" s="16"/>
-      <c r="E713" s="9"/>
+      <c r="D713" s="7"/>
+      <c r="E713" s="5"/>
     </row>
     <row r="714" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="2"/>
-      <c r="D714" s="16"/>
-      <c r="E714" s="9"/>
+      <c r="D714" s="7"/>
+      <c r="E714" s="5"/>
     </row>
     <row r="715" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="2"/>
-      <c r="D715" s="16"/>
-      <c r="E715" s="9"/>
+      <c r="D715" s="7"/>
+      <c r="E715" s="5"/>
     </row>
     <row r="716" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="2"/>
-      <c r="D716" s="16"/>
-      <c r="E716" s="9"/>
+      <c r="D716" s="7"/>
+      <c r="E716" s="5"/>
     </row>
     <row r="717" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="2"/>
-      <c r="D717" s="16"/>
-      <c r="E717" s="9"/>
+      <c r="D717" s="7"/>
+      <c r="E717" s="5"/>
     </row>
     <row r="718" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="2"/>
-      <c r="D718" s="16"/>
-      <c r="E718" s="9"/>
+      <c r="D718" s="7"/>
+      <c r="E718" s="5"/>
     </row>
     <row r="719" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="2"/>
-      <c r="D719" s="16"/>
-      <c r="E719" s="9"/>
+      <c r="D719" s="7"/>
+      <c r="E719" s="5"/>
     </row>
     <row r="720" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="2"/>
-      <c r="D720" s="16"/>
-      <c r="E720" s="9"/>
+      <c r="D720" s="7"/>
+      <c r="E720" s="5"/>
     </row>
     <row r="721" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="2"/>
-      <c r="D721" s="16"/>
-      <c r="E721" s="9"/>
+      <c r="D721" s="7"/>
+      <c r="E721" s="5"/>
     </row>
     <row r="722" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="2"/>
-      <c r="D722" s="16"/>
-      <c r="E722" s="9"/>
+      <c r="D722" s="7"/>
+      <c r="E722" s="5"/>
     </row>
     <row r="723" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="2"/>
-      <c r="D723" s="16"/>
-      <c r="E723" s="9"/>
+      <c r="D723" s="7"/>
+      <c r="E723" s="5"/>
     </row>
     <row r="724" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="2"/>
-      <c r="D724" s="16"/>
-      <c r="E724" s="9"/>
+      <c r="D724" s="7"/>
+      <c r="E724" s="5"/>
     </row>
     <row r="725" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="2"/>
-      <c r="D725" s="16"/>
-      <c r="E725" s="9"/>
+      <c r="D725" s="7"/>
+      <c r="E725" s="5"/>
     </row>
     <row r="726" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="2"/>
-      <c r="D726" s="16"/>
-      <c r="E726" s="9"/>
+      <c r="D726" s="7"/>
+      <c r="E726" s="5"/>
     </row>
     <row r="727" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="2"/>
-      <c r="D727" s="16"/>
-      <c r="E727" s="9"/>
+      <c r="D727" s="7"/>
+      <c r="E727" s="5"/>
     </row>
     <row r="728" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="2"/>
-      <c r="D728" s="16"/>
-      <c r="E728" s="9"/>
+      <c r="D728" s="7"/>
+      <c r="E728" s="5"/>
     </row>
     <row r="729" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="2"/>
-      <c r="D729" s="16"/>
-      <c r="E729" s="9"/>
+      <c r="D729" s="7"/>
+      <c r="E729" s="5"/>
     </row>
     <row r="730" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="2"/>
-      <c r="D730" s="16"/>
-      <c r="E730" s="9"/>
+      <c r="D730" s="7"/>
+      <c r="E730" s="5"/>
     </row>
     <row r="731" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="2"/>
-      <c r="D731" s="16"/>
-      <c r="E731" s="9"/>
+      <c r="D731" s="7"/>
+      <c r="E731" s="5"/>
     </row>
     <row r="732" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="2"/>
-      <c r="D732" s="16"/>
-      <c r="E732" s="9"/>
+      <c r="D732" s="7"/>
+      <c r="E732" s="5"/>
     </row>
     <row r="733" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="2"/>
-      <c r="D733" s="16"/>
-      <c r="E733" s="9"/>
+      <c r="D733" s="7"/>
+      <c r="E733" s="5"/>
     </row>
     <row r="734" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="2"/>
-      <c r="D734" s="16"/>
-      <c r="E734" s="9"/>
+      <c r="D734" s="7"/>
+      <c r="E734" s="5"/>
     </row>
     <row r="735" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="2"/>
-      <c r="D735" s="16"/>
-      <c r="E735" s="9"/>
+      <c r="D735" s="7"/>
+      <c r="E735" s="5"/>
     </row>
     <row r="736" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="2"/>
-      <c r="D736" s="16"/>
-      <c r="E736" s="9"/>
+      <c r="D736" s="7"/>
+      <c r="E736" s="5"/>
     </row>
     <row r="737" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="2"/>
-      <c r="D737" s="16"/>
-      <c r="E737" s="9"/>
+      <c r="D737" s="7"/>
+      <c r="E737" s="5"/>
     </row>
     <row r="738" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="2"/>
-      <c r="D738" s="16"/>
-      <c r="E738" s="9"/>
+      <c r="D738" s="7"/>
+      <c r="E738" s="5"/>
     </row>
     <row r="739" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="2"/>
-      <c r="D739" s="16"/>
-      <c r="E739" s="9"/>
+      <c r="D739" s="7"/>
+      <c r="E739" s="5"/>
     </row>
     <row r="740" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="2"/>
-      <c r="D740" s="16"/>
-      <c r="E740" s="9"/>
+      <c r="D740" s="7"/>
+      <c r="E740" s="5"/>
     </row>
     <row r="741" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="2"/>
-      <c r="D741" s="16"/>
-      <c r="E741" s="9"/>
+      <c r="D741" s="7"/>
+      <c r="E741" s="5"/>
     </row>
     <row r="742" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="2"/>
-      <c r="D742" s="16"/>
-      <c r="E742" s="9"/>
+      <c r="D742" s="7"/>
+      <c r="E742" s="5"/>
     </row>
     <row r="743" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="2"/>
-      <c r="D743" s="16"/>
-      <c r="E743" s="9"/>
+      <c r="D743" s="7"/>
+      <c r="E743" s="5"/>
     </row>
     <row r="744" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="2"/>
-      <c r="D744" s="16"/>
-      <c r="E744" s="9"/>
+      <c r="D744" s="7"/>
+      <c r="E744" s="5"/>
     </row>
     <row r="745" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="2"/>
-      <c r="D745" s="16"/>
-      <c r="E745" s="9"/>
+      <c r="D745" s="7"/>
+      <c r="E745" s="5"/>
     </row>
     <row r="746" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="2"/>
-      <c r="D746" s="16"/>
-      <c r="E746" s="9"/>
+      <c r="D746" s="7"/>
+      <c r="E746" s="5"/>
     </row>
     <row r="747" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="2"/>
-      <c r="D747" s="16"/>
-      <c r="E747" s="9"/>
+      <c r="D747" s="7"/>
+      <c r="E747" s="5"/>
     </row>
     <row r="748" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="2"/>
-      <c r="D748" s="16"/>
-      <c r="E748" s="9"/>
+      <c r="D748" s="7"/>
+      <c r="E748" s="5"/>
     </row>
     <row r="749" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="2"/>
-      <c r="D749" s="16"/>
-      <c r="E749" s="9"/>
+      <c r="D749" s="7"/>
+      <c r="E749" s="5"/>
     </row>
     <row r="750" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="2"/>
-      <c r="D750" s="16"/>
-      <c r="E750" s="9"/>
+      <c r="D750" s="7"/>
+      <c r="E750" s="5"/>
     </row>
     <row r="751" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="2"/>
-      <c r="D751" s="16"/>
-      <c r="E751" s="9"/>
+      <c r="D751" s="7"/>
+      <c r="E751" s="5"/>
     </row>
     <row r="752" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="2"/>
-      <c r="D752" s="16"/>
-      <c r="E752" s="9"/>
+      <c r="D752" s="7"/>
+      <c r="E752" s="5"/>
     </row>
     <row r="753" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="2"/>
-      <c r="D753" s="16"/>
-      <c r="E753" s="9"/>
+      <c r="D753" s="7"/>
+      <c r="E753" s="5"/>
     </row>
     <row r="754" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="2"/>
-      <c r="D754" s="16"/>
-      <c r="E754" s="9"/>
+      <c r="D754" s="7"/>
+      <c r="E754" s="5"/>
     </row>
     <row r="755" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="2"/>
-      <c r="D755" s="16"/>
-      <c r="E755" s="9"/>
+      <c r="D755" s="7"/>
+      <c r="E755" s="5"/>
     </row>
     <row r="756" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="2"/>
-      <c r="D756" s="16"/>
-      <c r="E756" s="9"/>
+      <c r="D756" s="7"/>
+      <c r="E756" s="5"/>
     </row>
     <row r="757" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="2"/>
-      <c r="D757" s="16"/>
-      <c r="E757" s="9"/>
+      <c r="D757" s="7"/>
+      <c r="E757" s="5"/>
     </row>
     <row r="758" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="2"/>
-      <c r="D758" s="16"/>
-      <c r="E758" s="9"/>
+      <c r="D758" s="7"/>
+      <c r="E758" s="5"/>
     </row>
     <row r="759" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="2"/>
-      <c r="D759" s="16"/>
-      <c r="E759" s="9"/>
+      <c r="D759" s="7"/>
+      <c r="E759" s="5"/>
     </row>
     <row r="760" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="2"/>
-      <c r="D760" s="16"/>
-      <c r="E760" s="9"/>
+      <c r="D760" s="7"/>
+      <c r="E760" s="5"/>
     </row>
     <row r="761" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="2"/>
-      <c r="D761" s="16"/>
-      <c r="E761" s="9"/>
+      <c r="D761" s="7"/>
+      <c r="E761" s="5"/>
     </row>
     <row r="762" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="2"/>
-      <c r="D762" s="16"/>
-      <c r="E762" s="9"/>
+      <c r="D762" s="7"/>
+      <c r="E762" s="5"/>
     </row>
     <row r="763" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="2"/>
-      <c r="D763" s="16"/>
-      <c r="E763" s="9"/>
+      <c r="D763" s="7"/>
+      <c r="E763" s="5"/>
     </row>
     <row r="764" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="2"/>
-      <c r="D764" s="16"/>
-      <c r="E764" s="9"/>
+      <c r="D764" s="7"/>
+      <c r="E764" s="5"/>
     </row>
     <row r="765" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="2"/>
-      <c r="D765" s="16"/>
-      <c r="E765" s="9"/>
+      <c r="D765" s="7"/>
+      <c r="E765" s="5"/>
     </row>
     <row r="766" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="2"/>
-      <c r="D766" s="16"/>
-      <c r="E766" s="9"/>
+      <c r="D766" s="7"/>
+      <c r="E766" s="5"/>
     </row>
     <row r="767" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="2"/>
-      <c r="D767" s="16"/>
-      <c r="E767" s="9"/>
+      <c r="D767" s="7"/>
+      <c r="E767" s="5"/>
     </row>
     <row r="768" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="2"/>
-      <c r="D768" s="16"/>
-      <c r="E768" s="9"/>
+      <c r="D768" s="7"/>
+      <c r="E768" s="5"/>
     </row>
     <row r="769" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="2"/>
-      <c r="D769" s="16"/>
-      <c r="E769" s="9"/>
+      <c r="D769" s="7"/>
+      <c r="E769" s="5"/>
     </row>
     <row r="770" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="2"/>
-      <c r="D770" s="16"/>
-      <c r="E770" s="9"/>
+      <c r="D770" s="7"/>
+      <c r="E770" s="5"/>
     </row>
     <row r="771" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="2"/>
-      <c r="D771" s="16"/>
-      <c r="E771" s="9"/>
+      <c r="D771" s="7"/>
+      <c r="E771" s="5"/>
     </row>
     <row r="772" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="2"/>
-      <c r="D772" s="16"/>
-      <c r="E772" s="9"/>
+      <c r="D772" s="7"/>
+      <c r="E772" s="5"/>
     </row>
     <row r="773" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="2"/>
-      <c r="D773" s="16"/>
-      <c r="E773" s="9"/>
+      <c r="D773" s="7"/>
+      <c r="E773" s="5"/>
     </row>
     <row r="774" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="2"/>
-      <c r="D774" s="16"/>
-      <c r="E774" s="9"/>
+      <c r="D774" s="7"/>
+      <c r="E774" s="5"/>
     </row>
     <row r="775" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="2"/>
-      <c r="D775" s="16"/>
-      <c r="E775" s="9"/>
+      <c r="D775" s="7"/>
+      <c r="E775" s="5"/>
     </row>
     <row r="776" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="2"/>
-      <c r="D776" s="16"/>
-      <c r="E776" s="9"/>
+      <c r="D776" s="7"/>
+      <c r="E776" s="5"/>
     </row>
     <row r="777" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="2"/>
-      <c r="D777" s="16"/>
-      <c r="E777" s="9"/>
+      <c r="D777" s="7"/>
+      <c r="E777" s="5"/>
     </row>
     <row r="778" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="2"/>
-      <c r="D778" s="16"/>
-      <c r="E778" s="9"/>
+      <c r="D778" s="7"/>
+      <c r="E778" s="5"/>
     </row>
     <row r="779" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="2"/>
-      <c r="D779" s="16"/>
-      <c r="E779" s="9"/>
+      <c r="D779" s="7"/>
+      <c r="E779" s="5"/>
     </row>
     <row r="780" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="2"/>
-      <c r="D780" s="16"/>
-      <c r="E780" s="9"/>
+      <c r="D780" s="7"/>
+      <c r="E780" s="5"/>
     </row>
     <row r="781" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="2"/>
-      <c r="D781" s="16"/>
-      <c r="E781" s="9"/>
+      <c r="D781" s="7"/>
+      <c r="E781" s="5"/>
     </row>
     <row r="782" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="2"/>
-      <c r="D782" s="16"/>
-      <c r="E782" s="9"/>
+      <c r="D782" s="7"/>
+      <c r="E782" s="5"/>
     </row>
     <row r="783" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="2"/>
-      <c r="D783" s="16"/>
-      <c r="E783" s="9"/>
+      <c r="D783" s="7"/>
+      <c r="E783" s="5"/>
     </row>
     <row r="784" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="2"/>
-      <c r="D784" s="16"/>
-      <c r="E784" s="9"/>
+      <c r="D784" s="7"/>
+      <c r="E784" s="5"/>
     </row>
     <row r="785" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="2"/>
-      <c r="D785" s="16"/>
-      <c r="E785" s="9"/>
+      <c r="D785" s="7"/>
+      <c r="E785" s="5"/>
     </row>
     <row r="786" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="2"/>
-      <c r="D786" s="16"/>
-      <c r="E786" s="9"/>
+      <c r="D786" s="7"/>
+      <c r="E786" s="5"/>
     </row>
     <row r="787" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="2"/>
-      <c r="D787" s="16"/>
-      <c r="E787" s="9"/>
+      <c r="D787" s="7"/>
+      <c r="E787" s="5"/>
     </row>
     <row r="788" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="2"/>
-      <c r="D788" s="16"/>
-      <c r="E788" s="9"/>
+      <c r="D788" s="7"/>
+      <c r="E788" s="5"/>
     </row>
     <row r="789" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="2"/>
-      <c r="D789" s="16"/>
-      <c r="E789" s="9"/>
+      <c r="D789" s="7"/>
+      <c r="E789" s="5"/>
     </row>
     <row r="790" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="2"/>
-      <c r="D790" s="16"/>
-      <c r="E790" s="9"/>
+      <c r="D790" s="7"/>
+      <c r="E790" s="5"/>
     </row>
     <row r="791" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="2"/>
-      <c r="D791" s="16"/>
-      <c r="E791" s="9"/>
+      <c r="D791" s="7"/>
+      <c r="E791" s="5"/>
     </row>
     <row r="792" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="2"/>
-      <c r="D792" s="16"/>
-      <c r="E792" s="9"/>
+      <c r="D792" s="7"/>
+      <c r="E792" s="5"/>
     </row>
     <row r="793" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="2"/>
-      <c r="D793" s="16"/>
-      <c r="E793" s="9"/>
+      <c r="D793" s="7"/>
+      <c r="E793" s="5"/>
     </row>
     <row r="794" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="2"/>
-      <c r="D794" s="16"/>
-      <c r="E794" s="9"/>
+      <c r="D794" s="7"/>
+      <c r="E794" s="5"/>
     </row>
     <row r="795" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="2"/>
-      <c r="D795" s="16"/>
-      <c r="E795" s="9"/>
+      <c r="D795" s="7"/>
+      <c r="E795" s="5"/>
     </row>
     <row r="796" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="2"/>
-      <c r="D796" s="16"/>
-      <c r="E796" s="9"/>
+      <c r="D796" s="7"/>
+      <c r="E796" s="5"/>
     </row>
     <row r="797" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="2"/>
-      <c r="D797" s="16"/>
-      <c r="E797" s="9"/>
+      <c r="D797" s="7"/>
+      <c r="E797" s="5"/>
     </row>
     <row r="798" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="2"/>
-      <c r="D798" s="16"/>
-      <c r="E798" s="9"/>
+      <c r="D798" s="7"/>
+      <c r="E798" s="5"/>
     </row>
     <row r="799" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="2"/>
-      <c r="D799" s="16"/>
-      <c r="E799" s="9"/>
+      <c r="D799" s="7"/>
+      <c r="E799" s="5"/>
     </row>
     <row r="800" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="2"/>
-      <c r="D800" s="16"/>
-      <c r="E800" s="9"/>
+      <c r="D800" s="7"/>
+      <c r="E800" s="5"/>
     </row>
     <row r="801" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="2"/>
-      <c r="D801" s="16"/>
-      <c r="E801" s="9"/>
+      <c r="D801" s="7"/>
+      <c r="E801" s="5"/>
     </row>
     <row r="802" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="2"/>
-      <c r="D802" s="16"/>
-      <c r="E802" s="9"/>
+      <c r="D802" s="7"/>
+      <c r="E802" s="5"/>
     </row>
     <row r="803" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="2"/>
-      <c r="D803" s="16"/>
-      <c r="E803" s="9"/>
+      <c r="D803" s="7"/>
+      <c r="E803" s="5"/>
     </row>
     <row r="804" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="2"/>
-      <c r="D804" s="16"/>
-      <c r="E804" s="9"/>
+      <c r="D804" s="7"/>
+      <c r="E804" s="5"/>
     </row>
     <row r="805" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="2"/>
-      <c r="D805" s="16"/>
-      <c r="E805" s="9"/>
+      <c r="D805" s="7"/>
+      <c r="E805" s="5"/>
     </row>
     <row r="806" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="2"/>
-      <c r="D806" s="16"/>
-      <c r="E806" s="9"/>
+      <c r="D806" s="7"/>
+      <c r="E806" s="5"/>
     </row>
     <row r="807" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="2"/>
-      <c r="D807" s="16"/>
-      <c r="E807" s="9"/>
+      <c r="D807" s="7"/>
+      <c r="E807" s="5"/>
     </row>
     <row r="808" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="2"/>
-      <c r="D808" s="16"/>
-      <c r="E808" s="9"/>
+      <c r="D808" s="7"/>
+      <c r="E808" s="5"/>
     </row>
     <row r="809" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="2"/>
-      <c r="D809" s="16"/>
-      <c r="E809" s="9"/>
+      <c r="D809" s="7"/>
+      <c r="E809" s="5"/>
     </row>
     <row r="810" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="2"/>
-      <c r="D810" s="16"/>
-      <c r="E810" s="9"/>
+      <c r="D810" s="7"/>
+      <c r="E810" s="5"/>
     </row>
     <row r="811" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="2"/>
-      <c r="D811" s="16"/>
-      <c r="E811" s="9"/>
+      <c r="D811" s="7"/>
+      <c r="E811" s="5"/>
     </row>
     <row r="812" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="2"/>
-      <c r="D812" s="16"/>
-      <c r="E812" s="9"/>
+      <c r="D812" s="7"/>
+      <c r="E812" s="5"/>
     </row>
     <row r="813" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="2"/>
-      <c r="D813" s="16"/>
-      <c r="E813" s="9"/>
+      <c r="D813" s="7"/>
+      <c r="E813" s="5"/>
     </row>
     <row r="814" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="2"/>
-      <c r="D814" s="16"/>
-      <c r="E814" s="9"/>
+      <c r="D814" s="7"/>
+      <c r="E814" s="5"/>
     </row>
     <row r="815" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="2"/>
-      <c r="D815" s="16"/>
-      <c r="E815" s="9"/>
+      <c r="D815" s="7"/>
+      <c r="E815" s="5"/>
     </row>
     <row r="816" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="2"/>
-      <c r="D816" s="16"/>
-      <c r="E816" s="9"/>
+      <c r="D816" s="7"/>
+      <c r="E816" s="5"/>
     </row>
     <row r="817" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="2"/>
-      <c r="D817" s="16"/>
-      <c r="E817" s="9"/>
+      <c r="D817" s="7"/>
+      <c r="E817" s="5"/>
     </row>
     <row r="818" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="2"/>
-      <c r="D818" s="16"/>
-      <c r="E818" s="9"/>
+      <c r="D818" s="7"/>
+      <c r="E818" s="5"/>
     </row>
     <row r="819" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="2"/>
-      <c r="D819" s="16"/>
-      <c r="E819" s="9"/>
+      <c r="D819" s="7"/>
+      <c r="E819" s="5"/>
     </row>
     <row r="820" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="2"/>
-      <c r="D820" s="16"/>
-      <c r="E820" s="9"/>
+      <c r="D820" s="7"/>
+      <c r="E820" s="5"/>
     </row>
     <row r="821" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="2"/>
-      <c r="D821" s="16"/>
-      <c r="E821" s="9"/>
+      <c r="D821" s="7"/>
+      <c r="E821" s="5"/>
     </row>
     <row r="822" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="2"/>
-      <c r="D822" s="16"/>
-      <c r="E822" s="9"/>
+      <c r="D822" s="7"/>
+      <c r="E822" s="5"/>
     </row>
     <row r="823" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="2"/>
-      <c r="D823" s="16"/>
-      <c r="E823" s="9"/>
+      <c r="D823" s="7"/>
+      <c r="E823" s="5"/>
     </row>
     <row r="824" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="2"/>
-      <c r="D824" s="16"/>
-      <c r="E824" s="9"/>
+      <c r="D824" s="7"/>
+      <c r="E824" s="5"/>
     </row>
     <row r="825" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="2"/>
-      <c r="D825" s="16"/>
-      <c r="E825" s="9"/>
+      <c r="D825" s="7"/>
+      <c r="E825" s="5"/>
     </row>
     <row r="826" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="2"/>
-      <c r="D826" s="16"/>
-      <c r="E826" s="9"/>
+      <c r="D826" s="7"/>
+      <c r="E826" s="5"/>
     </row>
     <row r="827" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="2"/>
-      <c r="D827" s="16"/>
-      <c r="E827" s="9"/>
+      <c r="D827" s="7"/>
+      <c r="E827" s="5"/>
     </row>
     <row r="828" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="2"/>
-      <c r="D828" s="16"/>
-      <c r="E828" s="9"/>
+      <c r="D828" s="7"/>
+      <c r="E828" s="5"/>
     </row>
     <row r="829" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="2"/>
-      <c r="D829" s="16"/>
-      <c r="E829" s="9"/>
+      <c r="D829" s="7"/>
+      <c r="E829" s="5"/>
     </row>
     <row r="830" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="2"/>
-      <c r="D830" s="16"/>
-      <c r="E830" s="9"/>
+      <c r="D830" s="7"/>
+      <c r="E830" s="5"/>
     </row>
     <row r="831" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="2"/>
-      <c r="D831" s="16"/>
-      <c r="E831" s="9"/>
+      <c r="D831" s="7"/>
+      <c r="E831" s="5"/>
     </row>
     <row r="832" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="2"/>
-      <c r="D832" s="16"/>
-      <c r="E832" s="9"/>
+      <c r="D832" s="7"/>
+      <c r="E832" s="5"/>
     </row>
     <row r="833" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="2"/>
-      <c r="D833" s="16"/>
-      <c r="E833" s="9"/>
+      <c r="D833" s="7"/>
+      <c r="E833" s="5"/>
     </row>
     <row r="834" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="2"/>
-      <c r="D834" s="16"/>
-      <c r="E834" s="9"/>
+      <c r="D834" s="7"/>
+      <c r="E834" s="5"/>
     </row>
     <row r="835" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="2"/>
-      <c r="D835" s="16"/>
-      <c r="E835" s="9"/>
+      <c r="D835" s="7"/>
+      <c r="E835" s="5"/>
     </row>
     <row r="836" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="2"/>
-      <c r="D836" s="16"/>
-      <c r="E836" s="9"/>
+      <c r="D836" s="7"/>
+      <c r="E836" s="5"/>
     </row>
     <row r="837" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="2"/>
-      <c r="D837" s="16"/>
-      <c r="E837" s="9"/>
+      <c r="D837" s="7"/>
+      <c r="E837" s="5"/>
     </row>
     <row r="838" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="2"/>
-      <c r="D838" s="16"/>
-      <c r="E838" s="9"/>
+      <c r="D838" s="7"/>
+      <c r="E838" s="5"/>
     </row>
     <row r="839" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="2"/>
-      <c r="D839" s="16"/>
-      <c r="E839" s="9"/>
+      <c r="D839" s="7"/>
+      <c r="E839" s="5"/>
     </row>
     <row r="840" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="2"/>
-      <c r="D840" s="16"/>
-      <c r="E840" s="9"/>
+      <c r="D840" s="7"/>
+      <c r="E840" s="5"/>
     </row>
     <row r="841" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="2"/>
-      <c r="D841" s="16"/>
-      <c r="E841" s="9"/>
+      <c r="D841" s="7"/>
+      <c r="E841" s="5"/>
     </row>
     <row r="842" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="2"/>
-      <c r="D842" s="16"/>
-      <c r="E842" s="9"/>
+      <c r="D842" s="7"/>
+      <c r="E842" s="5"/>
     </row>
     <row r="843" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="2"/>
-      <c r="D843" s="16"/>
-      <c r="E843" s="9"/>
+      <c r="D843" s="7"/>
+      <c r="E843" s="5"/>
     </row>
     <row r="844" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="2"/>
-      <c r="D844" s="16"/>
-      <c r="E844" s="9"/>
+      <c r="D844" s="7"/>
+      <c r="E844" s="5"/>
     </row>
     <row r="845" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="2"/>
-      <c r="D845" s="16"/>
-      <c r="E845" s="9"/>
+      <c r="D845" s="7"/>
+      <c r="E845" s="5"/>
     </row>
     <row r="846" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="2"/>
-      <c r="D846" s="16"/>
-      <c r="E846" s="9"/>
+      <c r="D846" s="7"/>
+      <c r="E846" s="5"/>
     </row>
     <row r="847" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="2"/>
-      <c r="D847" s="16"/>
-      <c r="E847" s="9"/>
+      <c r="D847" s="7"/>
+      <c r="E847" s="5"/>
     </row>
     <row r="848" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="2"/>
-      <c r="D848" s="16"/>
-      <c r="E848" s="9"/>
+      <c r="D848" s="7"/>
+      <c r="E848" s="5"/>
     </row>
     <row r="849" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="2"/>
-      <c r="D849" s="16"/>
-      <c r="E849" s="9"/>
+      <c r="D849" s="7"/>
+      <c r="E849" s="5"/>
     </row>
     <row r="850" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="2"/>
-      <c r="D850" s="16"/>
-      <c r="E850" s="9"/>
+      <c r="D850" s="7"/>
+      <c r="E850" s="5"/>
     </row>
     <row r="851" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="2"/>
-      <c r="D851" s="16"/>
-      <c r="E851" s="9"/>
+      <c r="D851" s="7"/>
+      <c r="E851" s="5"/>
     </row>
     <row r="852" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="2"/>
-      <c r="D852" s="16"/>
-      <c r="E852" s="9"/>
+      <c r="D852" s="7"/>
+      <c r="E852" s="5"/>
     </row>
     <row r="853" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="2"/>
-      <c r="D853" s="16"/>
-      <c r="E853" s="9"/>
+      <c r="D853" s="7"/>
+      <c r="E853" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/works/decentralized-data-management/literatures/literatures_review.xlsx
+++ b/works/decentralized-data-management/literatures/literatures_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gioelebigini/Documents/GitHub/phd-thesis/works/decentralized-data-management/literatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D757E-7D8B-1147-A731-1E9AEA1E85C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7D6DC-300F-2244-A8AF-B1AAD8BC3132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Title</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>They focus on Telemedicine. They focus on patient-centricity. It is a framework. They cite themeselves. They analyze the process of teleconsulting. They use IPFS. They use Smart Contracts. Based on ethereum. They introduce a webapp.</t>
+  </si>
+  <si>
+    <t>Pratyush Ranjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019 IEEE Conference on Information and Communication Technology</t>
   </si>
 </sst>
 </file>
@@ -847,9 +853,9 @@
   </sheetPr>
   <dimension ref="A1:Q853"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1187,11 +1193,21 @@
       <c r="B13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">

--- a/works/decentralized-data-management/literatures/literatures_review.xlsx
+++ b/works/decentralized-data-management/literatures/literatures_review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gioelebigini/Documents/GitHub/phd-thesis/works/decentralized-data-management/literatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7D6DC-300F-2244-A8AF-B1AAD8BC3132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E1FDC-BD1C-F644-A5C4-1BB12DDADFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="192">
   <si>
     <t>Title</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Green = fit / Yellow = loose fit / Orange = unfit</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -277,6 +274,336 @@
   </si>
   <si>
     <t xml:space="preserve"> 2019 IEEE Conference on Information and Communication Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They developed a Dapp. They focus on cutting the intermediaries on transplants procedures. They used IPFS. They use Infura. </t>
+  </si>
+  <si>
+    <t>Jash Rathod</t>
+  </si>
+  <si>
+    <t>2020 Seventh International Conference on Software Defined Systems (SDS)</t>
+  </si>
+  <si>
+    <t>Simply bad</t>
+  </si>
+  <si>
+    <t>2020 International Conference on Computer, Information and Telecommunication Systems (CITS)</t>
+  </si>
+  <si>
+    <t>Topic is Telesurgery and so AI for healthcare systems. For sure It is interesting. Futuristic but out of scope.</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON INDUSTRIAL INFORMATICS</t>
+  </si>
+  <si>
+    <t>Pathum Chamikara Mahawaga Arachchige</t>
+  </si>
+  <si>
+    <t>It uses Federated Learning. It uses Smart Contracts. It is based on Ethereum. They focus on ensuring security in Industrial IoT Systems. Out of scope but interesting for understanding security They use IPFS.</t>
+  </si>
+  <si>
+    <t>Ilhaam A. Omar</t>
+  </si>
+  <si>
+    <t>BMC Medical Research methodology</t>
+  </si>
+  <si>
+    <t>They use smart contracts. They built a fnished system with IPFS. They focused on trials.</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Arabian Journal for Science and Engineering</t>
+  </si>
+  <si>
+    <t>It is a survey over clincal trials challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Hardware and Systems Security </t>
+  </si>
+  <si>
+    <t>Pinchen Cui</t>
+  </si>
+  <si>
+    <t>General Survey on Blockchain and IoT</t>
+  </si>
+  <si>
+    <t>Wireless Personal Communications</t>
+  </si>
+  <si>
+    <t>Valentin Rakovic</t>
+  </si>
+  <si>
+    <t>Maliha Sultana</t>
+  </si>
+  <si>
+    <t>They focus image sharing. They use IPFS. They store the hash on Blockchain. They connect Metamask to smart contracts. They use smart contracts.</t>
+  </si>
+  <si>
+    <t>Morgan P. McBee</t>
+  </si>
+  <si>
+    <t>Journal of Digital Imaging</t>
+  </si>
+  <si>
+    <t>Nothing interesting. They mention imaging is another important thing in healthcare that could benefit from blockchain</t>
+  </si>
+  <si>
+    <t>Omar Alfandi</t>
+  </si>
+  <si>
+    <t>Cluster Computing</t>
+  </si>
+  <si>
+    <t>They use monetization with deep learning model genetarions. They focused on autonoumous driving. They use IPFS. Out of scope but to keep in consideration.</t>
+  </si>
+  <si>
+    <t>Amin Fadaeddini</t>
+  </si>
+  <si>
+    <t>The Journal of Supercomputing</t>
+  </si>
+  <si>
+    <t>A blockchain-based eHealthcare system interoperating with WBAN</t>
+  </si>
+  <si>
+    <t>A Mobile Cloud based IoMT Framework for Automated Health Assessment and Management</t>
+  </si>
+  <si>
+    <t>BIoMT: Blockchain for the Internet of Medical Things</t>
+  </si>
+  <si>
+    <t>Towards a Blockchain based Fall Prediction Model for Aged Care</t>
+  </si>
+  <si>
+    <t>Data Sharing and Privacy for Patient IoT Devices Using Blockchain</t>
+  </si>
+  <si>
+    <t>A Decentralized Privacy-Preserving Healthcare Blockchain for IoT</t>
+  </si>
+  <si>
+    <t>Enabling the Internet of Mobile Crowdsourcing Health Things: A Mobile Fog Computing, Blockchain and IoT Based Continuous Glucose Monitoring System for Diabetes Mellitus Research and Care</t>
+  </si>
+  <si>
+    <t>A Light and Secure Healthcare Blockchain for IoT Medical Devices</t>
+  </si>
+  <si>
+    <t>Healthchain: A Blockchain-Based Privacy Preserving Scheme for Large-Scale Health Data</t>
+  </si>
+  <si>
+    <t>Blockchain-based Ownership Management for Medical IoT (MIoT) Devices</t>
+  </si>
+  <si>
+    <t>BlocHIE: a BLOCkchain-based platform for Healthcare Information Exchange</t>
+  </si>
+  <si>
+    <t>On the Design of a Blockchain Platform for Clinical Trial and Precision Medicine</t>
+  </si>
+  <si>
+    <t>Green = fit / Yellow = loose fit / Orange = unfit / Red = missing or out of scope</t>
+  </si>
+  <si>
+    <t>Nattaruedee Vithanwattana</t>
+  </si>
+  <si>
+    <t>J Reliable Intell Environ</t>
+  </si>
+  <si>
+    <t>They mention management on mobile devices. They are using central server. They mention general security policies on mobile devices. They mention an access control module. This could be the base general from which to start.</t>
+  </si>
+  <si>
+    <t>Out of Scope</t>
+  </si>
+  <si>
+    <t>Zhumin CHEN</t>
+  </si>
+  <si>
+    <t>Front. Comput. Sci.</t>
+  </si>
+  <si>
+    <t>ERIKSON JÚLIO DE AGUIAR</t>
+  </si>
+  <si>
+    <t>ACM Computing Surveys</t>
+  </si>
+  <si>
+    <t>Interesting for opportunities of implementation</t>
+  </si>
+  <si>
+    <t>Huge survey about Blockchain</t>
+  </si>
+  <si>
+    <t>RUI ZHANG</t>
+  </si>
+  <si>
+    <t>Sara Rouhani</t>
+  </si>
+  <si>
+    <t>IEEE/WIC/ACM International Conference on Web Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access control problems descripted. Why blockchain is benefit descripted. </t>
+  </si>
+  <si>
+    <t>L Lao</t>
+  </si>
+  <si>
+    <t>Survey about Data management and integrity</t>
+  </si>
+  <si>
+    <t>P Sharma</t>
+  </si>
+  <si>
+    <t>Svetlana Boudko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bit out of scope. It investigate IOTA. </t>
+  </si>
+  <si>
+    <t>iiWAS2019: Proceedings of the 21st International Conference on Information Integration and Web-based Applications &amp; Services</t>
+  </si>
+  <si>
+    <t>ICEGOV '18: Proceedings of the 11th International Conference on Theory and Practice of Electronic Governance</t>
+  </si>
+  <si>
+    <t>Jong Sou Park</t>
+  </si>
+  <si>
+    <t>Very short. Interesting.</t>
+  </si>
+  <si>
+    <t>SERIAL '17: Proceedings of the 1st Workshop on Scalable and Resilient Infrastructures for Distributed Ledgers</t>
+  </si>
+  <si>
+    <t>Jonatan Bergquist</t>
+  </si>
+  <si>
+    <t>Dilip Krishnaswamy</t>
+  </si>
+  <si>
+    <t>ICDCN 2020: Proceedings of the 21st International Conference on Distributed Computing and Networking</t>
+  </si>
+  <si>
+    <t>Robert Norvill</t>
+  </si>
+  <si>
+    <t>Out of scope but interesting ideas on how to implement several component included an access layer management.</t>
+  </si>
+  <si>
+    <t>BSCI '20: Proceedings of the 2nd ACM International Symposium on Blockchain and Secure Critical Infrastructure</t>
+  </si>
+  <si>
+    <t>QINGYI ZHU</t>
+  </si>
+  <si>
+    <t>José Roberto Nascimento Jr</t>
+  </si>
+  <si>
+    <t>Tracking Sensitive data. They refer to Ethereum.</t>
+  </si>
+  <si>
+    <t>DEBS '20: Proceedings of the 14th ACM International Conference on Distributed and Event-based Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junchao Wang </t>
+  </si>
+  <si>
+    <t>Future Generation Computer Systems</t>
+  </si>
+  <si>
+    <t>They use Hyperledger. They track transactions. They give whole architecture. They use WBAN. They focus interoperability. Theu use Kafka.They do not use IPFS</t>
+  </si>
+  <si>
+    <t>Dinh C. Nguyen</t>
+  </si>
+  <si>
+    <t>2019 41st Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC)</t>
+  </si>
+  <si>
+    <t>They use AI. Typical conference explaination. They look to perfomances.</t>
+  </si>
+  <si>
+    <t>Mohamed Seliem</t>
+  </si>
+  <si>
+    <t>2019 IEEE International Black Sea Conference on Communications and Networking (BlackSeaCom)</t>
+  </si>
+  <si>
+    <t>Based mostly on cloud server. Devices as gateways.Blockchain for protection. Useful but not to much.</t>
+  </si>
+  <si>
+    <t>Tharuka Rupasinghe</t>
+  </si>
+  <si>
+    <t>Attempt to integrate FHIR with blockchain.It uses Smart Contracts. Intereseting because is different approach. Maybe weak</t>
+  </si>
+  <si>
+    <t>ACSW 2019: Proceedings of the Australasian Computer Science Week Multiconference</t>
+  </si>
+  <si>
+    <t>Gautam Srivastava</t>
+  </si>
+  <si>
+    <t>It propose a protocol. A bit out of scope. Interesting because It focus on authentication.</t>
+  </si>
+  <si>
+    <t>International Conference on Smart City and Informatization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashutosh Dhar Dwivedi </t>
+  </si>
+  <si>
+    <t>Based on the previous one</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Tiago M. Fernández-Caramés</t>
+  </si>
+  <si>
+    <t>IPFS, Crowdsourcing, Mobile App. Infura, Smart Contracts.</t>
+  </si>
+  <si>
+    <t>2019 IEEE Canadian Conference of Electrical and Computer Engineering (CCECE)</t>
+  </si>
+  <si>
+    <t>It is a survey</t>
+  </si>
+  <si>
+    <t>Jie Xu</t>
+  </si>
+  <si>
+    <t>IEEE Internet of Things Journal</t>
+  </si>
+  <si>
+    <t>Maybe similar to what I have in mind. They use several nodes hierarchy. They do not require IPFS. They are more a management layer.</t>
+  </si>
+  <si>
+    <t>2018 13th International Conference on Innovations in Information Technology (IIT)</t>
+  </si>
+  <si>
+    <t>M. Alblooshi</t>
+  </si>
+  <si>
+    <t>2018 IEEE International Conference on Smart Computing</t>
+  </si>
+  <si>
+    <t>Shan Jiang</t>
+  </si>
+  <si>
+    <t>This is based on two blockchain systems. Really interesting. Simila to Healthchain. This is huge. Unfortunately only a conference. Let's see.</t>
+  </si>
+  <si>
+    <t>A survey about precision medicine. Useful for some idea.</t>
+  </si>
+  <si>
+    <t>Zonyin Shae</t>
+  </si>
+  <si>
+    <t>2017 IEEE 37th International Conference on Distributed Computing Systems (ICDCS)</t>
   </si>
 </sst>
 </file>
@@ -318,7 +645,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +673,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +738,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -418,9 +766,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +801,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,24 +830,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -529,6 +866,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -547,8 +887,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -559,14 +908,127 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,34 +1315,34 @@
   </sheetPr>
   <dimension ref="A1:Q853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="93.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51" style="12" customWidth="1"/>
+    <col min="2" max="2" width="93.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -892,4802 +1354,5406 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="73">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="49">
+        <v>4</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="73">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="48">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="G4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="49">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="F5" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="57">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="30">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="31">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F6" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="56">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="57">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="30">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="31">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="53">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="49">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="50">
-        <v>4</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="53">
-        <v>2</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="49">
+      <c r="F9" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="57">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="30">
         <v>2019</v>
       </c>
-      <c r="E4" s="50">
-        <v>0</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="54">
-        <v>3</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="49">
-        <v>2020</v>
-      </c>
-      <c r="E5" s="50">
-        <v>0</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="56" x14ac:dyDescent="0.15">
-      <c r="A6" s="55">
-        <v>4</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="26">
-        <v>2020</v>
-      </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="56">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="49">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="50">
-        <v>0</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="54">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2020</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="E10" s="31">
+        <v>12</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="55">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="26">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="27">
-        <v>2</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="55">
-        <v>8</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="26">
-        <v>2019</v>
-      </c>
-      <c r="E10" s="27">
-        <v>12</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="H10" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="56">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="24">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="25">
+        <v>55</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
+        <v>10</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="49">
-        <v>2019</v>
-      </c>
-      <c r="E11" s="50">
-        <v>55</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="50" t="s">
+      <c r="C12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="49">
+        <v>0</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="56" x14ac:dyDescent="0.15">
-      <c r="A12" s="56">
-        <v>10</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="H12" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="49">
-        <v>2020</v>
-      </c>
-      <c r="E12" s="50">
-        <v>0</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="57">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="32">
-        <v>2019</v>
-      </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="57">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="53">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="54">
+        <v>0</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="67">
+        <v>13</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="57">
-        <v>13</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="70">
+        <v>2020</v>
+      </c>
+      <c r="E15" s="71">
+        <v>0</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="A16" s="56">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="57">
-        <v>14</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="25">
+        <v>10</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="58">
+        <v>15</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="57">
-        <v>15</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="34"/>
+      <c r="C17" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="57">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="53">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="54">
+        <v>1</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="75">
+        <v>17</v>
+      </c>
+      <c r="B19" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="57">
-        <v>17</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="C19" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="78">
+        <v>2019</v>
+      </c>
+      <c r="E19" s="79">
+        <v>5</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="75">
+        <v>18</v>
+      </c>
+      <c r="B20" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="57">
-        <v>18</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="78">
+        <v>2019</v>
+      </c>
+      <c r="E20" s="79">
+        <v>6</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A21" s="58">
+        <v>19</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57">
-        <v>19</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="C21" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E21" s="49">
+        <v>0</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="59">
+        <v>20</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58">
-        <v>20</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="75">
+        <v>21</v>
+      </c>
+      <c r="B23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="57">
-        <v>21</v>
-      </c>
-      <c r="B23" s="29" t="s">
+      <c r="C23" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="83">
+        <v>2020</v>
+      </c>
+      <c r="E23" s="80">
+        <v>4</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="75">
+        <v>22</v>
+      </c>
+      <c r="B24" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="57">
-        <v>22</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="C24" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="78">
+        <v>2020</v>
+      </c>
+      <c r="E24" s="79">
+        <v>0</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="60">
+        <v>23</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="57">
-        <v>23</v>
-      </c>
-      <c r="B25" s="29" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A26" s="58">
+        <v>24</v>
+      </c>
+      <c r="B26" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="57">
-        <v>24</v>
-      </c>
-      <c r="B26" s="29" t="s">
+      <c r="C26" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="48">
+        <v>2020</v>
+      </c>
+      <c r="E26" s="49">
+        <v>2</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="60">
+        <v>25</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="57">
-        <v>25</v>
-      </c>
-      <c r="B27" s="29" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+      <c r="A28" s="56">
+        <v>26</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="57">
-        <v>26</v>
-      </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2017</v>
+      </c>
+      <c r="E28" s="25">
+        <v>15</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="75">
+        <v>27</v>
+      </c>
+      <c r="B29" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="57">
-        <v>27</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="34"/>
+      <c r="C29" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="78">
+        <v>2020</v>
+      </c>
+      <c r="E29" s="79">
+        <v>0</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="57">
         <v>28</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="34"/>
+      <c r="B30" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="53">
+        <v>2020</v>
+      </c>
+      <c r="E30" s="54">
+        <v>3</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="57">
         <v>29</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="53">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="54">
+        <v>89</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="75">
+        <v>30</v>
+      </c>
+      <c r="B32" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="57">
-        <v>30</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="C32" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="78">
+        <v>2019</v>
+      </c>
+      <c r="E32" s="79">
+        <v>24</v>
+      </c>
+      <c r="F32" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="57">
         <v>31</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="34"/>
+      <c r="B33" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E33" s="31">
+        <v>5</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="57">
         <v>32</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="34"/>
-    </row>
-    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="B34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="53">
+        <v>2020</v>
+      </c>
+      <c r="E34" s="54">
+        <v>2</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="57">
         <v>33</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="B35" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E35" s="31">
+        <v>0</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="57">
         <v>34</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="30">
+        <v>2018</v>
+      </c>
+      <c r="E36" s="31">
+        <v>3</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="75">
+        <v>35</v>
+      </c>
+      <c r="B37" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="57">
-        <v>35</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="C37" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="78">
+        <v>2017</v>
+      </c>
+      <c r="E37" s="79">
+        <v>26</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="75">
+        <v>36</v>
+      </c>
+      <c r="B38" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="57">
-        <v>36</v>
-      </c>
-      <c r="B38" s="29" t="s">
+      <c r="C38" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="78">
+        <v>2020</v>
+      </c>
+      <c r="E38" s="79">
+        <v>0</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="60">
+        <v>37</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="59">
-        <v>37</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="57">
         <v>38</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="30">
+        <v>2020</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="75">
+        <v>39</v>
+      </c>
+      <c r="B41" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="34"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="57">
-        <v>39</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="C41" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="78">
+        <v>2019</v>
+      </c>
+      <c r="E41" s="79">
+        <v>0</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="58">
+        <v>40</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="57">
-        <v>40</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="C42" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="62">
+        <v>2020</v>
+      </c>
+      <c r="E42" s="63">
+        <v>1</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="60">
+        <v>41</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="34"/>
-    </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="59">
-        <v>41</v>
-      </c>
-      <c r="B43" s="41" t="s">
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+    </row>
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="60">
+        <v>42</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="59">
-        <v>42</v>
-      </c>
-      <c r="B44" s="41" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+    </row>
+    <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A45" s="56">
+        <v>43</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="25">
+        <v>2019</v>
+      </c>
+      <c r="E45" s="25">
+        <v>13</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A46" s="56">
+        <v>44</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="92">
+        <v>2019</v>
+      </c>
+      <c r="E46" s="92">
+        <v>6</v>
+      </c>
+      <c r="F46" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A47" s="58">
+        <v>45</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="63">
+        <v>2019</v>
+      </c>
+      <c r="E47" s="63">
+        <v>5</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A48" s="58">
+        <v>46</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="63">
+        <v>2019</v>
+      </c>
+      <c r="E48" s="63">
+        <v>10</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A49" s="58">
         <v>47</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="B49" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="63">
+        <v>2019</v>
+      </c>
+      <c r="E49" s="63">
+        <v>11</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="56">
+        <v>48</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="92">
+        <v>2018</v>
+      </c>
+      <c r="E50" s="92">
+        <v>162</v>
+      </c>
+      <c r="F50" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A51" s="56">
+        <v>49</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="25">
+        <v>2019</v>
+      </c>
+      <c r="E51" s="25">
+        <v>27</v>
+      </c>
+      <c r="F51" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="75">
+        <v>50</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="79">
+        <v>2019</v>
+      </c>
+      <c r="E52" s="79">
+        <v>11</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A53" s="56">
+        <v>51</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="25">
+        <v>2019</v>
+      </c>
+      <c r="E53" s="25">
+        <v>20</v>
+      </c>
+      <c r="F53" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="75">
+        <v>52</v>
+      </c>
+      <c r="B54" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="79">
+        <v>2018</v>
+      </c>
+      <c r="E54" s="79">
+        <v>12</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A55" s="56">
+        <v>53</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="25">
+        <v>2018</v>
+      </c>
+      <c r="E55" s="25">
+        <v>82</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="57">
+        <v>54</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="54">
+        <v>2017</v>
+      </c>
+      <c r="E56" s="54">
+        <v>94</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="85"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="86"/>
+    </row>
+    <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="85"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="86"/>
+    </row>
+    <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="85"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="86"/>
+    </row>
+    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="85"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="86"/>
+    </row>
+    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="85"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="86"/>
+    </row>
+    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="85"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="86"/>
+    </row>
+    <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="85"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="86"/>
+    </row>
+    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="85"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="86"/>
+    </row>
+    <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="85"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="86"/>
+    </row>
+    <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="85"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="86"/>
+    </row>
+    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D67" s="10"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D68" s="10"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D69" s="10"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D70" s="10"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D71" s="10"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D72" s="10"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D73" s="10"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D74" s="10"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D75" s="10"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D76" s="10"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D77" s="10"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D78" s="10"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D79" s="10"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="5"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="5"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="5"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="5"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="5"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="5"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="5"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="5"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="5"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="5"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="5"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="5"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="5"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="5"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="5"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="5"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="5"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="5"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="5"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="5"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="5"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="5"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="5"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="5"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="5"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="5"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="5"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="5"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="5"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="5"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="5"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="5"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="5"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="5"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="5"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="5"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="5"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="5"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="5"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="5"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="5"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="5"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="5"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="5"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="5"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="5"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="8"/>
     </row>
     <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="5"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="5"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="5"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="5"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="5"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="5"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="5"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="5"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="8"/>
     </row>
     <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="5"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="8"/>
     </row>
     <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="5"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="5"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="5"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="5"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="5"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="5"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="5"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="5"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="5"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="5"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="5"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="5"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="8"/>
     </row>
     <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="5"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="8"/>
     </row>
     <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="5"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="8"/>
     </row>
     <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="5"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="8"/>
     </row>
     <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="5"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="8"/>
     </row>
     <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="5"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="5"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="8"/>
     </row>
     <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="5"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="8"/>
     </row>
     <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="5"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="5"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="5"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="5"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="5"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="5"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="5"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="5"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="5"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="5"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="5"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="5"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="5"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="5"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="5"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="5"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="8"/>
     </row>
     <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="5"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="5"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="5"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="8"/>
     </row>
     <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="5"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="5"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="8"/>
     </row>
     <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="5"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="5"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="5"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="5"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="5"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="5"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="5"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="5"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="5"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="8"/>
     </row>
     <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="5"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="5"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="5"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="5"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="8"/>
     </row>
     <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="5"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="8"/>
     </row>
     <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="5"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="5"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="8"/>
     </row>
     <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="5"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="8"/>
     </row>
     <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="5"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="5"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="5"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="5"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="5"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="5"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="8"/>
     </row>
     <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="5"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="8"/>
     </row>
     <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="5"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="5"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="5"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="8"/>
     </row>
     <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="5"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="5"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="5"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="8"/>
     </row>
     <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="5"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="8"/>
     </row>
     <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="5"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="8"/>
     </row>
     <row r="208" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="5"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="8"/>
     </row>
     <row r="209" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="5"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="8"/>
     </row>
     <row r="210" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="5"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="5"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="8"/>
     </row>
     <row r="212" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="5"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="8"/>
     </row>
     <row r="213" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="5"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="8"/>
     </row>
     <row r="214" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="5"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="5"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="5"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="8"/>
     </row>
     <row r="217" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="5"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="8"/>
     </row>
     <row r="218" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="5"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="8"/>
     </row>
     <row r="219" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="5"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="5"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="5"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="8"/>
     </row>
     <row r="222" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="5"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="8"/>
     </row>
     <row r="223" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="5"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="8"/>
     </row>
     <row r="224" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="5"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="5"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="5"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="8"/>
     </row>
     <row r="227" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="5"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="5"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="8"/>
     </row>
     <row r="229" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="5"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="8"/>
     </row>
     <row r="230" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="5"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="5"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="8"/>
     </row>
     <row r="232" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="5"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="5"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="5"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="5"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="5"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="8"/>
     </row>
     <row r="237" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="5"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="8"/>
     </row>
     <row r="238" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="5"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="8"/>
     </row>
     <row r="239" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="5"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="5"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="5"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="5"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="5"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="5"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="8"/>
     </row>
     <row r="245" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="5"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
-      <c r="D246" s="7"/>
-      <c r="E246" s="5"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="8"/>
     </row>
     <row r="247" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="5"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="8"/>
     </row>
     <row r="248" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="5"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="8"/>
     </row>
     <row r="249" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="5"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="8"/>
     </row>
     <row r="250" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="5"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="5"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="8"/>
     </row>
     <row r="252" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="5"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="8"/>
     </row>
     <row r="253" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="5"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="8"/>
     </row>
     <row r="254" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
-      <c r="D254" s="7"/>
-      <c r="E254" s="5"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="8"/>
     </row>
     <row r="255" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
-      <c r="D255" s="7"/>
-      <c r="E255" s="5"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
-      <c r="D256" s="7"/>
-      <c r="E256" s="5"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
-      <c r="D257" s="7"/>
-      <c r="E257" s="5"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="8"/>
     </row>
     <row r="258" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
-      <c r="D258" s="7"/>
-      <c r="E258" s="5"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="8"/>
     </row>
     <row r="259" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
-      <c r="D259" s="7"/>
-      <c r="E259" s="5"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="8"/>
     </row>
     <row r="260" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="5"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="5"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="8"/>
     </row>
     <row r="262" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="5"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="8"/>
     </row>
     <row r="263" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
-      <c r="D263" s="7"/>
-      <c r="E263" s="5"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="8"/>
     </row>
     <row r="264" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
-      <c r="D264" s="7"/>
-      <c r="E264" s="5"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="8"/>
     </row>
     <row r="265" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
-      <c r="D265" s="7"/>
-      <c r="E265" s="5"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="8"/>
     </row>
     <row r="266" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
-      <c r="D266" s="7"/>
-      <c r="E266" s="5"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="8"/>
     </row>
     <row r="267" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
-      <c r="D267" s="7"/>
-      <c r="E267" s="5"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="8"/>
     </row>
     <row r="268" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="5"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="8"/>
     </row>
     <row r="269" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="5"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="8"/>
     </row>
     <row r="270" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="5"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="5"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="5"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="8"/>
     </row>
     <row r="273" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="5"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="8"/>
     </row>
     <row r="274" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
-      <c r="D274" s="7"/>
-      <c r="E274" s="5"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
-      <c r="D275" s="7"/>
-      <c r="E275" s="5"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="8"/>
     </row>
     <row r="276" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="5"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="8"/>
     </row>
     <row r="277" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
-      <c r="D277" s="7"/>
-      <c r="E277" s="5"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="8"/>
     </row>
     <row r="278" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="5"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="8"/>
     </row>
     <row r="279" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
-      <c r="D279" s="7"/>
-      <c r="E279" s="5"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="8"/>
     </row>
     <row r="280" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
-      <c r="D280" s="7"/>
-      <c r="E280" s="5"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="8"/>
     </row>
     <row r="281" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="5"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="8"/>
     </row>
     <row r="282" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="5"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="8"/>
     </row>
     <row r="283" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="2"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="5"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="8"/>
     </row>
     <row r="284" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="2"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="5"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="8"/>
     </row>
     <row r="285" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="5"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="8"/>
     </row>
     <row r="286" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2"/>
-      <c r="D286" s="7"/>
-      <c r="E286" s="5"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="8"/>
     </row>
     <row r="287" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="5"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="5"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="8"/>
     </row>
     <row r="289" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2"/>
-      <c r="D289" s="7"/>
-      <c r="E289" s="5"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="8"/>
     </row>
     <row r="290" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="2"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="5"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="8"/>
     </row>
     <row r="291" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="2"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="5"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="8"/>
     </row>
     <row r="292" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="2"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="5"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="8"/>
     </row>
     <row r="293" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="2"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="5"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="2"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="5"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="8"/>
     </row>
     <row r="295" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="2"/>
-      <c r="D295" s="7"/>
-      <c r="E295" s="5"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="8"/>
     </row>
     <row r="296" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="2"/>
-      <c r="D296" s="7"/>
-      <c r="E296" s="5"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="8"/>
     </row>
     <row r="297" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="2"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="5"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="8"/>
     </row>
     <row r="298" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="2"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="5"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="8"/>
     </row>
     <row r="299" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="2"/>
-      <c r="D299" s="7"/>
-      <c r="E299" s="5"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="8"/>
     </row>
     <row r="300" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="2"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="5"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="8"/>
     </row>
     <row r="301" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="2"/>
-      <c r="D301" s="7"/>
-      <c r="E301" s="5"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="8"/>
     </row>
     <row r="302" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
-      <c r="D302" s="7"/>
-      <c r="E302" s="5"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="8"/>
     </row>
     <row r="303" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="2"/>
-      <c r="D303" s="7"/>
-      <c r="E303" s="5"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="8"/>
     </row>
     <row r="304" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="2"/>
-      <c r="D304" s="7"/>
-      <c r="E304" s="5"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="8"/>
     </row>
     <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="2"/>
-      <c r="D305" s="7"/>
-      <c r="E305" s="5"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="8"/>
     </row>
     <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="2"/>
-      <c r="D306" s="7"/>
-      <c r="E306" s="5"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="8"/>
     </row>
     <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="2"/>
-      <c r="D307" s="7"/>
-      <c r="E307" s="5"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="8"/>
     </row>
     <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="2"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="5"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="2"/>
-      <c r="D309" s="7"/>
-      <c r="E309" s="5"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="8"/>
     </row>
     <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="2"/>
-      <c r="D310" s="7"/>
-      <c r="E310" s="5"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="8"/>
     </row>
     <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
-      <c r="D311" s="7"/>
-      <c r="E311" s="5"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="8"/>
     </row>
     <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="2"/>
-      <c r="D312" s="7"/>
-      <c r="E312" s="5"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="8"/>
     </row>
     <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="2"/>
-      <c r="D313" s="7"/>
-      <c r="E313" s="5"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="8"/>
     </row>
     <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="2"/>
-      <c r="D314" s="7"/>
-      <c r="E314" s="5"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="8"/>
     </row>
     <row r="315" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="2"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="5"/>
+      <c r="D315" s="10"/>
+      <c r="E315" s="8"/>
     </row>
     <row r="316" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="2"/>
-      <c r="D316" s="7"/>
-      <c r="E316" s="5"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="8"/>
     </row>
     <row r="317" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="2"/>
-      <c r="D317" s="7"/>
-      <c r="E317" s="5"/>
+      <c r="D317" s="10"/>
+      <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="2"/>
-      <c r="D318" s="7"/>
-      <c r="E318" s="5"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="8"/>
     </row>
     <row r="319" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="2"/>
-      <c r="D319" s="7"/>
-      <c r="E319" s="5"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="8"/>
     </row>
     <row r="320" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="2"/>
-      <c r="D320" s="7"/>
-      <c r="E320" s="5"/>
+      <c r="D320" s="10"/>
+      <c r="E320" s="8"/>
     </row>
     <row r="321" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="2"/>
-      <c r="D321" s="7"/>
-      <c r="E321" s="5"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="8"/>
     </row>
     <row r="322" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="2"/>
-      <c r="D322" s="7"/>
-      <c r="E322" s="5"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="8"/>
     </row>
     <row r="323" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="2"/>
-      <c r="D323" s="7"/>
-      <c r="E323" s="5"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="8"/>
     </row>
     <row r="324" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="2"/>
-      <c r="D324" s="7"/>
-      <c r="E324" s="5"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="8"/>
     </row>
     <row r="325" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="2"/>
-      <c r="D325" s="7"/>
-      <c r="E325" s="5"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="8"/>
     </row>
     <row r="326" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="2"/>
-      <c r="D326" s="7"/>
-      <c r="E326" s="5"/>
+      <c r="D326" s="10"/>
+      <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="2"/>
-      <c r="D327" s="7"/>
-      <c r="E327" s="5"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="8"/>
     </row>
     <row r="328" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="2"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="5"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="8"/>
     </row>
     <row r="329" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="2"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="5"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="8"/>
     </row>
     <row r="330" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="2"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="5"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="8"/>
     </row>
     <row r="331" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="2"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="5"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="8"/>
     </row>
     <row r="332" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="2"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="5"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="8"/>
     </row>
     <row r="333" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="2"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="5"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="8"/>
     </row>
     <row r="334" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="2"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="5"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="8"/>
     </row>
     <row r="335" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="2"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="5"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="8"/>
     </row>
     <row r="336" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="2"/>
-      <c r="D336" s="7"/>
-      <c r="E336" s="5"/>
+      <c r="D336" s="10"/>
+      <c r="E336" s="8"/>
     </row>
     <row r="337" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="2"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="5"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="8"/>
     </row>
     <row r="338" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="2"/>
-      <c r="D338" s="7"/>
-      <c r="E338" s="5"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="8"/>
     </row>
     <row r="339" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="2"/>
-      <c r="D339" s="7"/>
-      <c r="E339" s="5"/>
+      <c r="D339" s="10"/>
+      <c r="E339" s="8"/>
     </row>
     <row r="340" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="2"/>
-      <c r="D340" s="7"/>
-      <c r="E340" s="5"/>
+      <c r="D340" s="10"/>
+      <c r="E340" s="8"/>
     </row>
     <row r="341" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
-      <c r="D341" s="7"/>
-      <c r="E341" s="5"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="8"/>
     </row>
     <row r="342" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="2"/>
-      <c r="D342" s="7"/>
-      <c r="E342" s="5"/>
+      <c r="D342" s="10"/>
+      <c r="E342" s="8"/>
     </row>
     <row r="343" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="2"/>
-      <c r="D343" s="7"/>
-      <c r="E343" s="5"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="8"/>
     </row>
     <row r="344" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="2"/>
-      <c r="D344" s="7"/>
-      <c r="E344" s="5"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="8"/>
     </row>
     <row r="345" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="2"/>
-      <c r="D345" s="7"/>
-      <c r="E345" s="5"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="8"/>
     </row>
     <row r="346" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="2"/>
-      <c r="D346" s="7"/>
-      <c r="E346" s="5"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="8"/>
     </row>
     <row r="347" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
-      <c r="D347" s="7"/>
-      <c r="E347" s="5"/>
+      <c r="D347" s="10"/>
+      <c r="E347" s="8"/>
     </row>
     <row r="348" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="2"/>
-      <c r="D348" s="7"/>
-      <c r="E348" s="5"/>
+      <c r="D348" s="10"/>
+      <c r="E348" s="8"/>
     </row>
     <row r="349" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="2"/>
-      <c r="D349" s="7"/>
-      <c r="E349" s="5"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="8"/>
     </row>
     <row r="350" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="2"/>
-      <c r="D350" s="7"/>
-      <c r="E350" s="5"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="8"/>
     </row>
     <row r="351" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="2"/>
-      <c r="D351" s="7"/>
-      <c r="E351" s="5"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="8"/>
     </row>
     <row r="352" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="2"/>
-      <c r="D352" s="7"/>
-      <c r="E352" s="5"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="8"/>
     </row>
     <row r="353" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="2"/>
-      <c r="D353" s="7"/>
-      <c r="E353" s="5"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="8"/>
     </row>
     <row r="354" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="2"/>
-      <c r="D354" s="7"/>
-      <c r="E354" s="5"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="8"/>
     </row>
     <row r="355" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="2"/>
-      <c r="D355" s="7"/>
-      <c r="E355" s="5"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="8"/>
     </row>
     <row r="356" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
-      <c r="D356" s="7"/>
-      <c r="E356" s="5"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="2"/>
-      <c r="D357" s="7"/>
-      <c r="E357" s="5"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="8"/>
     </row>
     <row r="358" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="2"/>
-      <c r="D358" s="7"/>
-      <c r="E358" s="5"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="8"/>
     </row>
     <row r="359" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="2"/>
-      <c r="D359" s="7"/>
-      <c r="E359" s="5"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="8"/>
     </row>
     <row r="360" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
-      <c r="D360" s="7"/>
-      <c r="E360" s="5"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="8"/>
     </row>
     <row r="361" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="2"/>
-      <c r="D361" s="7"/>
-      <c r="E361" s="5"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="8"/>
     </row>
     <row r="362" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="2"/>
-      <c r="D362" s="7"/>
-      <c r="E362" s="5"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="8"/>
     </row>
     <row r="363" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="2"/>
-      <c r="D363" s="7"/>
-      <c r="E363" s="5"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="8"/>
     </row>
     <row r="364" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="2"/>
-      <c r="D364" s="7"/>
-      <c r="E364" s="5"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="8"/>
     </row>
     <row r="365" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
-      <c r="D365" s="7"/>
-      <c r="E365" s="5"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="8"/>
     </row>
     <row r="366" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="2"/>
-      <c r="D366" s="7"/>
-      <c r="E366" s="5"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="8"/>
     </row>
     <row r="367" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="2"/>
-      <c r="D367" s="7"/>
-      <c r="E367" s="5"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="8"/>
     </row>
     <row r="368" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="2"/>
-      <c r="D368" s="7"/>
-      <c r="E368" s="5"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="8"/>
     </row>
     <row r="369" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="2"/>
-      <c r="D369" s="7"/>
-      <c r="E369" s="5"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="2"/>
-      <c r="D370" s="7"/>
-      <c r="E370" s="5"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="8"/>
     </row>
     <row r="371" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="2"/>
-      <c r="D371" s="7"/>
-      <c r="E371" s="5"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="8"/>
     </row>
     <row r="372" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="2"/>
-      <c r="D372" s="7"/>
-      <c r="E372" s="5"/>
+      <c r="D372" s="10"/>
+      <c r="E372" s="8"/>
     </row>
     <row r="373" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="2"/>
-      <c r="D373" s="7"/>
-      <c r="E373" s="5"/>
+      <c r="D373" s="10"/>
+      <c r="E373" s="8"/>
     </row>
     <row r="374" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="2"/>
-      <c r="D374" s="7"/>
-      <c r="E374" s="5"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="8"/>
     </row>
     <row r="375" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="2"/>
-      <c r="D375" s="7"/>
-      <c r="E375" s="5"/>
+      <c r="D375" s="10"/>
+      <c r="E375" s="8"/>
     </row>
     <row r="376" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="2"/>
-      <c r="D376" s="7"/>
-      <c r="E376" s="5"/>
+      <c r="D376" s="10"/>
+      <c r="E376" s="8"/>
     </row>
     <row r="377" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="2"/>
-      <c r="D377" s="7"/>
-      <c r="E377" s="5"/>
+      <c r="D377" s="10"/>
+      <c r="E377" s="8"/>
     </row>
     <row r="378" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="2"/>
-      <c r="D378" s="7"/>
-      <c r="E378" s="5"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="8"/>
     </row>
     <row r="379" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="2"/>
-      <c r="D379" s="7"/>
-      <c r="E379" s="5"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="8"/>
     </row>
     <row r="380" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="2"/>
-      <c r="D380" s="7"/>
-      <c r="E380" s="5"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="8"/>
     </row>
     <row r="381" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="2"/>
-      <c r="D381" s="7"/>
-      <c r="E381" s="5"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="8"/>
     </row>
     <row r="382" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="2"/>
-      <c r="D382" s="7"/>
-      <c r="E382" s="5"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="8"/>
     </row>
     <row r="383" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="2"/>
-      <c r="D383" s="7"/>
-      <c r="E383" s="5"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="8"/>
     </row>
     <row r="384" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="2"/>
-      <c r="D384" s="7"/>
-      <c r="E384" s="5"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="8"/>
     </row>
     <row r="385" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="2"/>
-      <c r="D385" s="7"/>
-      <c r="E385" s="5"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="8"/>
     </row>
     <row r="386" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="2"/>
-      <c r="D386" s="7"/>
-      <c r="E386" s="5"/>
+      <c r="D386" s="10"/>
+      <c r="E386" s="8"/>
     </row>
     <row r="387" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="2"/>
-      <c r="D387" s="7"/>
-      <c r="E387" s="5"/>
+      <c r="D387" s="10"/>
+      <c r="E387" s="8"/>
     </row>
     <row r="388" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="2"/>
-      <c r="D388" s="7"/>
-      <c r="E388" s="5"/>
+      <c r="D388" s="10"/>
+      <c r="E388" s="8"/>
     </row>
     <row r="389" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="2"/>
-      <c r="D389" s="7"/>
-      <c r="E389" s="5"/>
+      <c r="D389" s="10"/>
+      <c r="E389" s="8"/>
     </row>
     <row r="390" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="2"/>
-      <c r="D390" s="7"/>
-      <c r="E390" s="5"/>
+      <c r="D390" s="10"/>
+      <c r="E390" s="8"/>
     </row>
     <row r="391" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="2"/>
-      <c r="D391" s="7"/>
-      <c r="E391" s="5"/>
+      <c r="D391" s="10"/>
+      <c r="E391" s="8"/>
     </row>
     <row r="392" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="2"/>
-      <c r="D392" s="7"/>
-      <c r="E392" s="5"/>
+      <c r="D392" s="10"/>
+      <c r="E392" s="8"/>
     </row>
     <row r="393" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="2"/>
-      <c r="D393" s="7"/>
-      <c r="E393" s="5"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="8"/>
     </row>
     <row r="394" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="2"/>
-      <c r="D394" s="7"/>
-      <c r="E394" s="5"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="8"/>
     </row>
     <row r="395" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="2"/>
-      <c r="D395" s="7"/>
-      <c r="E395" s="5"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="8"/>
     </row>
     <row r="396" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="2"/>
-      <c r="D396" s="7"/>
-      <c r="E396" s="5"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="8"/>
     </row>
     <row r="397" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="2"/>
-      <c r="D397" s="7"/>
-      <c r="E397" s="5"/>
+      <c r="D397" s="10"/>
+      <c r="E397" s="8"/>
     </row>
     <row r="398" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="2"/>
-      <c r="D398" s="7"/>
-      <c r="E398" s="5"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="8"/>
     </row>
     <row r="399" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="2"/>
-      <c r="D399" s="7"/>
-      <c r="E399" s="5"/>
+      <c r="D399" s="10"/>
+      <c r="E399" s="8"/>
     </row>
     <row r="400" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="2"/>
-      <c r="D400" s="7"/>
-      <c r="E400" s="5"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="8"/>
     </row>
     <row r="401" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="2"/>
-      <c r="D401" s="7"/>
-      <c r="E401" s="5"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="8"/>
     </row>
     <row r="402" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="2"/>
-      <c r="D402" s="7"/>
-      <c r="E402" s="5"/>
+      <c r="D402" s="10"/>
+      <c r="E402" s="8"/>
     </row>
     <row r="403" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="2"/>
-      <c r="D403" s="7"/>
-      <c r="E403" s="5"/>
+      <c r="D403" s="10"/>
+      <c r="E403" s="8"/>
     </row>
     <row r="404" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
-      <c r="D404" s="7"/>
-      <c r="E404" s="5"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="8"/>
     </row>
     <row r="405" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="2"/>
-      <c r="D405" s="7"/>
-      <c r="E405" s="5"/>
+      <c r="D405" s="10"/>
+      <c r="E405" s="8"/>
     </row>
     <row r="406" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="2"/>
-      <c r="D406" s="7"/>
-      <c r="E406" s="5"/>
+      <c r="D406" s="10"/>
+      <c r="E406" s="8"/>
     </row>
     <row r="407" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="2"/>
-      <c r="D407" s="7"/>
-      <c r="E407" s="5"/>
+      <c r="D407" s="10"/>
+      <c r="E407" s="8"/>
     </row>
     <row r="408" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="2"/>
-      <c r="D408" s="7"/>
-      <c r="E408" s="5"/>
+      <c r="D408" s="10"/>
+      <c r="E408" s="8"/>
     </row>
     <row r="409" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="2"/>
-      <c r="D409" s="7"/>
-      <c r="E409" s="5"/>
+      <c r="D409" s="10"/>
+      <c r="E409" s="8"/>
     </row>
     <row r="410" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
-      <c r="D410" s="7"/>
-      <c r="E410" s="5"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="8"/>
     </row>
     <row r="411" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="2"/>
-      <c r="D411" s="7"/>
-      <c r="E411" s="5"/>
+      <c r="D411" s="10"/>
+      <c r="E411" s="8"/>
     </row>
     <row r="412" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="2"/>
-      <c r="D412" s="7"/>
-      <c r="E412" s="5"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="8"/>
     </row>
     <row r="413" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="2"/>
-      <c r="D413" s="7"/>
-      <c r="E413" s="5"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="8"/>
     </row>
     <row r="414" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="2"/>
-      <c r="D414" s="7"/>
-      <c r="E414" s="5"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="8"/>
     </row>
     <row r="415" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="2"/>
-      <c r="D415" s="7"/>
-      <c r="E415" s="5"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="8"/>
     </row>
     <row r="416" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="2"/>
-      <c r="D416" s="7"/>
-      <c r="E416" s="5"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="8"/>
     </row>
     <row r="417" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="2"/>
-      <c r="D417" s="7"/>
-      <c r="E417" s="5"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="8"/>
     </row>
     <row r="418" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="2"/>
-      <c r="D418" s="7"/>
-      <c r="E418" s="5"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="8"/>
     </row>
     <row r="419" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="2"/>
-      <c r="D419" s="7"/>
-      <c r="E419" s="5"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="8"/>
     </row>
     <row r="420" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="2"/>
-      <c r="D420" s="7"/>
-      <c r="E420" s="5"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="8"/>
     </row>
     <row r="421" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="2"/>
-      <c r="D421" s="7"/>
-      <c r="E421" s="5"/>
+      <c r="D421" s="10"/>
+      <c r="E421" s="8"/>
     </row>
     <row r="422" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="2"/>
-      <c r="D422" s="7"/>
-      <c r="E422" s="5"/>
+      <c r="D422" s="10"/>
+      <c r="E422" s="8"/>
     </row>
     <row r="423" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="2"/>
-      <c r="D423" s="7"/>
-      <c r="E423" s="5"/>
+      <c r="D423" s="10"/>
+      <c r="E423" s="8"/>
     </row>
     <row r="424" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="2"/>
-      <c r="D424" s="7"/>
-      <c r="E424" s="5"/>
+      <c r="D424" s="10"/>
+      <c r="E424" s="8"/>
     </row>
     <row r="425" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="2"/>
-      <c r="D425" s="7"/>
-      <c r="E425" s="5"/>
+      <c r="D425" s="10"/>
+      <c r="E425" s="8"/>
     </row>
     <row r="426" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="2"/>
-      <c r="D426" s="7"/>
-      <c r="E426" s="5"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="8"/>
     </row>
     <row r="427" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="2"/>
-      <c r="D427" s="7"/>
-      <c r="E427" s="5"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="8"/>
     </row>
     <row r="428" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="2"/>
-      <c r="D428" s="7"/>
-      <c r="E428" s="5"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="8"/>
     </row>
     <row r="429" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="2"/>
-      <c r="D429" s="7"/>
-      <c r="E429" s="5"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="8"/>
     </row>
     <row r="430" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="2"/>
-      <c r="D430" s="7"/>
-      <c r="E430" s="5"/>
+      <c r="D430" s="10"/>
+      <c r="E430" s="8"/>
     </row>
     <row r="431" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="2"/>
-      <c r="D431" s="7"/>
-      <c r="E431" s="5"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="8"/>
     </row>
     <row r="432" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="2"/>
-      <c r="D432" s="7"/>
-      <c r="E432" s="5"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="8"/>
     </row>
     <row r="433" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="2"/>
-      <c r="D433" s="7"/>
-      <c r="E433" s="5"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="8"/>
     </row>
     <row r="434" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="2"/>
-      <c r="D434" s="7"/>
-      <c r="E434" s="5"/>
+      <c r="D434" s="10"/>
+      <c r="E434" s="8"/>
     </row>
     <row r="435" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="2"/>
-      <c r="D435" s="7"/>
-      <c r="E435" s="5"/>
+      <c r="D435" s="10"/>
+      <c r="E435" s="8"/>
     </row>
     <row r="436" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="2"/>
-      <c r="D436" s="7"/>
-      <c r="E436" s="5"/>
+      <c r="D436" s="10"/>
+      <c r="E436" s="8"/>
     </row>
     <row r="437" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="2"/>
-      <c r="D437" s="7"/>
-      <c r="E437" s="5"/>
+      <c r="D437" s="10"/>
+      <c r="E437" s="8"/>
     </row>
     <row r="438" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="2"/>
-      <c r="D438" s="7"/>
-      <c r="E438" s="5"/>
+      <c r="D438" s="10"/>
+      <c r="E438" s="8"/>
     </row>
     <row r="439" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="2"/>
-      <c r="D439" s="7"/>
-      <c r="E439" s="5"/>
+      <c r="D439" s="10"/>
+      <c r="E439" s="8"/>
     </row>
     <row r="440" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="2"/>
-      <c r="D440" s="7"/>
-      <c r="E440" s="5"/>
+      <c r="D440" s="10"/>
+      <c r="E440" s="8"/>
     </row>
     <row r="441" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="2"/>
-      <c r="D441" s="7"/>
-      <c r="E441" s="5"/>
+      <c r="D441" s="10"/>
+      <c r="E441" s="8"/>
     </row>
     <row r="442" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="2"/>
-      <c r="D442" s="7"/>
-      <c r="E442" s="5"/>
+      <c r="D442" s="10"/>
+      <c r="E442" s="8"/>
     </row>
     <row r="443" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="2"/>
-      <c r="D443" s="7"/>
-      <c r="E443" s="5"/>
+      <c r="D443" s="10"/>
+      <c r="E443" s="8"/>
     </row>
     <row r="444" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="2"/>
-      <c r="D444" s="7"/>
-      <c r="E444" s="5"/>
+      <c r="D444" s="10"/>
+      <c r="E444" s="8"/>
     </row>
     <row r="445" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="2"/>
-      <c r="D445" s="7"/>
-      <c r="E445" s="5"/>
+      <c r="D445" s="10"/>
+      <c r="E445" s="8"/>
     </row>
     <row r="446" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="2"/>
-      <c r="D446" s="7"/>
-      <c r="E446" s="5"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="8"/>
     </row>
     <row r="447" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="2"/>
-      <c r="D447" s="7"/>
-      <c r="E447" s="5"/>
+      <c r="D447" s="10"/>
+      <c r="E447" s="8"/>
     </row>
     <row r="448" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="2"/>
-      <c r="D448" s="7"/>
-      <c r="E448" s="5"/>
+      <c r="D448" s="10"/>
+      <c r="E448" s="8"/>
     </row>
     <row r="449" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="2"/>
-      <c r="D449" s="7"/>
-      <c r="E449" s="5"/>
+      <c r="D449" s="10"/>
+      <c r="E449" s="8"/>
     </row>
     <row r="450" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="2"/>
-      <c r="D450" s="7"/>
-      <c r="E450" s="5"/>
+      <c r="D450" s="10"/>
+      <c r="E450" s="8"/>
     </row>
     <row r="451" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="2"/>
-      <c r="D451" s="7"/>
-      <c r="E451" s="5"/>
+      <c r="D451" s="10"/>
+      <c r="E451" s="8"/>
     </row>
     <row r="452" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="2"/>
-      <c r="D452" s="7"/>
-      <c r="E452" s="5"/>
+      <c r="D452" s="10"/>
+      <c r="E452" s="8"/>
     </row>
     <row r="453" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="2"/>
-      <c r="D453" s="7"/>
-      <c r="E453" s="5"/>
+      <c r="D453" s="10"/>
+      <c r="E453" s="8"/>
     </row>
     <row r="454" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="2"/>
-      <c r="D454" s="7"/>
-      <c r="E454" s="5"/>
+      <c r="D454" s="10"/>
+      <c r="E454" s="8"/>
     </row>
     <row r="455" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="2"/>
-      <c r="D455" s="7"/>
-      <c r="E455" s="5"/>
+      <c r="D455" s="10"/>
+      <c r="E455" s="8"/>
     </row>
     <row r="456" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="2"/>
-      <c r="D456" s="7"/>
-      <c r="E456" s="5"/>
+      <c r="D456" s="10"/>
+      <c r="E456" s="8"/>
     </row>
     <row r="457" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="2"/>
-      <c r="D457" s="7"/>
-      <c r="E457" s="5"/>
+      <c r="D457" s="10"/>
+      <c r="E457" s="8"/>
     </row>
     <row r="458" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="2"/>
-      <c r="D458" s="7"/>
-      <c r="E458" s="5"/>
+      <c r="D458" s="10"/>
+      <c r="E458" s="8"/>
     </row>
     <row r="459" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="2"/>
-      <c r="D459" s="7"/>
-      <c r="E459" s="5"/>
+      <c r="D459" s="10"/>
+      <c r="E459" s="8"/>
     </row>
     <row r="460" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="2"/>
-      <c r="D460" s="7"/>
-      <c r="E460" s="5"/>
+      <c r="D460" s="10"/>
+      <c r="E460" s="8"/>
     </row>
     <row r="461" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="2"/>
-      <c r="D461" s="7"/>
-      <c r="E461" s="5"/>
+      <c r="D461" s="10"/>
+      <c r="E461" s="8"/>
     </row>
     <row r="462" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="2"/>
-      <c r="D462" s="7"/>
-      <c r="E462" s="5"/>
+      <c r="D462" s="10"/>
+      <c r="E462" s="8"/>
     </row>
     <row r="463" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="2"/>
-      <c r="D463" s="7"/>
-      <c r="E463" s="5"/>
+      <c r="D463" s="10"/>
+      <c r="E463" s="8"/>
     </row>
     <row r="464" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="2"/>
-      <c r="D464" s="7"/>
-      <c r="E464" s="5"/>
+      <c r="D464" s="10"/>
+      <c r="E464" s="8"/>
     </row>
     <row r="465" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="2"/>
-      <c r="D465" s="7"/>
-      <c r="E465" s="5"/>
+      <c r="D465" s="10"/>
+      <c r="E465" s="8"/>
     </row>
     <row r="466" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="2"/>
-      <c r="D466" s="7"/>
-      <c r="E466" s="5"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="8"/>
     </row>
     <row r="467" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="2"/>
-      <c r="D467" s="7"/>
-      <c r="E467" s="5"/>
+      <c r="D467" s="10"/>
+      <c r="E467" s="8"/>
     </row>
     <row r="468" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="2"/>
-      <c r="D468" s="7"/>
-      <c r="E468" s="5"/>
+      <c r="D468" s="10"/>
+      <c r="E468" s="8"/>
     </row>
     <row r="469" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="2"/>
-      <c r="D469" s="7"/>
-      <c r="E469" s="5"/>
+      <c r="D469" s="10"/>
+      <c r="E469" s="8"/>
     </row>
     <row r="470" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="2"/>
-      <c r="D470" s="7"/>
-      <c r="E470" s="5"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="8"/>
     </row>
     <row r="471" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="2"/>
-      <c r="D471" s="7"/>
-      <c r="E471" s="5"/>
+      <c r="D471" s="10"/>
+      <c r="E471" s="8"/>
     </row>
     <row r="472" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="2"/>
-      <c r="D472" s="7"/>
-      <c r="E472" s="5"/>
+      <c r="D472" s="10"/>
+      <c r="E472" s="8"/>
     </row>
     <row r="473" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="2"/>
-      <c r="D473" s="7"/>
-      <c r="E473" s="5"/>
+      <c r="D473" s="10"/>
+      <c r="E473" s="8"/>
     </row>
     <row r="474" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="2"/>
-      <c r="D474" s="7"/>
-      <c r="E474" s="5"/>
+      <c r="D474" s="10"/>
+      <c r="E474" s="8"/>
     </row>
     <row r="475" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="2"/>
-      <c r="D475" s="7"/>
-      <c r="E475" s="5"/>
+      <c r="D475" s="10"/>
+      <c r="E475" s="8"/>
     </row>
     <row r="476" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="2"/>
-      <c r="D476" s="7"/>
-      <c r="E476" s="5"/>
+      <c r="D476" s="10"/>
+      <c r="E476" s="8"/>
     </row>
     <row r="477" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="2"/>
-      <c r="D477" s="7"/>
-      <c r="E477" s="5"/>
+      <c r="D477" s="10"/>
+      <c r="E477" s="8"/>
     </row>
     <row r="478" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="2"/>
-      <c r="D478" s="7"/>
-      <c r="E478" s="5"/>
+      <c r="D478" s="10"/>
+      <c r="E478" s="8"/>
     </row>
     <row r="479" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="2"/>
-      <c r="D479" s="7"/>
-      <c r="E479" s="5"/>
+      <c r="D479" s="10"/>
+      <c r="E479" s="8"/>
     </row>
     <row r="480" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="2"/>
-      <c r="D480" s="7"/>
-      <c r="E480" s="5"/>
+      <c r="D480" s="10"/>
+      <c r="E480" s="8"/>
     </row>
     <row r="481" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="2"/>
-      <c r="D481" s="7"/>
-      <c r="E481" s="5"/>
+      <c r="D481" s="10"/>
+      <c r="E481" s="8"/>
     </row>
     <row r="482" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="2"/>
-      <c r="D482" s="7"/>
-      <c r="E482" s="5"/>
+      <c r="D482" s="10"/>
+      <c r="E482" s="8"/>
     </row>
     <row r="483" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="2"/>
-      <c r="D483" s="7"/>
-      <c r="E483" s="5"/>
+      <c r="D483" s="10"/>
+      <c r="E483" s="8"/>
     </row>
     <row r="484" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="2"/>
-      <c r="D484" s="7"/>
-      <c r="E484" s="5"/>
+      <c r="D484" s="10"/>
+      <c r="E484" s="8"/>
     </row>
     <row r="485" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="2"/>
-      <c r="D485" s="7"/>
-      <c r="E485" s="5"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="8"/>
     </row>
     <row r="486" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="2"/>
-      <c r="D486" s="7"/>
-      <c r="E486" s="5"/>
+      <c r="D486" s="10"/>
+      <c r="E486" s="8"/>
     </row>
     <row r="487" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="2"/>
-      <c r="D487" s="7"/>
-      <c r="E487" s="5"/>
+      <c r="D487" s="10"/>
+      <c r="E487" s="8"/>
     </row>
     <row r="488" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="2"/>
-      <c r="D488" s="7"/>
-      <c r="E488" s="5"/>
+      <c r="D488" s="10"/>
+      <c r="E488" s="8"/>
     </row>
     <row r="489" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="2"/>
-      <c r="D489" s="7"/>
-      <c r="E489" s="5"/>
+      <c r="D489" s="10"/>
+      <c r="E489" s="8"/>
     </row>
     <row r="490" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="2"/>
-      <c r="D490" s="7"/>
-      <c r="E490" s="5"/>
+      <c r="D490" s="10"/>
+      <c r="E490" s="8"/>
     </row>
     <row r="491" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="2"/>
-      <c r="D491" s="7"/>
-      <c r="E491" s="5"/>
+      <c r="D491" s="10"/>
+      <c r="E491" s="8"/>
     </row>
     <row r="492" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="2"/>
-      <c r="D492" s="7"/>
-      <c r="E492" s="5"/>
+      <c r="D492" s="10"/>
+      <c r="E492" s="8"/>
     </row>
     <row r="493" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="2"/>
-      <c r="D493" s="7"/>
-      <c r="E493" s="5"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="8"/>
     </row>
     <row r="494" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="2"/>
-      <c r="D494" s="7"/>
-      <c r="E494" s="5"/>
+      <c r="D494" s="10"/>
+      <c r="E494" s="8"/>
     </row>
     <row r="495" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="2"/>
-      <c r="D495" s="7"/>
-      <c r="E495" s="5"/>
+      <c r="D495" s="10"/>
+      <c r="E495" s="8"/>
     </row>
     <row r="496" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="2"/>
-      <c r="D496" s="7"/>
-      <c r="E496" s="5"/>
+      <c r="D496" s="10"/>
+      <c r="E496" s="8"/>
     </row>
     <row r="497" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="2"/>
-      <c r="D497" s="7"/>
-      <c r="E497" s="5"/>
+      <c r="D497" s="10"/>
+      <c r="E497" s="8"/>
     </row>
     <row r="498" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="2"/>
-      <c r="D498" s="7"/>
-      <c r="E498" s="5"/>
+      <c r="D498" s="10"/>
+      <c r="E498" s="8"/>
     </row>
     <row r="499" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="2"/>
-      <c r="D499" s="7"/>
-      <c r="E499" s="5"/>
+      <c r="D499" s="10"/>
+      <c r="E499" s="8"/>
     </row>
     <row r="500" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="2"/>
-      <c r="D500" s="7"/>
-      <c r="E500" s="5"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="8"/>
     </row>
     <row r="501" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="2"/>
-      <c r="D501" s="7"/>
-      <c r="E501" s="5"/>
+      <c r="D501" s="10"/>
+      <c r="E501" s="8"/>
     </row>
     <row r="502" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="2"/>
-      <c r="D502" s="7"/>
-      <c r="E502" s="5"/>
+      <c r="D502" s="10"/>
+      <c r="E502" s="8"/>
     </row>
     <row r="503" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="2"/>
-      <c r="D503" s="7"/>
-      <c r="E503" s="5"/>
+      <c r="D503" s="10"/>
+      <c r="E503" s="8"/>
     </row>
     <row r="504" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="2"/>
-      <c r="D504" s="7"/>
-      <c r="E504" s="5"/>
+      <c r="D504" s="10"/>
+      <c r="E504" s="8"/>
     </row>
     <row r="505" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="2"/>
-      <c r="D505" s="7"/>
-      <c r="E505" s="5"/>
+      <c r="D505" s="10"/>
+      <c r="E505" s="8"/>
     </row>
     <row r="506" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="2"/>
-      <c r="D506" s="7"/>
-      <c r="E506" s="5"/>
+      <c r="D506" s="10"/>
+      <c r="E506" s="8"/>
     </row>
     <row r="507" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="2"/>
-      <c r="D507" s="7"/>
-      <c r="E507" s="5"/>
+      <c r="D507" s="10"/>
+      <c r="E507" s="8"/>
     </row>
     <row r="508" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="2"/>
-      <c r="D508" s="7"/>
-      <c r="E508" s="5"/>
+      <c r="D508" s="10"/>
+      <c r="E508" s="8"/>
     </row>
     <row r="509" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="2"/>
-      <c r="D509" s="7"/>
-      <c r="E509" s="5"/>
+      <c r="D509" s="10"/>
+      <c r="E509" s="8"/>
     </row>
     <row r="510" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="2"/>
-      <c r="D510" s="7"/>
-      <c r="E510" s="5"/>
+      <c r="D510" s="10"/>
+      <c r="E510" s="8"/>
     </row>
     <row r="511" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="2"/>
-      <c r="D511" s="7"/>
-      <c r="E511" s="5"/>
+      <c r="D511" s="10"/>
+      <c r="E511" s="8"/>
     </row>
     <row r="512" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="2"/>
-      <c r="D512" s="7"/>
-      <c r="E512" s="5"/>
+      <c r="D512" s="10"/>
+      <c r="E512" s="8"/>
     </row>
     <row r="513" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="2"/>
-      <c r="D513" s="7"/>
-      <c r="E513" s="5"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="8"/>
     </row>
     <row r="514" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="2"/>
-      <c r="D514" s="7"/>
-      <c r="E514" s="5"/>
+      <c r="D514" s="10"/>
+      <c r="E514" s="8"/>
     </row>
     <row r="515" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="2"/>
-      <c r="D515" s="7"/>
-      <c r="E515" s="5"/>
+      <c r="D515" s="10"/>
+      <c r="E515" s="8"/>
     </row>
     <row r="516" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="2"/>
-      <c r="D516" s="7"/>
-      <c r="E516" s="5"/>
+      <c r="D516" s="10"/>
+      <c r="E516" s="8"/>
     </row>
     <row r="517" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="2"/>
-      <c r="D517" s="7"/>
-      <c r="E517" s="5"/>
+      <c r="D517" s="10"/>
+      <c r="E517" s="8"/>
     </row>
     <row r="518" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="2"/>
-      <c r="D518" s="7"/>
-      <c r="E518" s="5"/>
+      <c r="D518" s="10"/>
+      <c r="E518" s="8"/>
     </row>
     <row r="519" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="2"/>
-      <c r="D519" s="7"/>
-      <c r="E519" s="5"/>
+      <c r="D519" s="10"/>
+      <c r="E519" s="8"/>
     </row>
     <row r="520" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="2"/>
-      <c r="D520" s="7"/>
-      <c r="E520" s="5"/>
+      <c r="D520" s="10"/>
+      <c r="E520" s="8"/>
     </row>
     <row r="521" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="2"/>
-      <c r="D521" s="7"/>
-      <c r="E521" s="5"/>
+      <c r="D521" s="10"/>
+      <c r="E521" s="8"/>
     </row>
     <row r="522" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="2"/>
-      <c r="D522" s="7"/>
-      <c r="E522" s="5"/>
+      <c r="D522" s="10"/>
+      <c r="E522" s="8"/>
     </row>
     <row r="523" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="2"/>
-      <c r="D523" s="7"/>
-      <c r="E523" s="5"/>
+      <c r="D523" s="10"/>
+      <c r="E523" s="8"/>
     </row>
     <row r="524" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="2"/>
-      <c r="D524" s="7"/>
-      <c r="E524" s="5"/>
+      <c r="D524" s="10"/>
+      <c r="E524" s="8"/>
     </row>
     <row r="525" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="2"/>
-      <c r="D525" s="7"/>
-      <c r="E525" s="5"/>
+      <c r="D525" s="10"/>
+      <c r="E525" s="8"/>
     </row>
     <row r="526" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="2"/>
-      <c r="D526" s="7"/>
-      <c r="E526" s="5"/>
+      <c r="D526" s="10"/>
+      <c r="E526" s="8"/>
     </row>
     <row r="527" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="2"/>
-      <c r="D527" s="7"/>
-      <c r="E527" s="5"/>
+      <c r="D527" s="10"/>
+      <c r="E527" s="8"/>
     </row>
     <row r="528" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="2"/>
-      <c r="D528" s="7"/>
-      <c r="E528" s="5"/>
+      <c r="D528" s="10"/>
+      <c r="E528" s="8"/>
     </row>
     <row r="529" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="2"/>
-      <c r="D529" s="7"/>
-      <c r="E529" s="5"/>
+      <c r="D529" s="10"/>
+      <c r="E529" s="8"/>
     </row>
     <row r="530" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="2"/>
-      <c r="D530" s="7"/>
-      <c r="E530" s="5"/>
+      <c r="D530" s="10"/>
+      <c r="E530" s="8"/>
     </row>
     <row r="531" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="2"/>
-      <c r="D531" s="7"/>
-      <c r="E531" s="5"/>
+      <c r="D531" s="10"/>
+      <c r="E531" s="8"/>
     </row>
     <row r="532" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="2"/>
-      <c r="D532" s="7"/>
-      <c r="E532" s="5"/>
+      <c r="D532" s="10"/>
+      <c r="E532" s="8"/>
     </row>
     <row r="533" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="2"/>
-      <c r="D533" s="7"/>
-      <c r="E533" s="5"/>
+      <c r="D533" s="10"/>
+      <c r="E533" s="8"/>
     </row>
     <row r="534" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="2"/>
-      <c r="D534" s="7"/>
-      <c r="E534" s="5"/>
+      <c r="D534" s="10"/>
+      <c r="E534" s="8"/>
     </row>
     <row r="535" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="2"/>
-      <c r="D535" s="7"/>
-      <c r="E535" s="5"/>
+      <c r="D535" s="10"/>
+      <c r="E535" s="8"/>
     </row>
     <row r="536" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="2"/>
-      <c r="D536" s="7"/>
-      <c r="E536" s="5"/>
+      <c r="D536" s="10"/>
+      <c r="E536" s="8"/>
     </row>
     <row r="537" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="2"/>
-      <c r="D537" s="7"/>
-      <c r="E537" s="5"/>
+      <c r="D537" s="10"/>
+      <c r="E537" s="8"/>
     </row>
     <row r="538" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="2"/>
-      <c r="D538" s="7"/>
-      <c r="E538" s="5"/>
+      <c r="D538" s="10"/>
+      <c r="E538" s="8"/>
     </row>
     <row r="539" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="2"/>
-      <c r="D539" s="7"/>
-      <c r="E539" s="5"/>
+      <c r="D539" s="10"/>
+      <c r="E539" s="8"/>
     </row>
     <row r="540" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="2"/>
-      <c r="D540" s="7"/>
-      <c r="E540" s="5"/>
+      <c r="D540" s="10"/>
+      <c r="E540" s="8"/>
     </row>
     <row r="541" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="2"/>
-      <c r="D541" s="7"/>
-      <c r="E541" s="5"/>
+      <c r="D541" s="10"/>
+      <c r="E541" s="8"/>
     </row>
     <row r="542" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="2"/>
-      <c r="D542" s="7"/>
-      <c r="E542" s="5"/>
+      <c r="D542" s="10"/>
+      <c r="E542" s="8"/>
     </row>
     <row r="543" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="2"/>
-      <c r="D543" s="7"/>
-      <c r="E543" s="5"/>
+      <c r="D543" s="10"/>
+      <c r="E543" s="8"/>
     </row>
     <row r="544" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="2"/>
-      <c r="D544" s="7"/>
-      <c r="E544" s="5"/>
+      <c r="D544" s="10"/>
+      <c r="E544" s="8"/>
     </row>
     <row r="545" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="2"/>
-      <c r="D545" s="7"/>
-      <c r="E545" s="5"/>
+      <c r="D545" s="10"/>
+      <c r="E545" s="8"/>
     </row>
     <row r="546" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="2"/>
-      <c r="D546" s="7"/>
-      <c r="E546" s="5"/>
+      <c r="D546" s="10"/>
+      <c r="E546" s="8"/>
     </row>
     <row r="547" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="2"/>
-      <c r="D547" s="7"/>
-      <c r="E547" s="5"/>
+      <c r="D547" s="10"/>
+      <c r="E547" s="8"/>
     </row>
     <row r="548" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="2"/>
-      <c r="D548" s="7"/>
-      <c r="E548" s="5"/>
+      <c r="D548" s="10"/>
+      <c r="E548" s="8"/>
     </row>
     <row r="549" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="2"/>
-      <c r="D549" s="7"/>
-      <c r="E549" s="5"/>
+      <c r="D549" s="10"/>
+      <c r="E549" s="8"/>
     </row>
     <row r="550" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="2"/>
-      <c r="D550" s="7"/>
-      <c r="E550" s="5"/>
+      <c r="D550" s="10"/>
+      <c r="E550" s="8"/>
     </row>
     <row r="551" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="2"/>
-      <c r="D551" s="7"/>
-      <c r="E551" s="5"/>
+      <c r="D551" s="10"/>
+      <c r="E551" s="8"/>
     </row>
     <row r="552" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="2"/>
-      <c r="D552" s="7"/>
-      <c r="E552" s="5"/>
+      <c r="D552" s="10"/>
+      <c r="E552" s="8"/>
     </row>
     <row r="553" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="2"/>
-      <c r="D553" s="7"/>
-      <c r="E553" s="5"/>
+      <c r="D553" s="10"/>
+      <c r="E553" s="8"/>
     </row>
     <row r="554" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="2"/>
-      <c r="D554" s="7"/>
-      <c r="E554" s="5"/>
+      <c r="D554" s="10"/>
+      <c r="E554" s="8"/>
     </row>
     <row r="555" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="2"/>
-      <c r="D555" s="7"/>
-      <c r="E555" s="5"/>
+      <c r="D555" s="10"/>
+      <c r="E555" s="8"/>
     </row>
     <row r="556" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="2"/>
-      <c r="D556" s="7"/>
-      <c r="E556" s="5"/>
+      <c r="D556" s="10"/>
+      <c r="E556" s="8"/>
     </row>
     <row r="557" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="2"/>
-      <c r="D557" s="7"/>
-      <c r="E557" s="5"/>
+      <c r="D557" s="10"/>
+      <c r="E557" s="8"/>
     </row>
     <row r="558" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="2"/>
-      <c r="D558" s="7"/>
-      <c r="E558" s="5"/>
+      <c r="D558" s="10"/>
+      <c r="E558" s="8"/>
     </row>
     <row r="559" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="2"/>
-      <c r="D559" s="7"/>
-      <c r="E559" s="5"/>
+      <c r="D559" s="10"/>
+      <c r="E559" s="8"/>
     </row>
     <row r="560" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="2"/>
-      <c r="D560" s="7"/>
-      <c r="E560" s="5"/>
+      <c r="D560" s="10"/>
+      <c r="E560" s="8"/>
     </row>
     <row r="561" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="2"/>
-      <c r="D561" s="7"/>
-      <c r="E561" s="5"/>
+      <c r="D561" s="10"/>
+      <c r="E561" s="8"/>
     </row>
     <row r="562" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="2"/>
-      <c r="D562" s="7"/>
-      <c r="E562" s="5"/>
+      <c r="D562" s="10"/>
+      <c r="E562" s="8"/>
     </row>
     <row r="563" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="2"/>
-      <c r="D563" s="7"/>
-      <c r="E563" s="5"/>
+      <c r="D563" s="10"/>
+      <c r="E563" s="8"/>
     </row>
     <row r="564" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="2"/>
-      <c r="D564" s="7"/>
-      <c r="E564" s="5"/>
+      <c r="D564" s="10"/>
+      <c r="E564" s="8"/>
     </row>
     <row r="565" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="2"/>
-      <c r="D565" s="7"/>
-      <c r="E565" s="5"/>
+      <c r="D565" s="10"/>
+      <c r="E565" s="8"/>
     </row>
     <row r="566" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="2"/>
-      <c r="D566" s="7"/>
-      <c r="E566" s="5"/>
+      <c r="D566" s="10"/>
+      <c r="E566" s="8"/>
     </row>
     <row r="567" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="2"/>
-      <c r="D567" s="7"/>
-      <c r="E567" s="5"/>
+      <c r="D567" s="10"/>
+      <c r="E567" s="8"/>
     </row>
     <row r="568" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="2"/>
-      <c r="D568" s="7"/>
-      <c r="E568" s="5"/>
+      <c r="D568" s="10"/>
+      <c r="E568" s="8"/>
     </row>
     <row r="569" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="2"/>
-      <c r="D569" s="7"/>
-      <c r="E569" s="5"/>
+      <c r="D569" s="10"/>
+      <c r="E569" s="8"/>
     </row>
     <row r="570" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="2"/>
-      <c r="D570" s="7"/>
-      <c r="E570" s="5"/>
+      <c r="D570" s="10"/>
+      <c r="E570" s="8"/>
     </row>
     <row r="571" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="2"/>
-      <c r="D571" s="7"/>
-      <c r="E571" s="5"/>
+      <c r="D571" s="10"/>
+      <c r="E571" s="8"/>
     </row>
     <row r="572" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="2"/>
-      <c r="D572" s="7"/>
-      <c r="E572" s="5"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="8"/>
     </row>
     <row r="573" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="2"/>
-      <c r="D573" s="7"/>
-      <c r="E573" s="5"/>
+      <c r="D573" s="10"/>
+      <c r="E573" s="8"/>
     </row>
     <row r="574" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="2"/>
-      <c r="D574" s="7"/>
-      <c r="E574" s="5"/>
+      <c r="D574" s="10"/>
+      <c r="E574" s="8"/>
     </row>
     <row r="575" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="2"/>
-      <c r="D575" s="7"/>
-      <c r="E575" s="5"/>
+      <c r="D575" s="10"/>
+      <c r="E575" s="8"/>
     </row>
     <row r="576" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="2"/>
-      <c r="D576" s="7"/>
-      <c r="E576" s="5"/>
+      <c r="D576" s="10"/>
+      <c r="E576" s="8"/>
     </row>
     <row r="577" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="2"/>
-      <c r="D577" s="7"/>
-      <c r="E577" s="5"/>
+      <c r="D577" s="10"/>
+      <c r="E577" s="8"/>
     </row>
     <row r="578" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="2"/>
-      <c r="D578" s="7"/>
-      <c r="E578" s="5"/>
+      <c r="D578" s="10"/>
+      <c r="E578" s="8"/>
     </row>
     <row r="579" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="2"/>
-      <c r="D579" s="7"/>
-      <c r="E579" s="5"/>
+      <c r="D579" s="10"/>
+      <c r="E579" s="8"/>
     </row>
     <row r="580" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="2"/>
-      <c r="D580" s="7"/>
-      <c r="E580" s="5"/>
+      <c r="D580" s="10"/>
+      <c r="E580" s="8"/>
     </row>
     <row r="581" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="2"/>
-      <c r="D581" s="7"/>
-      <c r="E581" s="5"/>
+      <c r="D581" s="10"/>
+      <c r="E581" s="8"/>
     </row>
     <row r="582" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="2"/>
-      <c r="D582" s="7"/>
-      <c r="E582" s="5"/>
+      <c r="D582" s="10"/>
+      <c r="E582" s="8"/>
     </row>
     <row r="583" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="2"/>
-      <c r="D583" s="7"/>
-      <c r="E583" s="5"/>
+      <c r="D583" s="10"/>
+      <c r="E583" s="8"/>
     </row>
     <row r="584" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="2"/>
-      <c r="D584" s="7"/>
-      <c r="E584" s="5"/>
+      <c r="D584" s="10"/>
+      <c r="E584" s="8"/>
     </row>
     <row r="585" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="2"/>
-      <c r="D585" s="7"/>
-      <c r="E585" s="5"/>
+      <c r="D585" s="10"/>
+      <c r="E585" s="8"/>
     </row>
     <row r="586" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="2"/>
-      <c r="D586" s="7"/>
-      <c r="E586" s="5"/>
+      <c r="D586" s="10"/>
+      <c r="E586" s="8"/>
     </row>
     <row r="587" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="2"/>
-      <c r="D587" s="7"/>
-      <c r="E587" s="5"/>
+      <c r="D587" s="10"/>
+      <c r="E587" s="8"/>
     </row>
     <row r="588" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="2"/>
-      <c r="D588" s="7"/>
-      <c r="E588" s="5"/>
+      <c r="D588" s="10"/>
+      <c r="E588" s="8"/>
     </row>
     <row r="589" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="2"/>
-      <c r="D589" s="7"/>
-      <c r="E589" s="5"/>
+      <c r="D589" s="10"/>
+      <c r="E589" s="8"/>
     </row>
     <row r="590" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2"/>
-      <c r="D590" s="7"/>
-      <c r="E590" s="5"/>
+      <c r="D590" s="10"/>
+      <c r="E590" s="8"/>
     </row>
     <row r="591" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="2"/>
-      <c r="D591" s="7"/>
-      <c r="E591" s="5"/>
+      <c r="D591" s="10"/>
+      <c r="E591" s="8"/>
     </row>
     <row r="592" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="2"/>
-      <c r="D592" s="7"/>
-      <c r="E592" s="5"/>
+      <c r="D592" s="10"/>
+      <c r="E592" s="8"/>
     </row>
     <row r="593" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="2"/>
-      <c r="D593" s="7"/>
-      <c r="E593" s="5"/>
+      <c r="D593" s="10"/>
+      <c r="E593" s="8"/>
     </row>
     <row r="594" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="2"/>
-      <c r="D594" s="7"/>
-      <c r="E594" s="5"/>
+      <c r="D594" s="10"/>
+      <c r="E594" s="8"/>
     </row>
     <row r="595" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="2"/>
-      <c r="D595" s="7"/>
-      <c r="E595" s="5"/>
+      <c r="D595" s="10"/>
+      <c r="E595" s="8"/>
     </row>
     <row r="596" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="2"/>
-      <c r="D596" s="7"/>
-      <c r="E596" s="5"/>
+      <c r="D596" s="10"/>
+      <c r="E596" s="8"/>
     </row>
     <row r="597" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="2"/>
-      <c r="D597" s="7"/>
-      <c r="E597" s="5"/>
+      <c r="D597" s="10"/>
+      <c r="E597" s="8"/>
     </row>
     <row r="598" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="2"/>
-      <c r="D598" s="7"/>
-      <c r="E598" s="5"/>
+      <c r="D598" s="10"/>
+      <c r="E598" s="8"/>
     </row>
     <row r="599" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="2"/>
-      <c r="D599" s="7"/>
-      <c r="E599" s="5"/>
+      <c r="D599" s="10"/>
+      <c r="E599" s="8"/>
     </row>
     <row r="600" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="2"/>
-      <c r="D600" s="7"/>
-      <c r="E600" s="5"/>
+      <c r="D600" s="10"/>
+      <c r="E600" s="8"/>
     </row>
     <row r="601" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="2"/>
-      <c r="D601" s="7"/>
-      <c r="E601" s="5"/>
+      <c r="D601" s="10"/>
+      <c r="E601" s="8"/>
     </row>
     <row r="602" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="2"/>
-      <c r="D602" s="7"/>
-      <c r="E602" s="5"/>
+      <c r="D602" s="10"/>
+      <c r="E602" s="8"/>
     </row>
     <row r="603" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="2"/>
-      <c r="D603" s="7"/>
-      <c r="E603" s="5"/>
+      <c r="D603" s="10"/>
+      <c r="E603" s="8"/>
     </row>
     <row r="604" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="2"/>
-      <c r="D604" s="7"/>
-      <c r="E604" s="5"/>
+      <c r="D604" s="10"/>
+      <c r="E604" s="8"/>
     </row>
     <row r="605" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="2"/>
-      <c r="D605" s="7"/>
-      <c r="E605" s="5"/>
+      <c r="D605" s="10"/>
+      <c r="E605" s="8"/>
     </row>
     <row r="606" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="2"/>
-      <c r="D606" s="7"/>
-      <c r="E606" s="5"/>
+      <c r="D606" s="10"/>
+      <c r="E606" s="8"/>
     </row>
     <row r="607" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="2"/>
-      <c r="D607" s="7"/>
-      <c r="E607" s="5"/>
+      <c r="D607" s="10"/>
+      <c r="E607" s="8"/>
     </row>
     <row r="608" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="2"/>
-      <c r="D608" s="7"/>
-      <c r="E608" s="5"/>
+      <c r="D608" s="10"/>
+      <c r="E608" s="8"/>
     </row>
     <row r="609" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="2"/>
-      <c r="D609" s="7"/>
-      <c r="E609" s="5"/>
+      <c r="D609" s="10"/>
+      <c r="E609" s="8"/>
     </row>
     <row r="610" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="2"/>
-      <c r="D610" s="7"/>
-      <c r="E610" s="5"/>
+      <c r="D610" s="10"/>
+      <c r="E610" s="8"/>
     </row>
     <row r="611" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="2"/>
-      <c r="D611" s="7"/>
-      <c r="E611" s="5"/>
+      <c r="D611" s="10"/>
+      <c r="E611" s="8"/>
     </row>
     <row r="612" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="2"/>
-      <c r="D612" s="7"/>
-      <c r="E612" s="5"/>
+      <c r="D612" s="10"/>
+      <c r="E612" s="8"/>
     </row>
     <row r="613" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="2"/>
-      <c r="D613" s="7"/>
-      <c r="E613" s="5"/>
+      <c r="D613" s="10"/>
+      <c r="E613" s="8"/>
     </row>
     <row r="614" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="2"/>
-      <c r="D614" s="7"/>
-      <c r="E614" s="5"/>
+      <c r="D614" s="10"/>
+      <c r="E614" s="8"/>
     </row>
     <row r="615" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="2"/>
-      <c r="D615" s="7"/>
-      <c r="E615" s="5"/>
+      <c r="D615" s="10"/>
+      <c r="E615" s="8"/>
     </row>
     <row r="616" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="2"/>
-      <c r="D616" s="7"/>
-      <c r="E616" s="5"/>
+      <c r="D616" s="10"/>
+      <c r="E616" s="8"/>
     </row>
     <row r="617" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="2"/>
-      <c r="D617" s="7"/>
-      <c r="E617" s="5"/>
+      <c r="D617" s="10"/>
+      <c r="E617" s="8"/>
     </row>
     <row r="618" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="2"/>
-      <c r="D618" s="7"/>
-      <c r="E618" s="5"/>
+      <c r="D618" s="10"/>
+      <c r="E618" s="8"/>
     </row>
     <row r="619" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="2"/>
-      <c r="D619" s="7"/>
-      <c r="E619" s="5"/>
+      <c r="D619" s="10"/>
+      <c r="E619" s="8"/>
     </row>
     <row r="620" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="2"/>
-      <c r="D620" s="7"/>
-      <c r="E620" s="5"/>
+      <c r="D620" s="10"/>
+      <c r="E620" s="8"/>
     </row>
     <row r="621" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="2"/>
-      <c r="D621" s="7"/>
-      <c r="E621" s="5"/>
+      <c r="D621" s="10"/>
+      <c r="E621" s="8"/>
     </row>
     <row r="622" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="2"/>
-      <c r="D622" s="7"/>
-      <c r="E622" s="5"/>
+      <c r="D622" s="10"/>
+      <c r="E622" s="8"/>
     </row>
     <row r="623" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="2"/>
-      <c r="D623" s="7"/>
-      <c r="E623" s="5"/>
+      <c r="D623" s="10"/>
+      <c r="E623" s="8"/>
     </row>
     <row r="624" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="2"/>
-      <c r="D624" s="7"/>
-      <c r="E624" s="5"/>
+      <c r="D624" s="10"/>
+      <c r="E624" s="8"/>
     </row>
     <row r="625" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="2"/>
-      <c r="D625" s="7"/>
-      <c r="E625" s="5"/>
+      <c r="D625" s="10"/>
+      <c r="E625" s="8"/>
     </row>
     <row r="626" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="2"/>
-      <c r="D626" s="7"/>
-      <c r="E626" s="5"/>
+      <c r="D626" s="10"/>
+      <c r="E626" s="8"/>
     </row>
     <row r="627" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="2"/>
-      <c r="D627" s="7"/>
-      <c r="E627" s="5"/>
+      <c r="D627" s="10"/>
+      <c r="E627" s="8"/>
     </row>
     <row r="628" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="2"/>
-      <c r="D628" s="7"/>
-      <c r="E628" s="5"/>
+      <c r="D628" s="10"/>
+      <c r="E628" s="8"/>
     </row>
     <row r="629" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="2"/>
-      <c r="D629" s="7"/>
-      <c r="E629" s="5"/>
+      <c r="D629" s="10"/>
+      <c r="E629" s="8"/>
     </row>
     <row r="630" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
-      <c r="D630" s="7"/>
-      <c r="E630" s="5"/>
+      <c r="D630" s="10"/>
+      <c r="E630" s="8"/>
     </row>
     <row r="631" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="2"/>
-      <c r="D631" s="7"/>
-      <c r="E631" s="5"/>
+      <c r="D631" s="10"/>
+      <c r="E631" s="8"/>
     </row>
     <row r="632" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="2"/>
-      <c r="D632" s="7"/>
-      <c r="E632" s="5"/>
+      <c r="D632" s="10"/>
+      <c r="E632" s="8"/>
     </row>
     <row r="633" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="2"/>
-      <c r="D633" s="7"/>
-      <c r="E633" s="5"/>
+      <c r="D633" s="10"/>
+      <c r="E633" s="8"/>
     </row>
     <row r="634" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
-      <c r="D634" s="7"/>
-      <c r="E634" s="5"/>
+      <c r="D634" s="10"/>
+      <c r="E634" s="8"/>
     </row>
     <row r="635" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="2"/>
-      <c r="D635" s="7"/>
-      <c r="E635" s="5"/>
+      <c r="D635" s="10"/>
+      <c r="E635" s="8"/>
     </row>
     <row r="636" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="2"/>
-      <c r="D636" s="7"/>
-      <c r="E636" s="5"/>
+      <c r="D636" s="10"/>
+      <c r="E636" s="8"/>
     </row>
     <row r="637" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="2"/>
-      <c r="D637" s="7"/>
-      <c r="E637" s="5"/>
+      <c r="D637" s="10"/>
+      <c r="E637" s="8"/>
     </row>
     <row r="638" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="2"/>
-      <c r="D638" s="7"/>
-      <c r="E638" s="5"/>
+      <c r="D638" s="10"/>
+      <c r="E638" s="8"/>
     </row>
     <row r="639" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="2"/>
-      <c r="D639" s="7"/>
-      <c r="E639" s="5"/>
+      <c r="D639" s="10"/>
+      <c r="E639" s="8"/>
     </row>
     <row r="640" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="2"/>
-      <c r="D640" s="7"/>
-      <c r="E640" s="5"/>
+      <c r="D640" s="10"/>
+      <c r="E640" s="8"/>
     </row>
     <row r="641" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="2"/>
-      <c r="D641" s="7"/>
-      <c r="E641" s="5"/>
+      <c r="D641" s="10"/>
+      <c r="E641" s="8"/>
     </row>
     <row r="642" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="2"/>
-      <c r="D642" s="7"/>
-      <c r="E642" s="5"/>
+      <c r="D642" s="10"/>
+      <c r="E642" s="8"/>
     </row>
     <row r="643" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="2"/>
-      <c r="D643" s="7"/>
-      <c r="E643" s="5"/>
+      <c r="D643" s="10"/>
+      <c r="E643" s="8"/>
     </row>
     <row r="644" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="2"/>
-      <c r="D644" s="7"/>
-      <c r="E644" s="5"/>
+      <c r="D644" s="10"/>
+      <c r="E644" s="8"/>
     </row>
     <row r="645" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="2"/>
-      <c r="D645" s="7"/>
-      <c r="E645" s="5"/>
+      <c r="D645" s="10"/>
+      <c r="E645" s="8"/>
     </row>
     <row r="646" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="2"/>
-      <c r="D646" s="7"/>
-      <c r="E646" s="5"/>
+      <c r="D646" s="10"/>
+      <c r="E646" s="8"/>
     </row>
     <row r="647" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="2"/>
-      <c r="D647" s="7"/>
-      <c r="E647" s="5"/>
+      <c r="D647" s="10"/>
+      <c r="E647" s="8"/>
     </row>
     <row r="648" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="2"/>
-      <c r="D648" s="7"/>
-      <c r="E648" s="5"/>
+      <c r="D648" s="10"/>
+      <c r="E648" s="8"/>
     </row>
     <row r="649" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="2"/>
-      <c r="D649" s="7"/>
-      <c r="E649" s="5"/>
+      <c r="D649" s="10"/>
+      <c r="E649" s="8"/>
     </row>
     <row r="650" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="2"/>
-      <c r="D650" s="7"/>
-      <c r="E650" s="5"/>
+      <c r="D650" s="10"/>
+      <c r="E650" s="8"/>
     </row>
     <row r="651" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="2"/>
-      <c r="D651" s="7"/>
-      <c r="E651" s="5"/>
+      <c r="D651" s="10"/>
+      <c r="E651" s="8"/>
     </row>
     <row r="652" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="2"/>
-      <c r="D652" s="7"/>
-      <c r="E652" s="5"/>
+      <c r="D652" s="10"/>
+      <c r="E652" s="8"/>
     </row>
     <row r="653" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="2"/>
-      <c r="D653" s="7"/>
-      <c r="E653" s="5"/>
+      <c r="D653" s="10"/>
+      <c r="E653" s="8"/>
     </row>
     <row r="654" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="2"/>
-      <c r="D654" s="7"/>
-      <c r="E654" s="5"/>
+      <c r="D654" s="10"/>
+      <c r="E654" s="8"/>
     </row>
     <row r="655" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="2"/>
-      <c r="D655" s="7"/>
-      <c r="E655" s="5"/>
+      <c r="D655" s="10"/>
+      <c r="E655" s="8"/>
     </row>
     <row r="656" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="2"/>
-      <c r="D656" s="7"/>
-      <c r="E656" s="5"/>
+      <c r="D656" s="10"/>
+      <c r="E656" s="8"/>
     </row>
     <row r="657" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="2"/>
-      <c r="D657" s="7"/>
-      <c r="E657" s="5"/>
+      <c r="D657" s="10"/>
+      <c r="E657" s="8"/>
     </row>
     <row r="658" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="2"/>
-      <c r="D658" s="7"/>
-      <c r="E658" s="5"/>
+      <c r="D658" s="10"/>
+      <c r="E658" s="8"/>
     </row>
     <row r="659" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="2"/>
-      <c r="D659" s="7"/>
-      <c r="E659" s="5"/>
+      <c r="D659" s="10"/>
+      <c r="E659" s="8"/>
     </row>
     <row r="660" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="2"/>
-      <c r="D660" s="7"/>
-      <c r="E660" s="5"/>
+      <c r="D660" s="10"/>
+      <c r="E660" s="8"/>
     </row>
     <row r="661" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="2"/>
-      <c r="D661" s="7"/>
-      <c r="E661" s="5"/>
+      <c r="D661" s="10"/>
+      <c r="E661" s="8"/>
     </row>
     <row r="662" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="2"/>
-      <c r="D662" s="7"/>
-      <c r="E662" s="5"/>
+      <c r="D662" s="10"/>
+      <c r="E662" s="8"/>
     </row>
     <row r="663" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="2"/>
-      <c r="D663" s="7"/>
-      <c r="E663" s="5"/>
+      <c r="D663" s="10"/>
+      <c r="E663" s="8"/>
     </row>
     <row r="664" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="2"/>
-      <c r="D664" s="7"/>
-      <c r="E664" s="5"/>
+      <c r="D664" s="10"/>
+      <c r="E664" s="8"/>
     </row>
     <row r="665" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="2"/>
-      <c r="D665" s="7"/>
-      <c r="E665" s="5"/>
+      <c r="D665" s="10"/>
+      <c r="E665" s="8"/>
     </row>
     <row r="666" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="2"/>
-      <c r="D666" s="7"/>
-      <c r="E666" s="5"/>
+      <c r="D666" s="10"/>
+      <c r="E666" s="8"/>
     </row>
     <row r="667" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="2"/>
-      <c r="D667" s="7"/>
-      <c r="E667" s="5"/>
+      <c r="D667" s="10"/>
+      <c r="E667" s="8"/>
     </row>
     <row r="668" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="2"/>
-      <c r="D668" s="7"/>
-      <c r="E668" s="5"/>
+      <c r="D668" s="10"/>
+      <c r="E668" s="8"/>
     </row>
     <row r="669" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="2"/>
-      <c r="D669" s="7"/>
-      <c r="E669" s="5"/>
+      <c r="D669" s="10"/>
+      <c r="E669" s="8"/>
     </row>
     <row r="670" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="2"/>
-      <c r="D670" s="7"/>
-      <c r="E670" s="5"/>
+      <c r="D670" s="10"/>
+      <c r="E670" s="8"/>
     </row>
     <row r="671" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="2"/>
-      <c r="D671" s="7"/>
-      <c r="E671" s="5"/>
+      <c r="D671" s="10"/>
+      <c r="E671" s="8"/>
     </row>
     <row r="672" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="2"/>
-      <c r="D672" s="7"/>
-      <c r="E672" s="5"/>
+      <c r="D672" s="10"/>
+      <c r="E672" s="8"/>
     </row>
     <row r="673" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="2"/>
-      <c r="D673" s="7"/>
-      <c r="E673" s="5"/>
+      <c r="D673" s="10"/>
+      <c r="E673" s="8"/>
     </row>
     <row r="674" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="2"/>
-      <c r="D674" s="7"/>
-      <c r="E674" s="5"/>
+      <c r="D674" s="10"/>
+      <c r="E674" s="8"/>
     </row>
     <row r="675" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="2"/>
-      <c r="D675" s="7"/>
-      <c r="E675" s="5"/>
+      <c r="D675" s="10"/>
+      <c r="E675" s="8"/>
     </row>
     <row r="676" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="2"/>
-      <c r="D676" s="7"/>
-      <c r="E676" s="5"/>
+      <c r="D676" s="10"/>
+      <c r="E676" s="8"/>
     </row>
     <row r="677" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="2"/>
-      <c r="D677" s="7"/>
-      <c r="E677" s="5"/>
+      <c r="D677" s="10"/>
+      <c r="E677" s="8"/>
     </row>
     <row r="678" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="2"/>
-      <c r="D678" s="7"/>
-      <c r="E678" s="5"/>
+      <c r="D678" s="10"/>
+      <c r="E678" s="8"/>
     </row>
     <row r="679" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="2"/>
-      <c r="D679" s="7"/>
-      <c r="E679" s="5"/>
+      <c r="D679" s="10"/>
+      <c r="E679" s="8"/>
     </row>
     <row r="680" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="2"/>
-      <c r="D680" s="7"/>
-      <c r="E680" s="5"/>
+      <c r="D680" s="10"/>
+      <c r="E680" s="8"/>
     </row>
     <row r="681" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="2"/>
-      <c r="D681" s="7"/>
-      <c r="E681" s="5"/>
+      <c r="D681" s="10"/>
+      <c r="E681" s="8"/>
     </row>
     <row r="682" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="2"/>
-      <c r="D682" s="7"/>
-      <c r="E682" s="5"/>
+      <c r="D682" s="10"/>
+      <c r="E682" s="8"/>
     </row>
     <row r="683" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="2"/>
-      <c r="D683" s="7"/>
-      <c r="E683" s="5"/>
+      <c r="D683" s="10"/>
+      <c r="E683" s="8"/>
     </row>
     <row r="684" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="2"/>
-      <c r="D684" s="7"/>
-      <c r="E684" s="5"/>
+      <c r="D684" s="10"/>
+      <c r="E684" s="8"/>
     </row>
     <row r="685" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="2"/>
-      <c r="D685" s="7"/>
-      <c r="E685" s="5"/>
+      <c r="D685" s="10"/>
+      <c r="E685" s="8"/>
     </row>
     <row r="686" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="2"/>
-      <c r="D686" s="7"/>
-      <c r="E686" s="5"/>
+      <c r="D686" s="10"/>
+      <c r="E686" s="8"/>
     </row>
     <row r="687" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="2"/>
-      <c r="D687" s="7"/>
-      <c r="E687" s="5"/>
+      <c r="D687" s="10"/>
+      <c r="E687" s="8"/>
     </row>
     <row r="688" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="2"/>
-      <c r="D688" s="7"/>
-      <c r="E688" s="5"/>
+      <c r="D688" s="10"/>
+      <c r="E688" s="8"/>
     </row>
     <row r="689" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="2"/>
-      <c r="D689" s="7"/>
-      <c r="E689" s="5"/>
+      <c r="D689" s="10"/>
+      <c r="E689" s="8"/>
     </row>
     <row r="690" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="2"/>
-      <c r="D690" s="7"/>
-      <c r="E690" s="5"/>
+      <c r="D690" s="10"/>
+      <c r="E690" s="8"/>
     </row>
     <row r="691" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="2"/>
-      <c r="D691" s="7"/>
-      <c r="E691" s="5"/>
+      <c r="D691" s="10"/>
+      <c r="E691" s="8"/>
     </row>
     <row r="692" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="2"/>
-      <c r="D692" s="7"/>
-      <c r="E692" s="5"/>
+      <c r="D692" s="10"/>
+      <c r="E692" s="8"/>
     </row>
     <row r="693" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="2"/>
-      <c r="D693" s="7"/>
-      <c r="E693" s="5"/>
+      <c r="D693" s="10"/>
+      <c r="E693" s="8"/>
     </row>
     <row r="694" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="2"/>
-      <c r="D694" s="7"/>
-      <c r="E694" s="5"/>
+      <c r="D694" s="10"/>
+      <c r="E694" s="8"/>
     </row>
     <row r="695" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="2"/>
-      <c r="D695" s="7"/>
-      <c r="E695" s="5"/>
+      <c r="D695" s="10"/>
+      <c r="E695" s="8"/>
     </row>
     <row r="696" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="2"/>
-      <c r="D696" s="7"/>
-      <c r="E696" s="5"/>
+      <c r="D696" s="10"/>
+      <c r="E696" s="8"/>
     </row>
     <row r="697" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="2"/>
-      <c r="D697" s="7"/>
-      <c r="E697" s="5"/>
+      <c r="D697" s="10"/>
+      <c r="E697" s="8"/>
     </row>
     <row r="698" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="2"/>
-      <c r="D698" s="7"/>
-      <c r="E698" s="5"/>
+      <c r="D698" s="10"/>
+      <c r="E698" s="8"/>
     </row>
     <row r="699" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="2"/>
-      <c r="D699" s="7"/>
-      <c r="E699" s="5"/>
+      <c r="D699" s="10"/>
+      <c r="E699" s="8"/>
     </row>
     <row r="700" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="2"/>
-      <c r="D700" s="7"/>
-      <c r="E700" s="5"/>
+      <c r="D700" s="10"/>
+      <c r="E700" s="8"/>
     </row>
     <row r="701" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="2"/>
-      <c r="D701" s="7"/>
-      <c r="E701" s="5"/>
+      <c r="D701" s="10"/>
+      <c r="E701" s="8"/>
     </row>
     <row r="702" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="2"/>
-      <c r="D702" s="7"/>
-      <c r="E702" s="5"/>
+      <c r="D702" s="10"/>
+      <c r="E702" s="8"/>
     </row>
     <row r="703" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="2"/>
-      <c r="D703" s="7"/>
-      <c r="E703" s="5"/>
+      <c r="D703" s="10"/>
+      <c r="E703" s="8"/>
     </row>
     <row r="704" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="2"/>
-      <c r="D704" s="7"/>
-      <c r="E704" s="5"/>
+      <c r="D704" s="10"/>
+      <c r="E704" s="8"/>
     </row>
     <row r="705" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="2"/>
-      <c r="D705" s="7"/>
-      <c r="E705" s="5"/>
+      <c r="D705" s="10"/>
+      <c r="E705" s="8"/>
     </row>
     <row r="706" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="2"/>
-      <c r="D706" s="7"/>
-      <c r="E706" s="5"/>
+      <c r="D706" s="10"/>
+      <c r="E706" s="8"/>
     </row>
     <row r="707" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="2"/>
-      <c r="D707" s="7"/>
-      <c r="E707" s="5"/>
+      <c r="D707" s="10"/>
+      <c r="E707" s="8"/>
     </row>
     <row r="708" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="2"/>
-      <c r="D708" s="7"/>
-      <c r="E708" s="5"/>
+      <c r="D708" s="10"/>
+      <c r="E708" s="8"/>
     </row>
     <row r="709" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="2"/>
-      <c r="D709" s="7"/>
-      <c r="E709" s="5"/>
+      <c r="D709" s="10"/>
+      <c r="E709" s="8"/>
     </row>
     <row r="710" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="2"/>
-      <c r="D710" s="7"/>
-      <c r="E710" s="5"/>
+      <c r="D710" s="10"/>
+      <c r="E710" s="8"/>
     </row>
     <row r="711" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="2"/>
-      <c r="D711" s="7"/>
-      <c r="E711" s="5"/>
+      <c r="D711" s="10"/>
+      <c r="E711" s="8"/>
     </row>
     <row r="712" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="2"/>
-      <c r="D712" s="7"/>
-      <c r="E712" s="5"/>
+      <c r="D712" s="10"/>
+      <c r="E712" s="8"/>
     </row>
     <row r="713" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="2"/>
-      <c r="D713" s="7"/>
-      <c r="E713" s="5"/>
+      <c r="D713" s="10"/>
+      <c r="E713" s="8"/>
     </row>
     <row r="714" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="2"/>
-      <c r="D714" s="7"/>
-      <c r="E714" s="5"/>
+      <c r="D714" s="10"/>
+      <c r="E714" s="8"/>
     </row>
     <row r="715" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="2"/>
-      <c r="D715" s="7"/>
-      <c r="E715" s="5"/>
+      <c r="D715" s="10"/>
+      <c r="E715" s="8"/>
     </row>
     <row r="716" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="2"/>
-      <c r="D716" s="7"/>
-      <c r="E716" s="5"/>
+      <c r="D716" s="10"/>
+      <c r="E716" s="8"/>
     </row>
     <row r="717" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="2"/>
-      <c r="D717" s="7"/>
-      <c r="E717" s="5"/>
+      <c r="D717" s="10"/>
+      <c r="E717" s="8"/>
     </row>
     <row r="718" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="2"/>
-      <c r="D718" s="7"/>
-      <c r="E718" s="5"/>
+      <c r="D718" s="10"/>
+      <c r="E718" s="8"/>
     </row>
     <row r="719" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="2"/>
-      <c r="D719" s="7"/>
-      <c r="E719" s="5"/>
+      <c r="D719" s="10"/>
+      <c r="E719" s="8"/>
     </row>
     <row r="720" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="2"/>
-      <c r="D720" s="7"/>
-      <c r="E720" s="5"/>
+      <c r="D720" s="10"/>
+      <c r="E720" s="8"/>
     </row>
     <row r="721" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="2"/>
-      <c r="D721" s="7"/>
-      <c r="E721" s="5"/>
+      <c r="D721" s="10"/>
+      <c r="E721" s="8"/>
     </row>
     <row r="722" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="2"/>
-      <c r="D722" s="7"/>
-      <c r="E722" s="5"/>
+      <c r="D722" s="10"/>
+      <c r="E722" s="8"/>
     </row>
     <row r="723" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="2"/>
-      <c r="D723" s="7"/>
-      <c r="E723" s="5"/>
+      <c r="D723" s="10"/>
+      <c r="E723" s="8"/>
     </row>
     <row r="724" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="2"/>
-      <c r="D724" s="7"/>
-      <c r="E724" s="5"/>
+      <c r="D724" s="10"/>
+      <c r="E724" s="8"/>
     </row>
     <row r="725" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="2"/>
-      <c r="D725" s="7"/>
-      <c r="E725" s="5"/>
+      <c r="D725" s="10"/>
+      <c r="E725" s="8"/>
     </row>
     <row r="726" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="2"/>
-      <c r="D726" s="7"/>
-      <c r="E726" s="5"/>
+      <c r="D726" s="10"/>
+      <c r="E726" s="8"/>
     </row>
     <row r="727" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="2"/>
-      <c r="D727" s="7"/>
-      <c r="E727" s="5"/>
+      <c r="D727" s="10"/>
+      <c r="E727" s="8"/>
     </row>
     <row r="728" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="2"/>
-      <c r="D728" s="7"/>
-      <c r="E728" s="5"/>
+      <c r="D728" s="10"/>
+      <c r="E728" s="8"/>
     </row>
     <row r="729" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="2"/>
-      <c r="D729" s="7"/>
-      <c r="E729" s="5"/>
+      <c r="D729" s="10"/>
+      <c r="E729" s="8"/>
     </row>
     <row r="730" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="2"/>
-      <c r="D730" s="7"/>
-      <c r="E730" s="5"/>
+      <c r="D730" s="10"/>
+      <c r="E730" s="8"/>
     </row>
     <row r="731" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="2"/>
-      <c r="D731" s="7"/>
-      <c r="E731" s="5"/>
+      <c r="D731" s="10"/>
+      <c r="E731" s="8"/>
     </row>
     <row r="732" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="2"/>
-      <c r="D732" s="7"/>
-      <c r="E732" s="5"/>
+      <c r="D732" s="10"/>
+      <c r="E732" s="8"/>
     </row>
     <row r="733" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="2"/>
-      <c r="D733" s="7"/>
-      <c r="E733" s="5"/>
+      <c r="D733" s="10"/>
+      <c r="E733" s="8"/>
     </row>
     <row r="734" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="2"/>
-      <c r="D734" s="7"/>
-      <c r="E734" s="5"/>
+      <c r="D734" s="10"/>
+      <c r="E734" s="8"/>
     </row>
     <row r="735" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="2"/>
-      <c r="D735" s="7"/>
-      <c r="E735" s="5"/>
+      <c r="D735" s="10"/>
+      <c r="E735" s="8"/>
     </row>
     <row r="736" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="2"/>
-      <c r="D736" s="7"/>
-      <c r="E736" s="5"/>
+      <c r="D736" s="10"/>
+      <c r="E736" s="8"/>
     </row>
     <row r="737" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="2"/>
-      <c r="D737" s="7"/>
-      <c r="E737" s="5"/>
+      <c r="D737" s="10"/>
+      <c r="E737" s="8"/>
     </row>
     <row r="738" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="2"/>
-      <c r="D738" s="7"/>
-      <c r="E738" s="5"/>
+      <c r="D738" s="10"/>
+      <c r="E738" s="8"/>
     </row>
     <row r="739" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="2"/>
-      <c r="D739" s="7"/>
-      <c r="E739" s="5"/>
+      <c r="D739" s="10"/>
+      <c r="E739" s="8"/>
     </row>
     <row r="740" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="2"/>
-      <c r="D740" s="7"/>
-      <c r="E740" s="5"/>
+      <c r="D740" s="10"/>
+      <c r="E740" s="8"/>
     </row>
     <row r="741" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="2"/>
-      <c r="D741" s="7"/>
-      <c r="E741" s="5"/>
+      <c r="D741" s="10"/>
+      <c r="E741" s="8"/>
     </row>
     <row r="742" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="2"/>
-      <c r="D742" s="7"/>
-      <c r="E742" s="5"/>
+      <c r="D742" s="10"/>
+      <c r="E742" s="8"/>
     </row>
     <row r="743" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="2"/>
-      <c r="D743" s="7"/>
-      <c r="E743" s="5"/>
+      <c r="D743" s="10"/>
+      <c r="E743" s="8"/>
     </row>
     <row r="744" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="2"/>
-      <c r="D744" s="7"/>
-      <c r="E744" s="5"/>
+      <c r="D744" s="10"/>
+      <c r="E744" s="8"/>
     </row>
     <row r="745" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="2"/>
-      <c r="D745" s="7"/>
-      <c r="E745" s="5"/>
+      <c r="D745" s="10"/>
+      <c r="E745" s="8"/>
     </row>
     <row r="746" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="2"/>
-      <c r="D746" s="7"/>
-      <c r="E746" s="5"/>
+      <c r="D746" s="10"/>
+      <c r="E746" s="8"/>
     </row>
     <row r="747" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="2"/>
-      <c r="D747" s="7"/>
-      <c r="E747" s="5"/>
+      <c r="D747" s="10"/>
+      <c r="E747" s="8"/>
     </row>
     <row r="748" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="2"/>
-      <c r="D748" s="7"/>
-      <c r="E748" s="5"/>
+      <c r="D748" s="10"/>
+      <c r="E748" s="8"/>
     </row>
     <row r="749" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="2"/>
-      <c r="D749" s="7"/>
-      <c r="E749" s="5"/>
+      <c r="D749" s="10"/>
+      <c r="E749" s="8"/>
     </row>
     <row r="750" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="2"/>
-      <c r="D750" s="7"/>
-      <c r="E750" s="5"/>
+      <c r="D750" s="10"/>
+      <c r="E750" s="8"/>
     </row>
     <row r="751" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="2"/>
-      <c r="D751" s="7"/>
-      <c r="E751" s="5"/>
+      <c r="D751" s="10"/>
+      <c r="E751" s="8"/>
     </row>
     <row r="752" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="2"/>
-      <c r="D752" s="7"/>
-      <c r="E752" s="5"/>
+      <c r="D752" s="10"/>
+      <c r="E752" s="8"/>
     </row>
     <row r="753" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="2"/>
-      <c r="D753" s="7"/>
-      <c r="E753" s="5"/>
+      <c r="D753" s="10"/>
+      <c r="E753" s="8"/>
     </row>
     <row r="754" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="2"/>
-      <c r="D754" s="7"/>
-      <c r="E754" s="5"/>
+      <c r="D754" s="10"/>
+      <c r="E754" s="8"/>
     </row>
     <row r="755" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="2"/>
-      <c r="D755" s="7"/>
-      <c r="E755" s="5"/>
+      <c r="D755" s="10"/>
+      <c r="E755" s="8"/>
     </row>
     <row r="756" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="2"/>
-      <c r="D756" s="7"/>
-      <c r="E756" s="5"/>
+      <c r="D756" s="10"/>
+      <c r="E756" s="8"/>
     </row>
     <row r="757" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="2"/>
-      <c r="D757" s="7"/>
-      <c r="E757" s="5"/>
+      <c r="D757" s="10"/>
+      <c r="E757" s="8"/>
     </row>
     <row r="758" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="2"/>
-      <c r="D758" s="7"/>
-      <c r="E758" s="5"/>
+      <c r="D758" s="10"/>
+      <c r="E758" s="8"/>
     </row>
     <row r="759" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="2"/>
-      <c r="D759" s="7"/>
-      <c r="E759" s="5"/>
+      <c r="D759" s="10"/>
+      <c r="E759" s="8"/>
     </row>
     <row r="760" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="2"/>
-      <c r="D760" s="7"/>
-      <c r="E760" s="5"/>
+      <c r="D760" s="10"/>
+      <c r="E760" s="8"/>
     </row>
     <row r="761" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="2"/>
-      <c r="D761" s="7"/>
-      <c r="E761" s="5"/>
+      <c r="D761" s="10"/>
+      <c r="E761" s="8"/>
     </row>
     <row r="762" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="2"/>
-      <c r="D762" s="7"/>
-      <c r="E762" s="5"/>
+      <c r="D762" s="10"/>
+      <c r="E762" s="8"/>
     </row>
     <row r="763" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="2"/>
-      <c r="D763" s="7"/>
-      <c r="E763" s="5"/>
+      <c r="D763" s="10"/>
+      <c r="E763" s="8"/>
     </row>
     <row r="764" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="2"/>
-      <c r="D764" s="7"/>
-      <c r="E764" s="5"/>
+      <c r="D764" s="10"/>
+      <c r="E764" s="8"/>
     </row>
     <row r="765" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="2"/>
-      <c r="D765" s="7"/>
-      <c r="E765" s="5"/>
+      <c r="D765" s="10"/>
+      <c r="E765" s="8"/>
     </row>
     <row r="766" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="2"/>
-      <c r="D766" s="7"/>
-      <c r="E766" s="5"/>
+      <c r="D766" s="10"/>
+      <c r="E766" s="8"/>
     </row>
     <row r="767" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="2"/>
-      <c r="D767" s="7"/>
-      <c r="E767" s="5"/>
+      <c r="D767" s="10"/>
+      <c r="E767" s="8"/>
     </row>
     <row r="768" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="2"/>
-      <c r="D768" s="7"/>
-      <c r="E768" s="5"/>
+      <c r="D768" s="10"/>
+      <c r="E768" s="8"/>
     </row>
     <row r="769" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="2"/>
-      <c r="D769" s="7"/>
-      <c r="E769" s="5"/>
+      <c r="D769" s="10"/>
+      <c r="E769" s="8"/>
     </row>
     <row r="770" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="2"/>
-      <c r="D770" s="7"/>
-      <c r="E770" s="5"/>
+      <c r="D770" s="10"/>
+      <c r="E770" s="8"/>
     </row>
     <row r="771" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="2"/>
-      <c r="D771" s="7"/>
-      <c r="E771" s="5"/>
+      <c r="D771" s="10"/>
+      <c r="E771" s="8"/>
     </row>
     <row r="772" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="2"/>
-      <c r="D772" s="7"/>
-      <c r="E772" s="5"/>
+      <c r="D772" s="10"/>
+      <c r="E772" s="8"/>
     </row>
     <row r="773" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="2"/>
-      <c r="D773" s="7"/>
-      <c r="E773" s="5"/>
+      <c r="D773" s="10"/>
+      <c r="E773" s="8"/>
     </row>
     <row r="774" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="2"/>
-      <c r="D774" s="7"/>
-      <c r="E774" s="5"/>
+      <c r="D774" s="10"/>
+      <c r="E774" s="8"/>
     </row>
     <row r="775" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="2"/>
-      <c r="D775" s="7"/>
-      <c r="E775" s="5"/>
+      <c r="D775" s="10"/>
+      <c r="E775" s="8"/>
     </row>
     <row r="776" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="2"/>
-      <c r="D776" s="7"/>
-      <c r="E776" s="5"/>
+      <c r="D776" s="10"/>
+      <c r="E776" s="8"/>
     </row>
     <row r="777" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="2"/>
-      <c r="D777" s="7"/>
-      <c r="E777" s="5"/>
+      <c r="D777" s="10"/>
+      <c r="E777" s="8"/>
     </row>
     <row r="778" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="2"/>
-      <c r="D778" s="7"/>
-      <c r="E778" s="5"/>
+      <c r="D778" s="10"/>
+      <c r="E778" s="8"/>
     </row>
     <row r="779" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="2"/>
-      <c r="D779" s="7"/>
-      <c r="E779" s="5"/>
+      <c r="D779" s="10"/>
+      <c r="E779" s="8"/>
     </row>
     <row r="780" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="2"/>
-      <c r="D780" s="7"/>
-      <c r="E780" s="5"/>
+      <c r="D780" s="10"/>
+      <c r="E780" s="8"/>
     </row>
     <row r="781" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="2"/>
-      <c r="D781" s="7"/>
-      <c r="E781" s="5"/>
+      <c r="D781" s="10"/>
+      <c r="E781" s="8"/>
     </row>
     <row r="782" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="2"/>
-      <c r="D782" s="7"/>
-      <c r="E782" s="5"/>
+      <c r="D782" s="10"/>
+      <c r="E782" s="8"/>
     </row>
     <row r="783" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="2"/>
-      <c r="D783" s="7"/>
-      <c r="E783" s="5"/>
+      <c r="D783" s="10"/>
+      <c r="E783" s="8"/>
     </row>
     <row r="784" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="2"/>
-      <c r="D784" s="7"/>
-      <c r="E784" s="5"/>
+      <c r="D784" s="10"/>
+      <c r="E784" s="8"/>
     </row>
     <row r="785" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="2"/>
-      <c r="D785" s="7"/>
-      <c r="E785" s="5"/>
+      <c r="D785" s="10"/>
+      <c r="E785" s="8"/>
     </row>
     <row r="786" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="2"/>
-      <c r="D786" s="7"/>
-      <c r="E786" s="5"/>
+      <c r="D786" s="10"/>
+      <c r="E786" s="8"/>
     </row>
     <row r="787" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="2"/>
-      <c r="D787" s="7"/>
-      <c r="E787" s="5"/>
+      <c r="D787" s="10"/>
+      <c r="E787" s="8"/>
     </row>
     <row r="788" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="2"/>
-      <c r="D788" s="7"/>
-      <c r="E788" s="5"/>
+      <c r="D788" s="10"/>
+      <c r="E788" s="8"/>
     </row>
     <row r="789" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="2"/>
-      <c r="D789" s="7"/>
-      <c r="E789" s="5"/>
+      <c r="D789" s="10"/>
+      <c r="E789" s="8"/>
     </row>
     <row r="790" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="2"/>
-      <c r="D790" s="7"/>
-      <c r="E790" s="5"/>
+      <c r="D790" s="10"/>
+      <c r="E790" s="8"/>
     </row>
     <row r="791" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="2"/>
-      <c r="D791" s="7"/>
-      <c r="E791" s="5"/>
+      <c r="D791" s="10"/>
+      <c r="E791" s="8"/>
     </row>
     <row r="792" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="2"/>
-      <c r="D792" s="7"/>
-      <c r="E792" s="5"/>
+      <c r="D792" s="10"/>
+      <c r="E792" s="8"/>
     </row>
     <row r="793" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="2"/>
-      <c r="D793" s="7"/>
-      <c r="E793" s="5"/>
+      <c r="D793" s="10"/>
+      <c r="E793" s="8"/>
     </row>
     <row r="794" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="2"/>
-      <c r="D794" s="7"/>
-      <c r="E794" s="5"/>
+      <c r="D794" s="10"/>
+      <c r="E794" s="8"/>
     </row>
     <row r="795" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="2"/>
-      <c r="D795" s="7"/>
-      <c r="E795" s="5"/>
+      <c r="D795" s="10"/>
+      <c r="E795" s="8"/>
     </row>
     <row r="796" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="2"/>
-      <c r="D796" s="7"/>
-      <c r="E796" s="5"/>
+      <c r="D796" s="10"/>
+      <c r="E796" s="8"/>
     </row>
     <row r="797" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="2"/>
-      <c r="D797" s="7"/>
-      <c r="E797" s="5"/>
+      <c r="D797" s="10"/>
+      <c r="E797" s="8"/>
     </row>
     <row r="798" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="2"/>
-      <c r="D798" s="7"/>
-      <c r="E798" s="5"/>
+      <c r="D798" s="10"/>
+      <c r="E798" s="8"/>
     </row>
     <row r="799" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="2"/>
-      <c r="D799" s="7"/>
-      <c r="E799" s="5"/>
+      <c r="D799" s="10"/>
+      <c r="E799" s="8"/>
     </row>
     <row r="800" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="2"/>
-      <c r="D800" s="7"/>
-      <c r="E800" s="5"/>
+      <c r="D800" s="10"/>
+      <c r="E800" s="8"/>
     </row>
     <row r="801" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="2"/>
-      <c r="D801" s="7"/>
-      <c r="E801" s="5"/>
+      <c r="D801" s="10"/>
+      <c r="E801" s="8"/>
     </row>
     <row r="802" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="2"/>
-      <c r="D802" s="7"/>
-      <c r="E802" s="5"/>
+      <c r="D802" s="10"/>
+      <c r="E802" s="8"/>
     </row>
     <row r="803" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="2"/>
-      <c r="D803" s="7"/>
-      <c r="E803" s="5"/>
+      <c r="D803" s="10"/>
+      <c r="E803" s="8"/>
     </row>
     <row r="804" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="2"/>
-      <c r="D804" s="7"/>
-      <c r="E804" s="5"/>
+      <c r="D804" s="10"/>
+      <c r="E804" s="8"/>
     </row>
     <row r="805" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="2"/>
-      <c r="D805" s="7"/>
-      <c r="E805" s="5"/>
+      <c r="D805" s="10"/>
+      <c r="E805" s="8"/>
     </row>
     <row r="806" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="2"/>
-      <c r="D806" s="7"/>
-      <c r="E806" s="5"/>
+      <c r="D806" s="10"/>
+      <c r="E806" s="8"/>
     </row>
     <row r="807" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="2"/>
-      <c r="D807" s="7"/>
-      <c r="E807" s="5"/>
+      <c r="D807" s="10"/>
+      <c r="E807" s="8"/>
     </row>
     <row r="808" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="2"/>
-      <c r="D808" s="7"/>
-      <c r="E808" s="5"/>
+      <c r="D808" s="10"/>
+      <c r="E808" s="8"/>
     </row>
     <row r="809" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="2"/>
-      <c r="D809" s="7"/>
-      <c r="E809" s="5"/>
+      <c r="D809" s="10"/>
+      <c r="E809" s="8"/>
     </row>
     <row r="810" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="2"/>
-      <c r="D810" s="7"/>
-      <c r="E810" s="5"/>
+      <c r="D810" s="10"/>
+      <c r="E810" s="8"/>
     </row>
     <row r="811" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="2"/>
-      <c r="D811" s="7"/>
-      <c r="E811" s="5"/>
+      <c r="D811" s="10"/>
+      <c r="E811" s="8"/>
     </row>
     <row r="812" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="2"/>
-      <c r="D812" s="7"/>
-      <c r="E812" s="5"/>
+      <c r="D812" s="10"/>
+      <c r="E812" s="8"/>
     </row>
     <row r="813" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="2"/>
-      <c r="D813" s="7"/>
-      <c r="E813" s="5"/>
+      <c r="D813" s="10"/>
+      <c r="E813" s="8"/>
     </row>
     <row r="814" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="2"/>
-      <c r="D814" s="7"/>
-      <c r="E814" s="5"/>
+      <c r="D814" s="10"/>
+      <c r="E814" s="8"/>
     </row>
     <row r="815" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="2"/>
-      <c r="D815" s="7"/>
-      <c r="E815" s="5"/>
+      <c r="D815" s="10"/>
+      <c r="E815" s="8"/>
     </row>
     <row r="816" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="2"/>
-      <c r="D816" s="7"/>
-      <c r="E816" s="5"/>
+      <c r="D816" s="10"/>
+      <c r="E816" s="8"/>
     </row>
     <row r="817" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="2"/>
-      <c r="D817" s="7"/>
-      <c r="E817" s="5"/>
+      <c r="D817" s="10"/>
+      <c r="E817" s="8"/>
     </row>
     <row r="818" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="2"/>
-      <c r="D818" s="7"/>
-      <c r="E818" s="5"/>
+      <c r="D818" s="10"/>
+      <c r="E818" s="8"/>
     </row>
     <row r="819" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="2"/>
-      <c r="D819" s="7"/>
-      <c r="E819" s="5"/>
+      <c r="D819" s="10"/>
+      <c r="E819" s="8"/>
     </row>
     <row r="820" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="2"/>
-      <c r="D820" s="7"/>
-      <c r="E820" s="5"/>
+      <c r="D820" s="10"/>
+      <c r="E820" s="8"/>
     </row>
     <row r="821" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="2"/>
-      <c r="D821" s="7"/>
-      <c r="E821" s="5"/>
+      <c r="D821" s="10"/>
+      <c r="E821" s="8"/>
     </row>
     <row r="822" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="2"/>
-      <c r="D822" s="7"/>
-      <c r="E822" s="5"/>
+      <c r="D822" s="10"/>
+      <c r="E822" s="8"/>
     </row>
     <row r="823" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="2"/>
-      <c r="D823" s="7"/>
-      <c r="E823" s="5"/>
+      <c r="D823" s="10"/>
+      <c r="E823" s="8"/>
     </row>
     <row r="824" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="2"/>
-      <c r="D824" s="7"/>
-      <c r="E824" s="5"/>
+      <c r="D824" s="10"/>
+      <c r="E824" s="8"/>
     </row>
     <row r="825" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="2"/>
-      <c r="D825" s="7"/>
-      <c r="E825" s="5"/>
+      <c r="D825" s="10"/>
+      <c r="E825" s="8"/>
     </row>
     <row r="826" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="2"/>
-      <c r="D826" s="7"/>
-      <c r="E826" s="5"/>
+      <c r="D826" s="10"/>
+      <c r="E826" s="8"/>
     </row>
     <row r="827" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="2"/>
-      <c r="D827" s="7"/>
-      <c r="E827" s="5"/>
+      <c r="D827" s="10"/>
+      <c r="E827" s="8"/>
     </row>
     <row r="828" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="2"/>
-      <c r="D828" s="7"/>
-      <c r="E828" s="5"/>
+      <c r="D828" s="10"/>
+      <c r="E828" s="8"/>
     </row>
     <row r="829" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="2"/>
-      <c r="D829" s="7"/>
-      <c r="E829" s="5"/>
+      <c r="D829" s="10"/>
+      <c r="E829" s="8"/>
     </row>
     <row r="830" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="2"/>
-      <c r="D830" s="7"/>
-      <c r="E830" s="5"/>
+      <c r="D830" s="10"/>
+      <c r="E830" s="8"/>
     </row>
     <row r="831" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="2"/>
-      <c r="D831" s="7"/>
-      <c r="E831" s="5"/>
+      <c r="D831" s="10"/>
+      <c r="E831" s="8"/>
     </row>
     <row r="832" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="2"/>
-      <c r="D832" s="7"/>
-      <c r="E832" s="5"/>
+      <c r="D832" s="10"/>
+      <c r="E832" s="8"/>
     </row>
     <row r="833" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="2"/>
-      <c r="D833" s="7"/>
-      <c r="E833" s="5"/>
+      <c r="D833" s="10"/>
+      <c r="E833" s="8"/>
     </row>
     <row r="834" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="2"/>
-      <c r="D834" s="7"/>
-      <c r="E834" s="5"/>
+      <c r="D834" s="10"/>
+      <c r="E834" s="8"/>
     </row>
     <row r="835" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="2"/>
-      <c r="D835" s="7"/>
-      <c r="E835" s="5"/>
+      <c r="D835" s="10"/>
+      <c r="E835" s="8"/>
     </row>
     <row r="836" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="2"/>
-      <c r="D836" s="7"/>
-      <c r="E836" s="5"/>
+      <c r="D836" s="10"/>
+      <c r="E836" s="8"/>
     </row>
     <row r="837" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="2"/>
-      <c r="D837" s="7"/>
-      <c r="E837" s="5"/>
+      <c r="D837" s="10"/>
+      <c r="E837" s="8"/>
     </row>
     <row r="838" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="2"/>
-      <c r="D838" s="7"/>
-      <c r="E838" s="5"/>
+      <c r="D838" s="10"/>
+      <c r="E838" s="8"/>
     </row>
     <row r="839" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="2"/>
-      <c r="D839" s="7"/>
-      <c r="E839" s="5"/>
+      <c r="D839" s="10"/>
+      <c r="E839" s="8"/>
     </row>
     <row r="840" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="2"/>
-      <c r="D840" s="7"/>
-      <c r="E840" s="5"/>
+      <c r="D840" s="10"/>
+      <c r="E840" s="8"/>
     </row>
     <row r="841" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="2"/>
-      <c r="D841" s="7"/>
-      <c r="E841" s="5"/>
+      <c r="D841" s="10"/>
+      <c r="E841" s="8"/>
     </row>
     <row r="842" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="2"/>
-      <c r="D842" s="7"/>
-      <c r="E842" s="5"/>
+      <c r="D842" s="10"/>
+      <c r="E842" s="8"/>
     </row>
     <row r="843" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="2"/>
-      <c r="D843" s="7"/>
-      <c r="E843" s="5"/>
+      <c r="D843" s="10"/>
+      <c r="E843" s="8"/>
     </row>
     <row r="844" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="2"/>
-      <c r="D844" s="7"/>
-      <c r="E844" s="5"/>
+      <c r="D844" s="10"/>
+      <c r="E844" s="8"/>
     </row>
     <row r="845" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="2"/>
-      <c r="D845" s="7"/>
-      <c r="E845" s="5"/>
+      <c r="D845" s="10"/>
+      <c r="E845" s="8"/>
     </row>
     <row r="846" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="2"/>
-      <c r="D846" s="7"/>
-      <c r="E846" s="5"/>
+      <c r="D846" s="10"/>
+      <c r="E846" s="8"/>
     </row>
     <row r="847" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="2"/>
-      <c r="D847" s="7"/>
-      <c r="E847" s="5"/>
+      <c r="D847" s="10"/>
+      <c r="E847" s="8"/>
     </row>
     <row r="848" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="2"/>
-      <c r="D848" s="7"/>
-      <c r="E848" s="5"/>
+      <c r="D848" s="10"/>
+      <c r="E848" s="8"/>
     </row>
     <row r="849" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="2"/>
-      <c r="D849" s="7"/>
-      <c r="E849" s="5"/>
+      <c r="D849" s="10"/>
+      <c r="E849" s="8"/>
     </row>
     <row r="850" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="2"/>
-      <c r="D850" s="7"/>
-      <c r="E850" s="5"/>
+      <c r="D850" s="10"/>
+      <c r="E850" s="8"/>
     </row>
     <row r="851" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="2"/>
-      <c r="D851" s="7"/>
-      <c r="E851" s="5"/>
+      <c r="D851" s="10"/>
+      <c r="E851" s="8"/>
     </row>
     <row r="852" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="2"/>
-      <c r="D852" s="7"/>
-      <c r="E852" s="5"/>
+      <c r="D852" s="10"/>
+      <c r="E852" s="8"/>
     </row>
     <row r="853" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="2"/>
-      <c r="D853" s="7"/>
-      <c r="E853" s="5"/>
+      <c r="D853" s="10"/>
+      <c r="E853" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
